--- a/result/EAsia.genome_fraction.xlsx
+++ b/result/EAsia.genome_fraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangdi/work2/HpGP-ICE/HpGP_ICE_Quast/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7FCE4110-1B57-6945-9FED-38079441E5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CED787E-3E61-3B4A-8F6B-788CF21A19C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="500" windowWidth="28040" windowHeight="22340" activeTab="1" xr2:uid="{6CBFF249-59EF-6745-BC40-A4DB7D7A988E}"/>
   </bookViews>
@@ -3073,7 +3073,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3206,6 +3206,13 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3550,9 +3557,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -12055,20 +12071,20 @@
   <dimension ref="A1:B1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="59.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -12076,7 +12092,7 @@
       <c r="A2" t="s">
         <v>391</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>95.6</v>
       </c>
     </row>
@@ -12084,7 +12100,7 @@
       <c r="A3" t="s">
         <v>546</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>95.477000000000004</v>
       </c>
     </row>
@@ -12092,7 +12108,7 @@
       <c r="A4" t="s">
         <v>393</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>95.340999999999994</v>
       </c>
     </row>
@@ -12100,7 +12116,7 @@
       <c r="A5" t="s">
         <v>382</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>95.335999999999999</v>
       </c>
     </row>
@@ -12108,7 +12124,7 @@
       <c r="A6" t="s">
         <v>470</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>95.311000000000007</v>
       </c>
     </row>
@@ -12116,7 +12132,7 @@
       <c r="A7" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>95.295000000000002</v>
       </c>
     </row>
@@ -12124,7 +12140,7 @@
       <c r="A8" t="s">
         <v>730</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>95.26</v>
       </c>
     </row>
@@ -12132,7 +12148,7 @@
       <c r="A9" t="s">
         <v>386</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>95.257999999999996</v>
       </c>
     </row>
@@ -12140,7 +12156,7 @@
       <c r="A10" t="s">
         <v>477</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>95.203000000000003</v>
       </c>
     </row>
@@ -12148,7 +12164,7 @@
       <c r="A11" t="s">
         <v>733</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>95.194999999999993</v>
       </c>
     </row>
@@ -12156,7 +12172,7 @@
       <c r="A12" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>95.191999999999993</v>
       </c>
     </row>
@@ -12164,7 +12180,7 @@
       <c r="A13" t="s">
         <v>394</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>95.123000000000005</v>
       </c>
     </row>
@@ -12172,7 +12188,7 @@
       <c r="A14" t="s">
         <v>469</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>95.1</v>
       </c>
     </row>
@@ -12180,7 +12196,7 @@
       <c r="A15" t="s">
         <v>480</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>95.093999999999994</v>
       </c>
     </row>
@@ -12188,7 +12204,7 @@
       <c r="A16" t="s">
         <v>385</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>95.087999999999994</v>
       </c>
     </row>
@@ -12196,7 +12212,7 @@
       <c r="A17" t="s">
         <v>716</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>95.067999999999998</v>
       </c>
     </row>
@@ -12204,7 +12220,7 @@
       <c r="A18" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>95.058999999999997</v>
       </c>
     </row>
@@ -12212,7 +12228,7 @@
       <c r="A19" t="s">
         <v>552</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>95.036000000000001</v>
       </c>
     </row>
@@ -12220,7 +12236,7 @@
       <c r="A20" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>95.027000000000001</v>
       </c>
     </row>
@@ -12228,7 +12244,7 @@
       <c r="A21" t="s">
         <v>549</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>95.022000000000006</v>
       </c>
     </row>
@@ -12236,7 +12252,7 @@
       <c r="A22" t="s">
         <v>905</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>94.972999999999999</v>
       </c>
     </row>
@@ -12244,7 +12260,7 @@
       <c r="A23" t="s">
         <v>933</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>94.947999999999993</v>
       </c>
     </row>
@@ -12252,7 +12268,7 @@
       <c r="A24" t="s">
         <v>916</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>94.929000000000002</v>
       </c>
     </row>
@@ -12260,7 +12276,7 @@
       <c r="A25" t="s">
         <v>451</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>94.86</v>
       </c>
     </row>
@@ -12268,7 +12284,7 @@
       <c r="A26" t="s">
         <v>395</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>94.846000000000004</v>
       </c>
     </row>
@@ -12276,7 +12292,7 @@
       <c r="A27" t="s">
         <v>555</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>94.834999999999994</v>
       </c>
     </row>
@@ -12284,7 +12300,7 @@
       <c r="A28" t="s">
         <v>445</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>94.8</v>
       </c>
     </row>
@@ -12292,7 +12308,7 @@
       <c r="A29" t="s">
         <v>401</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>94.798000000000002</v>
       </c>
     </row>
@@ -12300,7 +12316,7 @@
       <c r="A30" t="s">
         <v>383</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>94.772999999999996</v>
       </c>
     </row>
@@ -12308,7 +12324,7 @@
       <c r="A31" t="s">
         <v>461</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>94.733000000000004</v>
       </c>
     </row>
@@ -12316,7 +12332,7 @@
       <c r="A32" t="s">
         <v>389</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>94.727999999999994</v>
       </c>
     </row>
@@ -12324,7 +12340,7 @@
       <c r="A33" t="s">
         <v>432</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>94.72</v>
       </c>
     </row>
@@ -12332,7 +12348,7 @@
       <c r="A34" t="s">
         <v>484</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>94.698999999999998</v>
       </c>
     </row>
@@ -12340,7 +12356,7 @@
       <c r="A35" t="s">
         <v>464</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>94.691999999999993</v>
       </c>
     </row>
@@ -12348,7 +12364,7 @@
       <c r="A36" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>94.69</v>
       </c>
     </row>
@@ -12356,7 +12372,7 @@
       <c r="A37" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>94.686000000000007</v>
       </c>
     </row>
@@ -12364,7 +12380,7 @@
       <c r="A38" t="s">
         <v>724</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>94.685000000000002</v>
       </c>
     </row>
@@ -12372,7 +12388,7 @@
       <c r="A39" t="s">
         <v>714</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>94.680999999999997</v>
       </c>
     </row>
@@ -12380,7 +12396,7 @@
       <c r="A40" t="s">
         <v>390</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>94.68</v>
       </c>
     </row>
@@ -12388,7 +12404,7 @@
       <c r="A41" t="s">
         <v>463</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>94.677999999999997</v>
       </c>
     </row>
@@ -12396,7 +12412,7 @@
       <c r="A42" t="s">
         <v>441</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>94.674999999999997</v>
       </c>
     </row>
@@ -12404,7 +12420,7 @@
       <c r="A43" t="s">
         <v>925</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>94.619</v>
       </c>
     </row>
@@ -12412,7 +12428,7 @@
       <c r="A44" t="s">
         <v>909</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>94.614000000000004</v>
       </c>
     </row>
@@ -12420,7 +12436,7 @@
       <c r="A45" t="s">
         <v>472</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>94.603999999999999</v>
       </c>
     </row>
@@ -12428,7 +12444,7 @@
       <c r="A46" t="s">
         <v>731</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>94.597999999999999</v>
       </c>
     </row>
@@ -12436,7 +12452,7 @@
       <c r="A47" t="s">
         <v>915</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>94.576999999999998</v>
       </c>
     </row>
@@ -12444,7 +12460,7 @@
       <c r="A48" t="s">
         <v>983</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>94.572000000000003</v>
       </c>
     </row>
@@ -12452,7 +12468,7 @@
       <c r="A49" t="s">
         <v>467</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>94.552999999999997</v>
       </c>
     </row>
@@ -12460,7 +12476,7 @@
       <c r="A50" t="s">
         <v>442</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>94.552000000000007</v>
       </c>
     </row>
@@ -12468,7 +12484,7 @@
       <c r="A51" t="s">
         <v>473</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <v>94.528999999999996</v>
       </c>
     </row>
@@ -12476,7 +12492,7 @@
       <c r="A52" t="s">
         <v>558</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>94.52</v>
       </c>
     </row>
@@ -12484,7 +12500,7 @@
       <c r="A53" t="s">
         <v>720</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>94.516999999999996</v>
       </c>
     </row>
@@ -12492,7 +12508,7 @@
       <c r="A54" t="s">
         <v>388</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>94.507999999999996</v>
       </c>
     </row>
@@ -12500,7 +12516,7 @@
       <c r="A55" t="s">
         <v>407</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="3">
         <v>94.501999999999995</v>
       </c>
     </row>
@@ -12508,7 +12524,7 @@
       <c r="A56" t="s">
         <v>559</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="3">
         <v>94.501000000000005</v>
       </c>
     </row>
@@ -12516,7 +12532,7 @@
       <c r="A57" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="3">
         <v>94.48</v>
       </c>
     </row>
@@ -12524,7 +12540,7 @@
       <c r="A58" t="s">
         <v>387</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>94.465000000000003</v>
       </c>
     </row>
@@ -12532,7 +12548,7 @@
       <c r="A59" t="s">
         <v>483</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>94.444000000000003</v>
       </c>
     </row>
@@ -12540,7 +12556,7 @@
       <c r="A60" t="s">
         <v>403</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>94.436999999999998</v>
       </c>
     </row>
@@ -12548,7 +12564,7 @@
       <c r="A61" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="3">
         <v>94.435000000000002</v>
       </c>
     </row>
@@ -12556,7 +12572,7 @@
       <c r="A62" t="s">
         <v>384</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3">
         <v>94.429000000000002</v>
       </c>
     </row>
@@ -12564,7 +12580,7 @@
       <c r="A63" t="s">
         <v>922</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>94.429000000000002</v>
       </c>
     </row>
@@ -12572,7 +12588,7 @@
       <c r="A64" t="s">
         <v>921</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>94.412999999999997</v>
       </c>
     </row>
@@ -12580,7 +12596,7 @@
       <c r="A65" t="s">
         <v>904</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="3">
         <v>94.382000000000005</v>
       </c>
     </row>
@@ -12588,7 +12604,7 @@
       <c r="A66" t="s">
         <v>918</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="3">
         <v>94.379000000000005</v>
       </c>
     </row>
@@ -12596,7 +12612,7 @@
       <c r="A67" t="s">
         <v>458</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="3">
         <v>94.355000000000004</v>
       </c>
     </row>
@@ -12604,7 +12620,7 @@
       <c r="A68" t="s">
         <v>452</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="3">
         <v>94.343000000000004</v>
       </c>
     </row>
@@ -12612,7 +12628,7 @@
       <c r="A69" t="s">
         <v>913</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>94.338999999999999</v>
       </c>
     </row>
@@ -12620,7 +12636,7 @@
       <c r="A70" t="s">
         <v>719</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="3">
         <v>94.331000000000003</v>
       </c>
     </row>
@@ -12628,7 +12644,7 @@
       <c r="A71" t="s">
         <v>557</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="3">
         <v>94.323999999999998</v>
       </c>
     </row>
@@ -12636,7 +12652,7 @@
       <c r="A72" t="s">
         <v>392</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="3">
         <v>94.313999999999993</v>
       </c>
     </row>
@@ -12644,7 +12660,7 @@
       <c r="A73" t="s">
         <v>454</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="3">
         <v>94.313000000000002</v>
       </c>
     </row>
@@ -12652,7 +12668,7 @@
       <c r="A74" t="s">
         <v>438</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>94.308999999999997</v>
       </c>
     </row>
@@ -12660,7 +12676,7 @@
       <c r="A75" t="s">
         <v>715</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>94.254999999999995</v>
       </c>
     </row>
@@ -12668,7 +12684,7 @@
       <c r="A76" t="s">
         <v>449</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="3">
         <v>94.212999999999994</v>
       </c>
     </row>
@@ -12676,7 +12692,7 @@
       <c r="A77" t="s">
         <v>910</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="3">
         <v>94.195999999999998</v>
       </c>
     </row>
@@ -12684,7 +12700,7 @@
       <c r="A78" t="s">
         <v>551</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="3">
         <v>94.174999999999997</v>
       </c>
     </row>
@@ -12692,7 +12708,7 @@
       <c r="A79" t="s">
         <v>917</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="3">
         <v>94.174999999999997</v>
       </c>
     </row>
@@ -12700,7 +12716,7 @@
       <c r="A80" t="s">
         <v>482</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="3">
         <v>94.155000000000001</v>
       </c>
     </row>
@@ -12708,7 +12724,7 @@
       <c r="A81" t="s">
         <v>468</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="3">
         <v>94.152000000000001</v>
       </c>
     </row>
@@ -12716,7 +12732,7 @@
       <c r="A82" t="s">
         <v>443</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="3">
         <v>94.144999999999996</v>
       </c>
     </row>
@@ -12724,7 +12740,7 @@
       <c r="A83" t="s">
         <v>908</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="3">
         <v>94.12</v>
       </c>
     </row>
@@ -12732,7 +12748,7 @@
       <c r="A84" t="s">
         <v>434</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="3">
         <v>94.117999999999995</v>
       </c>
     </row>
@@ -12740,7 +12756,7 @@
       <c r="A85" t="s">
         <v>444</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="3">
         <v>94.113</v>
       </c>
     </row>
@@ -12748,7 +12764,7 @@
       <c r="A86" t="s">
         <v>481</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="3">
         <v>94.113</v>
       </c>
     </row>
@@ -12756,7 +12772,7 @@
       <c r="A87" t="s">
         <v>727</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="3">
         <v>94.081999999999994</v>
       </c>
     </row>
@@ -12764,7 +12780,7 @@
       <c r="A88" t="s">
         <v>914</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="3">
         <v>94.081999999999994</v>
       </c>
     </row>
@@ -12772,7 +12788,7 @@
       <c r="A89" t="s">
         <v>453</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="3">
         <v>94.073999999999998</v>
       </c>
     </row>
@@ -12780,7 +12796,7 @@
       <c r="A90" t="s">
         <v>478</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="3">
         <v>94.069000000000003</v>
       </c>
     </row>
@@ -12788,7 +12804,7 @@
       <c r="A91" t="s">
         <v>437</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="3">
         <v>94.02</v>
       </c>
     </row>
@@ -12796,7 +12812,7 @@
       <c r="A92" t="s">
         <v>912</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="3">
         <v>94.004000000000005</v>
       </c>
     </row>
@@ -12804,7 +12820,7 @@
       <c r="A93" t="s">
         <v>920</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="3">
         <v>93.994</v>
       </c>
     </row>
@@ -12812,7 +12828,7 @@
       <c r="A94" t="s">
         <v>728</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="3">
         <v>93.944000000000003</v>
       </c>
     </row>
@@ -12820,7 +12836,7 @@
       <c r="A95" t="s">
         <v>409</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="3">
         <v>93.94</v>
       </c>
     </row>
@@ -12828,7 +12844,7 @@
       <c r="A96" t="s">
         <v>479</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="3">
         <v>93.936000000000007</v>
       </c>
     </row>
@@ -12836,7 +12852,7 @@
       <c r="A97" t="s">
         <v>402</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="3">
         <v>93.927000000000007</v>
       </c>
     </row>
@@ -12844,7 +12860,7 @@
       <c r="A98" t="s">
         <v>439</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="3">
         <v>93.917000000000002</v>
       </c>
     </row>
@@ -12852,7 +12868,7 @@
       <c r="A99" t="s">
         <v>919</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>93.891000000000005</v>
       </c>
     </row>
@@ -12860,7 +12876,7 @@
       <c r="A100" t="s">
         <v>134</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="3">
         <v>93.884</v>
       </c>
     </row>
@@ -12868,7 +12884,7 @@
       <c r="A101" t="s">
         <v>717</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="3">
         <v>93.875</v>
       </c>
     </row>
@@ -12876,7 +12892,7 @@
       <c r="A102" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="3">
         <v>93.870999999999995</v>
       </c>
     </row>
@@ -12884,7 +12900,7 @@
       <c r="A103" t="s">
         <v>544</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="3">
         <v>93.867999999999995</v>
       </c>
     </row>
@@ -12892,7 +12908,7 @@
       <c r="A104" t="s">
         <v>408</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="3">
         <v>93.852999999999994</v>
       </c>
     </row>
@@ -12900,7 +12916,7 @@
       <c r="A105" t="s">
         <v>132</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="3">
         <v>93.85</v>
       </c>
     </row>
@@ -12908,7 +12924,7 @@
       <c r="A106" t="s">
         <v>457</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="3">
         <v>93.831000000000003</v>
       </c>
     </row>
@@ -12916,7 +12932,7 @@
       <c r="A107" t="s">
         <v>485</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="3">
         <v>93.826999999999998</v>
       </c>
     </row>
@@ -12924,7 +12940,7 @@
       <c r="A108" t="s">
         <v>436</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="3">
         <v>93.825000000000003</v>
       </c>
     </row>
@@ -12932,7 +12948,7 @@
       <c r="A109" t="s">
         <v>718</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="3">
         <v>93.802999999999997</v>
       </c>
     </row>
@@ -12940,7 +12956,7 @@
       <c r="A110" t="s">
         <v>127</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="3">
         <v>93.796000000000006</v>
       </c>
     </row>
@@ -12948,7 +12964,7 @@
       <c r="A111" t="s">
         <v>435</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="3">
         <v>93.789000000000001</v>
       </c>
     </row>
@@ -12956,7 +12972,7 @@
       <c r="A112" t="s">
         <v>122</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="3">
         <v>93.784000000000006</v>
       </c>
     </row>
@@ -12964,7 +12980,7 @@
       <c r="A113" t="s">
         <v>1000</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="3">
         <v>93.784000000000006</v>
       </c>
     </row>
@@ -12972,7 +12988,7 @@
       <c r="A114" t="s">
         <v>459</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="3">
         <v>93.781000000000006</v>
       </c>
     </row>
@@ -12980,7 +12996,7 @@
       <c r="A115" t="s">
         <v>906</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="3">
         <v>93.78</v>
       </c>
     </row>
@@ -12988,7 +13004,7 @@
       <c r="A116" t="s">
         <v>723</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="3">
         <v>93.766000000000005</v>
       </c>
     </row>
@@ -12996,7 +13012,7 @@
       <c r="A117" t="s">
         <v>924</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="3">
         <v>93.759</v>
       </c>
     </row>
@@ -13004,7 +13020,7 @@
       <c r="A118" t="s">
         <v>476</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="3">
         <v>93.751999999999995</v>
       </c>
     </row>
@@ -13012,7 +13028,7 @@
       <c r="A119" t="s">
         <v>725</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="3">
         <v>93.738</v>
       </c>
     </row>
@@ -13020,7 +13036,7 @@
       <c r="A120" t="s">
         <v>313</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="3">
         <v>93.736999999999995</v>
       </c>
     </row>
@@ -13028,7 +13044,7 @@
       <c r="A121" t="s">
         <v>911</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="3">
         <v>93.716999999999999</v>
       </c>
     </row>
@@ -13036,7 +13052,7 @@
       <c r="A122" t="s">
         <v>474</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="3">
         <v>93.695999999999998</v>
       </c>
     </row>
@@ -13044,7 +13060,7 @@
       <c r="A123" t="s">
         <v>440</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="3">
         <v>93.694999999999993</v>
       </c>
     </row>
@@ -13052,7 +13068,7 @@
       <c r="A124" t="s">
         <v>462</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="3">
         <v>93.67</v>
       </c>
     </row>
@@ -13060,7 +13076,7 @@
       <c r="A125" t="s">
         <v>406</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="3">
         <v>93.616</v>
       </c>
     </row>
@@ -13068,7 +13084,7 @@
       <c r="A126" t="s">
         <v>729</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="3">
         <v>93.593999999999994</v>
       </c>
     </row>
@@ -13076,7 +13092,7 @@
       <c r="A127" t="s">
         <v>722</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="3">
         <v>93.588999999999999</v>
       </c>
     </row>
@@ -13084,7 +13100,7 @@
       <c r="A128" t="s">
         <v>466</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="3">
         <v>93.587999999999994</v>
       </c>
     </row>
@@ -13092,7 +13108,7 @@
       <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="3">
         <v>93.582999999999998</v>
       </c>
     </row>
@@ -13100,7 +13116,7 @@
       <c r="A130" t="s">
         <v>448</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="3">
         <v>93.578999999999994</v>
       </c>
     </row>
@@ -13108,7 +13124,7 @@
       <c r="A131" t="s">
         <v>471</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="3">
         <v>93.563000000000002</v>
       </c>
     </row>
@@ -13116,7 +13132,7 @@
       <c r="A132" t="s">
         <v>310</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="3">
         <v>93.555999999999997</v>
       </c>
     </row>
@@ -13124,7 +13140,7 @@
       <c r="A133" t="s">
         <v>923</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="3">
         <v>93.542000000000002</v>
       </c>
     </row>
@@ -13132,7 +13148,7 @@
       <c r="A134" t="s">
         <v>450</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="3">
         <v>93.474999999999994</v>
       </c>
     </row>
@@ -13140,7 +13156,7 @@
       <c r="A135" t="s">
         <v>131</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="3">
         <v>93.453999999999994</v>
       </c>
     </row>
@@ -13148,7 +13164,7 @@
       <c r="A136" t="s">
         <v>547</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="3">
         <v>93.356999999999999</v>
       </c>
     </row>
@@ -13156,7 +13172,7 @@
       <c r="A137" t="s">
         <v>560</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="3">
         <v>93.341999999999999</v>
       </c>
     </row>
@@ -13164,7 +13180,7 @@
       <c r="A138" t="s">
         <v>902</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="3">
         <v>93.337000000000003</v>
       </c>
     </row>
@@ -13172,7 +13188,7 @@
       <c r="A139" t="s">
         <v>129</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="3">
         <v>93.331000000000003</v>
       </c>
     </row>
@@ -13180,7 +13196,7 @@
       <c r="A140" t="s">
         <v>465</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="3">
         <v>93.320999999999998</v>
       </c>
     </row>
@@ -13188,7 +13204,7 @@
       <c r="A141" t="s">
         <v>381</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="3">
         <v>93.308999999999997</v>
       </c>
     </row>
@@ -13196,7 +13212,7 @@
       <c r="A142" t="s">
         <v>1002</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="3">
         <v>93.302999999999997</v>
       </c>
     </row>
@@ -13204,7 +13220,7 @@
       <c r="A143" t="s">
         <v>994</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="3">
         <v>93.253</v>
       </c>
     </row>
@@ -13212,7 +13228,7 @@
       <c r="A144" t="s">
         <v>475</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="3">
         <v>93.165999999999997</v>
       </c>
     </row>
@@ -13220,7 +13236,7 @@
       <c r="A145" t="s">
         <v>713</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="3">
         <v>93.123000000000005</v>
       </c>
     </row>
@@ -13228,7 +13244,7 @@
       <c r="A146" t="s">
         <v>460</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="3">
         <v>93.087000000000003</v>
       </c>
     </row>
@@ -13236,7 +13252,7 @@
       <c r="A147" t="s">
         <v>998</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="3">
         <v>92.959000000000003</v>
       </c>
     </row>
@@ -13244,7 +13260,7 @@
       <c r="A148" t="s">
         <v>726</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="3">
         <v>92.947999999999993</v>
       </c>
     </row>
@@ -13252,7 +13268,7 @@
       <c r="A149" t="s">
         <v>997</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="3">
         <v>92.933000000000007</v>
       </c>
     </row>
@@ -13260,7 +13276,7 @@
       <c r="A150" t="s">
         <v>732</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="3">
         <v>92.914000000000001</v>
       </c>
     </row>
@@ -13268,7 +13284,7 @@
       <c r="A151" t="s">
         <v>721</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="3">
         <v>92.873000000000005</v>
       </c>
     </row>
@@ -13276,7 +13292,7 @@
       <c r="A152" t="s">
         <v>456</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="3">
         <v>92.867000000000004</v>
       </c>
     </row>
@@ -13284,7 +13300,7 @@
       <c r="A153" t="s">
         <v>397</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="3">
         <v>92.83</v>
       </c>
     </row>
@@ -13292,7 +13308,7 @@
       <c r="A154" t="s">
         <v>20</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="3">
         <v>92.774000000000001</v>
       </c>
     </row>
@@ -13300,7 +13316,7 @@
       <c r="A155" t="s">
         <v>447</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="3">
         <v>92.766000000000005</v>
       </c>
     </row>
@@ -13308,7 +13324,7 @@
       <c r="A156" t="s">
         <v>400</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="3">
         <v>92.566000000000003</v>
       </c>
     </row>
@@ -13316,7 +13332,7 @@
       <c r="A157" t="s">
         <v>550</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="3">
         <v>92.545000000000002</v>
       </c>
     </row>
@@ -13324,7 +13340,7 @@
       <c r="A158" t="s">
         <v>999</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="3">
         <v>92.501000000000005</v>
       </c>
     </row>
@@ -13332,7 +13348,7 @@
       <c r="A159" t="s">
         <v>133</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="3">
         <v>92.5</v>
       </c>
     </row>
@@ -13340,7 +13356,7 @@
       <c r="A160" t="s">
         <v>995</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="3">
         <v>92.346000000000004</v>
       </c>
     </row>
@@ -13348,7 +13364,7 @@
       <c r="A161" t="s">
         <v>307</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="3">
         <v>92.287000000000006</v>
       </c>
     </row>
@@ -13356,7 +13372,7 @@
       <c r="A162" t="s">
         <v>996</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="3">
         <v>91.658000000000001</v>
       </c>
     </row>
@@ -13364,7 +13380,7 @@
       <c r="A163" t="s">
         <v>1001</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="3">
         <v>91.614999999999995</v>
       </c>
     </row>
@@ -13372,7 +13388,7 @@
       <c r="A164" t="s">
         <v>903</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="3">
         <v>91.284000000000006</v>
       </c>
     </row>
@@ -13380,7 +13396,7 @@
       <c r="A165" t="s">
         <v>907</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="3">
         <v>90.504999999999995</v>
       </c>
     </row>
@@ -13388,7 +13404,7 @@
       <c r="A166" t="s">
         <v>619</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="3">
         <v>90.143000000000001</v>
       </c>
     </row>
@@ -13396,7 +13412,7 @@
       <c r="A167" t="s">
         <v>399</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="3">
         <v>90.111000000000004</v>
       </c>
     </row>
@@ -13404,7 +13420,7 @@
       <c r="A168" t="s">
         <v>632</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="3">
         <v>88.962999999999994</v>
       </c>
     </row>
@@ -13412,7 +13428,7 @@
       <c r="A169" t="s">
         <v>312</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="3">
         <v>88.402000000000001</v>
       </c>
     </row>
@@ -13420,7 +13436,7 @@
       <c r="A170" t="s">
         <v>640</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="3">
         <v>88.283000000000001</v>
       </c>
     </row>
@@ -13428,7 +13444,7 @@
       <c r="A171" t="s">
         <v>644</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="3">
         <v>87.381</v>
       </c>
     </row>
@@ -13436,7 +13452,7 @@
       <c r="A172" t="s">
         <v>829</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="3">
         <v>87.173000000000002</v>
       </c>
     </row>
@@ -13444,7 +13460,7 @@
       <c r="A173" t="s">
         <v>575</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="3">
         <v>86.903999999999996</v>
       </c>
     </row>
@@ -13452,7 +13468,7 @@
       <c r="A174" t="s">
         <v>948</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="3">
         <v>86.450999999999993</v>
       </c>
     </row>
@@ -13460,7 +13476,7 @@
       <c r="A175" t="s">
         <v>603</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="3">
         <v>86.272000000000006</v>
       </c>
     </row>
@@ -13468,7 +13484,7 @@
       <c r="A176" t="s">
         <v>421</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="3">
         <v>85.701999999999998</v>
       </c>
     </row>
@@ -13476,7 +13492,7 @@
       <c r="A177" t="s">
         <v>75</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="3">
         <v>85.53</v>
       </c>
     </row>
@@ -13484,7 +13500,7 @@
       <c r="A178" t="s">
         <v>60</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="3">
         <v>85.254999999999995</v>
       </c>
     </row>
@@ -13492,7 +13508,7 @@
       <c r="A179" t="s">
         <v>613</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="3">
         <v>84.997</v>
       </c>
     </row>
@@ -13500,7 +13516,7 @@
       <c r="A180" t="s">
         <v>77</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="3">
         <v>84.760999999999996</v>
       </c>
     </row>
@@ -13508,7 +13524,7 @@
       <c r="A181" t="s">
         <v>455</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="3">
         <v>84.46</v>
       </c>
     </row>
@@ -13516,7 +13532,7 @@
       <c r="A182" t="s">
         <v>606</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="3">
         <v>83.924999999999997</v>
       </c>
     </row>
@@ -13524,7 +13540,7 @@
       <c r="A183" t="s">
         <v>427</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="3">
         <v>80.811000000000007</v>
       </c>
     </row>
@@ -13532,7 +13548,7 @@
       <c r="A184" t="s">
         <v>425</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="3">
         <v>77.634</v>
       </c>
     </row>
@@ -13540,7 +13556,7 @@
       <c r="A185" t="s">
         <v>431</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="3">
         <v>76.103999999999999</v>
       </c>
     </row>
@@ -13548,7 +13564,7 @@
       <c r="A186" t="s">
         <v>341</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="3">
         <v>75.489000000000004</v>
       </c>
     </row>
@@ -13556,7 +13572,7 @@
       <c r="A187" t="s">
         <v>587</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="3">
         <v>74.489999999999995</v>
       </c>
     </row>
@@ -13564,7 +13580,7 @@
       <c r="A188" t="s">
         <v>338</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="3">
         <v>74.483000000000004</v>
       </c>
     </row>
@@ -13572,7 +13588,7 @@
       <c r="A189" t="s">
         <v>315</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="3">
         <v>74.341999999999999</v>
       </c>
     </row>
@@ -13580,7 +13596,7 @@
       <c r="A190" t="s">
         <v>584</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="3">
         <v>74.132000000000005</v>
       </c>
     </row>
@@ -13588,7 +13604,7 @@
       <c r="A191" t="s">
         <v>336</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="3">
         <v>74.102000000000004</v>
       </c>
     </row>
@@ -13596,7 +13612,7 @@
       <c r="A192" t="s">
         <v>426</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="3">
         <v>73.67</v>
       </c>
     </row>
@@ -13604,7 +13620,7 @@
       <c r="A193" t="s">
         <v>340</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="3">
         <v>73.587999999999994</v>
       </c>
     </row>
@@ -13612,7 +13628,7 @@
       <c r="A194" t="s">
         <v>337</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="3">
         <v>73.543999999999997</v>
       </c>
     </row>
@@ -13620,7 +13636,7 @@
       <c r="A195" t="s">
         <v>585</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="3">
         <v>73.174999999999997</v>
       </c>
     </row>
@@ -13628,7 +13644,7 @@
       <c r="A196" t="s">
         <v>593</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="3">
         <v>73.063999999999993</v>
       </c>
     </row>
@@ -13636,7 +13652,7 @@
       <c r="A197" t="s">
         <v>333</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="3">
         <v>72.337000000000003</v>
       </c>
     </row>
@@ -13644,7 +13660,7 @@
       <c r="A198" t="s">
         <v>332</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="3">
         <v>72.155000000000001</v>
       </c>
     </row>
@@ -13652,7 +13668,7 @@
       <c r="A199" t="s">
         <v>339</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="3">
         <v>71.927999999999997</v>
       </c>
     </row>
@@ -13660,7 +13676,7 @@
       <c r="A200" t="s">
         <v>592</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="3">
         <v>71.188999999999993</v>
       </c>
     </row>
@@ -13668,7 +13684,7 @@
       <c r="A201" t="s">
         <v>428</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="3">
         <v>70.832999999999998</v>
       </c>
     </row>
@@ -13676,7 +13692,7 @@
       <c r="A202" t="s">
         <v>331</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="3">
         <v>70.715999999999994</v>
       </c>
     </row>
@@ -13684,7 +13700,7 @@
       <c r="A203" t="s">
         <v>590</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="3">
         <v>70.373000000000005</v>
       </c>
     </row>
@@ -13692,7 +13708,7 @@
       <c r="A204" t="s">
         <v>398</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="3">
         <v>70.355999999999995</v>
       </c>
     </row>
@@ -13700,7 +13716,7 @@
       <c r="A205" t="s">
         <v>595</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="3">
         <v>70.349999999999994</v>
       </c>
     </row>
@@ -13708,7 +13724,7 @@
       <c r="A206" t="s">
         <v>588</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="3">
         <v>70.284999999999997</v>
       </c>
     </row>
@@ -13716,7 +13732,7 @@
       <c r="A207" t="s">
         <v>589</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="3">
         <v>69.984999999999999</v>
       </c>
     </row>
@@ -13724,7 +13740,7 @@
       <c r="A208" t="s">
         <v>545</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="3">
         <v>69.918000000000006</v>
       </c>
     </row>
@@ -13732,7 +13748,7 @@
       <c r="A209" t="s">
         <v>594</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="3">
         <v>69.400000000000006</v>
       </c>
     </row>
@@ -13740,7 +13756,7 @@
       <c r="A210" t="s">
         <v>543</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="3">
         <v>69.296000000000006</v>
       </c>
     </row>
@@ -13748,7 +13764,7 @@
       <c r="A211" t="s">
         <v>335</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="3">
         <v>69.173000000000002</v>
       </c>
     </row>
@@ -13756,7 +13772,7 @@
       <c r="A212" t="s">
         <v>323</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="3">
         <v>68.634</v>
       </c>
     </row>
@@ -13764,7 +13780,7 @@
       <c r="A213" t="s">
         <v>586</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="3">
         <v>68.497</v>
       </c>
     </row>
@@ -13772,7 +13788,7 @@
       <c r="A214" t="s">
         <v>591</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="3">
         <v>68.408000000000001</v>
       </c>
     </row>
@@ -13780,7 +13796,7 @@
       <c r="A215" t="s">
         <v>396</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="3">
         <v>68.230999999999995</v>
       </c>
     </row>
@@ -13788,7 +13804,7 @@
       <c r="A216" t="s">
         <v>980</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="3">
         <v>68.227999999999994</v>
       </c>
     </row>
@@ -13796,7 +13812,7 @@
       <c r="A217" t="s">
         <v>561</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="3">
         <v>67.933000000000007</v>
       </c>
     </row>
@@ -13804,7 +13820,7 @@
       <c r="A218" t="s">
         <v>334</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="3">
         <v>67.921000000000006</v>
       </c>
     </row>
@@ -13812,7 +13828,7 @@
       <c r="A219" t="s">
         <v>317</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="3">
         <v>67.715000000000003</v>
       </c>
     </row>
@@ -13820,7 +13836,7 @@
       <c r="A220" t="s">
         <v>556</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="3">
         <v>67.415999999999997</v>
       </c>
     </row>
@@ -13828,7 +13844,7 @@
       <c r="A221" t="s">
         <v>324</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="3">
         <v>67.391000000000005</v>
       </c>
     </row>
@@ -13836,7 +13852,7 @@
       <c r="A222" t="s">
         <v>553</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="3">
         <v>67.364999999999995</v>
       </c>
     </row>
@@ -13844,7 +13860,7 @@
       <c r="A223" t="s">
         <v>316</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="3">
         <v>67.236000000000004</v>
       </c>
     </row>
@@ -13852,7 +13868,7 @@
       <c r="A224" t="s">
         <v>554</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="3">
         <v>67.144999999999996</v>
       </c>
     </row>
@@ -13860,7 +13876,7 @@
       <c r="A225" t="s">
         <v>855</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225" s="3">
         <v>67.131</v>
       </c>
     </row>
@@ -13868,7 +13884,7 @@
       <c r="A226" t="s">
         <v>69</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226" s="3">
         <v>66.492000000000004</v>
       </c>
     </row>
@@ -13876,7 +13892,7 @@
       <c r="A227" t="s">
         <v>72</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227" s="3">
         <v>66.224999999999994</v>
       </c>
     </row>
@@ -13884,7 +13900,7 @@
       <c r="A228" t="s">
         <v>22</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228" s="3">
         <v>66.210999999999999</v>
       </c>
     </row>
@@ -13892,7 +13908,7 @@
       <c r="A229" t="s">
         <v>65</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="3">
         <v>65.578000000000003</v>
       </c>
     </row>
@@ -13900,7 +13916,7 @@
       <c r="A230" t="s">
         <v>76</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230" s="3">
         <v>65.512</v>
       </c>
     </row>
@@ -13908,7 +13924,7 @@
       <c r="A231" t="s">
         <v>21</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231" s="3">
         <v>65.447999999999993</v>
       </c>
     </row>
@@ -13916,7 +13932,7 @@
       <c r="A232" t="s">
         <v>326</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232" s="3">
         <v>65.075999999999993</v>
       </c>
     </row>
@@ -13924,7 +13940,7 @@
       <c r="A233" t="s">
         <v>857</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233" s="3">
         <v>65.049000000000007</v>
       </c>
     </row>
@@ -13932,7 +13948,7 @@
       <c r="A234" t="s">
         <v>64</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="3">
         <v>64.997</v>
       </c>
     </row>
@@ -13940,7 +13956,7 @@
       <c r="A235" t="s">
         <v>325</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235" s="3">
         <v>64.938999999999993</v>
       </c>
     </row>
@@ -13948,7 +13964,7 @@
       <c r="A236" t="s">
         <v>607</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236" s="3">
         <v>64.489000000000004</v>
       </c>
     </row>
@@ -13956,7 +13972,7 @@
       <c r="A237" t="s">
         <v>507</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237" s="3">
         <v>64.159000000000006</v>
       </c>
     </row>
@@ -13964,7 +13980,7 @@
       <c r="A238" t="s">
         <v>612</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238" s="3">
         <v>64.061999999999998</v>
       </c>
     </row>
@@ -13972,7 +13988,7 @@
       <c r="A239" t="s">
         <v>510</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239" s="3">
         <v>63.848999999999997</v>
       </c>
     </row>
@@ -13980,7 +13996,7 @@
       <c r="A240" t="s">
         <v>74</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240" s="3">
         <v>63.688000000000002</v>
       </c>
     </row>
@@ -13988,7 +14004,7 @@
       <c r="A241" t="s">
         <v>110</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241" s="3">
         <v>63.600999999999999</v>
       </c>
     </row>
@@ -13996,7 +14012,7 @@
       <c r="A242" t="s">
         <v>863</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242" s="3">
         <v>63.24</v>
       </c>
     </row>
@@ -14004,7 +14020,7 @@
       <c r="A243" t="s">
         <v>79</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243" s="3">
         <v>62.984000000000002</v>
       </c>
     </row>
@@ -14012,7 +14028,7 @@
       <c r="A244" t="s">
         <v>858</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244" s="3">
         <v>62.652000000000001</v>
       </c>
     </row>
@@ -14020,7 +14036,7 @@
       <c r="A245" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245" s="3">
         <v>62.561999999999998</v>
       </c>
     </row>
@@ -14028,7 +14044,7 @@
       <c r="A246" t="s">
         <v>869</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246" s="3">
         <v>62.491</v>
       </c>
     </row>
@@ -14036,7 +14052,7 @@
       <c r="A247" t="s">
         <v>866</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247" s="3">
         <v>62.176000000000002</v>
       </c>
     </row>
@@ -14044,7 +14060,7 @@
       <c r="A248" t="s">
         <v>78</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248" s="3">
         <v>62.167999999999999</v>
       </c>
     </row>
@@ -14052,7 +14068,7 @@
       <c r="A249" t="s">
         <v>497</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249" s="3">
         <v>62.146999999999998</v>
       </c>
     </row>
@@ -14060,7 +14076,7 @@
       <c r="A250" t="s">
         <v>611</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250" s="3">
         <v>61.991999999999997</v>
       </c>
     </row>
@@ -14068,7 +14084,7 @@
       <c r="A251" t="s">
         <v>71</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251" s="3">
         <v>61.99</v>
       </c>
     </row>
@@ -14076,7 +14092,7 @@
       <c r="A252" t="s">
         <v>602</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252" s="3">
         <v>61.737000000000002</v>
       </c>
     </row>
@@ -14084,7 +14100,7 @@
       <c r="A253" t="s">
         <v>28</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253" s="3">
         <v>61.667000000000002</v>
       </c>
     </row>
@@ -14092,7 +14108,7 @@
       <c r="A254" t="s">
         <v>306</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254" s="3">
         <v>61.29</v>
       </c>
     </row>
@@ -14100,7 +14116,7 @@
       <c r="A255" t="s">
         <v>67</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255" s="3">
         <v>61.253999999999998</v>
       </c>
     </row>
@@ -14108,7 +14124,7 @@
       <c r="A256" t="s">
         <v>63</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256" s="3">
         <v>61.232999999999997</v>
       </c>
     </row>
@@ -14116,7 +14132,7 @@
       <c r="A257" t="s">
         <v>70</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="3">
         <v>61.11</v>
       </c>
     </row>
@@ -14124,7 +14140,7 @@
       <c r="A258" t="s">
         <v>499</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="3">
         <v>61.098999999999997</v>
       </c>
     </row>
@@ -14132,7 +14148,7 @@
       <c r="A259" t="s">
         <v>868</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="3">
         <v>61.095999999999997</v>
       </c>
     </row>
@@ -14140,7 +14156,7 @@
       <c r="A260" t="s">
         <v>862</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="3">
         <v>60.883000000000003</v>
       </c>
     </row>
@@ -14148,7 +14164,7 @@
       <c r="A261" t="s">
         <v>66</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="3">
         <v>60.774999999999999</v>
       </c>
     </row>
@@ -14156,7 +14172,7 @@
       <c r="A262" t="s">
         <v>608</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="3">
         <v>60.652999999999999</v>
       </c>
     </row>
@@ -14164,7 +14180,7 @@
       <c r="A263" t="s">
         <v>847</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="3">
         <v>60.524999999999999</v>
       </c>
     </row>
@@ -14172,7 +14188,7 @@
       <c r="A264" t="s">
         <v>514</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="3">
         <v>60.244</v>
       </c>
     </row>
@@ -14180,7 +14196,7 @@
       <c r="A265" t="s">
         <v>104</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="3">
         <v>60.151000000000003</v>
       </c>
     </row>
@@ -14188,7 +14204,7 @@
       <c r="A266" t="s">
         <v>504</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="3">
         <v>60.097999999999999</v>
       </c>
     </row>
@@ -14196,7 +14212,7 @@
       <c r="A267" t="s">
         <v>512</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267" s="3">
         <v>60.084000000000003</v>
       </c>
     </row>
@@ -14204,7 +14220,7 @@
       <c r="A268" t="s">
         <v>519</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268" s="3">
         <v>59.71</v>
       </c>
     </row>
@@ -14212,7 +14228,7 @@
       <c r="A269" t="s">
         <v>531</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269" s="3">
         <v>59.64</v>
       </c>
     </row>
@@ -14220,7 +14236,7 @@
       <c r="A270" t="s">
         <v>500</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270" s="3">
         <v>59.04</v>
       </c>
     </row>
@@ -14228,7 +14244,7 @@
       <c r="A271" t="s">
         <v>498</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="3">
         <v>59.006</v>
       </c>
     </row>
@@ -14236,7 +14252,7 @@
       <c r="A272" t="s">
         <v>541</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272" s="3">
         <v>59.002000000000002</v>
       </c>
     </row>
@@ -14244,7 +14260,7 @@
       <c r="A273" t="s">
         <v>841</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273" s="3">
         <v>58.774000000000001</v>
       </c>
     </row>
@@ -14252,7 +14268,7 @@
       <c r="A274" t="s">
         <v>539</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274" s="3">
         <v>58.494</v>
       </c>
     </row>
@@ -14260,7 +14276,7 @@
       <c r="A275" t="s">
         <v>501</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275" s="3">
         <v>58.417999999999999</v>
       </c>
     </row>
@@ -14268,7 +14284,7 @@
       <c r="A276" t="s">
         <v>491</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276" s="3">
         <v>58.338000000000001</v>
       </c>
     </row>
@@ -14276,7 +14292,7 @@
       <c r="A277" t="s">
         <v>854</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277" s="3">
         <v>58.27</v>
       </c>
     </row>
@@ -14284,7 +14300,7 @@
       <c r="A278" t="s">
         <v>610</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278" s="3">
         <v>57.889000000000003</v>
       </c>
     </row>
@@ -14292,7 +14308,7 @@
       <c r="A279" t="s">
         <v>859</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279" s="3">
         <v>57.874000000000002</v>
       </c>
     </row>
@@ -14300,7 +14316,7 @@
       <c r="A280" t="s">
         <v>486</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280" s="3">
         <v>57.613999999999997</v>
       </c>
     </row>
@@ -14308,7 +14324,7 @@
       <c r="A281" t="s">
         <v>848</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281" s="3">
         <v>57.578000000000003</v>
       </c>
     </row>
@@ -14316,7 +14332,7 @@
       <c r="A282" t="s">
         <v>0</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282" s="3">
         <v>57.573999999999998</v>
       </c>
     </row>
@@ -14324,7 +14340,7 @@
       <c r="A283" t="s">
         <v>846</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283" s="3">
         <v>57.103000000000002</v>
       </c>
     </row>
@@ -14332,7 +14348,7 @@
       <c r="A284" t="s">
         <v>73</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B284" s="3">
         <v>57.012999999999998</v>
       </c>
     </row>
@@ -14340,7 +14356,7 @@
       <c r="A285" t="s">
         <v>708</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B285" s="3">
         <v>56.997999999999998</v>
       </c>
     </row>
@@ -14348,7 +14364,7 @@
       <c r="A286" t="s">
         <v>496</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B286" s="3">
         <v>56.853000000000002</v>
       </c>
     </row>
@@ -14356,7 +14372,7 @@
       <c r="A287" t="s">
         <v>850</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B287" s="3">
         <v>56.722999999999999</v>
       </c>
     </row>
@@ -14364,7 +14380,7 @@
       <c r="A288" t="s">
         <v>503</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B288" s="3">
         <v>56.707999999999998</v>
       </c>
     </row>
@@ -14372,7 +14388,7 @@
       <c r="A289" t="s">
         <v>659</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B289" s="3">
         <v>56.369</v>
       </c>
     </row>
@@ -14380,7 +14396,7 @@
       <c r="A290" t="s">
         <v>540</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290" s="3">
         <v>56.210999999999999</v>
       </c>
     </row>
@@ -14388,7 +14404,7 @@
       <c r="A291" t="s">
         <v>600</v>
       </c>
-      <c r="B291" s="1">
+      <c r="B291" s="3">
         <v>56.192</v>
       </c>
     </row>
@@ -14396,7 +14412,7 @@
       <c r="A292" t="s">
         <v>851</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="3">
         <v>56.14</v>
       </c>
     </row>
@@ -14404,7 +14420,7 @@
       <c r="A293" t="s">
         <v>423</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="3">
         <v>56.058999999999997</v>
       </c>
     </row>
@@ -14412,7 +14428,7 @@
       <c r="A294" t="s">
         <v>502</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="3">
         <v>55.826999999999998</v>
       </c>
     </row>
@@ -14420,7 +14436,7 @@
       <c r="A295" t="s">
         <v>319</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="3">
         <v>55.747</v>
       </c>
     </row>
@@ -14428,7 +14444,7 @@
       <c r="A296" t="s">
         <v>865</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="3">
         <v>55.719000000000001</v>
       </c>
     </row>
@@ -14436,7 +14452,7 @@
       <c r="A297" t="s">
         <v>711</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="3">
         <v>55.694000000000003</v>
       </c>
     </row>
@@ -14444,7 +14460,7 @@
       <c r="A298" t="s">
         <v>505</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="3">
         <v>55.613999999999997</v>
       </c>
     </row>
@@ -14452,7 +14468,7 @@
       <c r="A299" t="s">
         <v>849</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="3">
         <v>55.551000000000002</v>
       </c>
     </row>
@@ -14460,7 +14476,7 @@
       <c r="A300" t="s">
         <v>517</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="3">
         <v>55.441000000000003</v>
       </c>
     </row>
@@ -14468,7 +14484,7 @@
       <c r="A301" t="s">
         <v>861</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="3">
         <v>55.372999999999998</v>
       </c>
     </row>
@@ -14476,7 +14492,7 @@
       <c r="A302" t="s">
         <v>506</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="3">
         <v>55.341999999999999</v>
       </c>
     </row>
@@ -14484,7 +14500,7 @@
       <c r="A303" t="s">
         <v>522</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="3">
         <v>55.253999999999998</v>
       </c>
     </row>
@@ -14492,7 +14508,7 @@
       <c r="A304" t="s">
         <v>626</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="3">
         <v>55.18</v>
       </c>
     </row>
@@ -14500,7 +14516,7 @@
       <c r="A305" t="s">
         <v>901</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="3">
         <v>55.043999999999997</v>
       </c>
     </row>
@@ -14508,7 +14524,7 @@
       <c r="A306" t="s">
         <v>867</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="3">
         <v>55.021000000000001</v>
       </c>
     </row>
@@ -14516,7 +14532,7 @@
       <c r="A307" t="s">
         <v>489</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="3">
         <v>54.945999999999998</v>
       </c>
     </row>
@@ -14524,7 +14540,7 @@
       <c r="A308" t="s">
         <v>842</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="3">
         <v>54.890999999999998</v>
       </c>
     </row>
@@ -14532,7 +14548,7 @@
       <c r="A309" t="s">
         <v>856</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="3">
         <v>54.877000000000002</v>
       </c>
     </row>
@@ -14540,7 +14556,7 @@
       <c r="A310" t="s">
         <v>843</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="3">
         <v>54.874000000000002</v>
       </c>
     </row>
@@ -14548,7 +14564,7 @@
       <c r="A311" t="s">
         <v>490</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="3">
         <v>54.744999999999997</v>
       </c>
     </row>
@@ -14556,7 +14572,7 @@
       <c r="A312" t="s">
         <v>532</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="3">
         <v>54.69</v>
       </c>
     </row>
@@ -14564,7 +14580,7 @@
       <c r="A313" t="s">
         <v>509</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="3">
         <v>54.625</v>
       </c>
     </row>
@@ -14572,7 +14588,7 @@
       <c r="A314" t="s">
         <v>430</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="3">
         <v>54.506</v>
       </c>
     </row>
@@ -14580,7 +14596,7 @@
       <c r="A315" t="s">
         <v>897</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="3">
         <v>54.362000000000002</v>
       </c>
     </row>
@@ -14588,7 +14604,7 @@
       <c r="A316" t="s">
         <v>243</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="3">
         <v>54.353999999999999</v>
       </c>
     </row>
@@ -14596,7 +14612,7 @@
       <c r="A317" t="s">
         <v>527</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="3">
         <v>54.293999999999997</v>
       </c>
     </row>
@@ -14604,7 +14620,7 @@
       <c r="A318" t="s">
         <v>515</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="3">
         <v>54.249000000000002</v>
       </c>
     </row>
@@ -14612,7 +14628,7 @@
       <c r="A319" t="s">
         <v>495</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="3">
         <v>54.225000000000001</v>
       </c>
     </row>
@@ -14620,7 +14636,7 @@
       <c r="A320" t="s">
         <v>853</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="3">
         <v>54.209000000000003</v>
       </c>
     </row>
@@ -14628,7 +14644,7 @@
       <c r="A321" t="s">
         <v>511</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="3">
         <v>54.2</v>
       </c>
     </row>
@@ -14636,7 +14652,7 @@
       <c r="A322" t="s">
         <v>542</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="3">
         <v>54.104999999999997</v>
       </c>
     </row>
@@ -14644,7 +14660,7 @@
       <c r="A323" t="s">
         <v>518</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="3">
         <v>53.859000000000002</v>
       </c>
     </row>
@@ -14652,7 +14668,7 @@
       <c r="A324" t="s">
         <v>864</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="3">
         <v>53.826000000000001</v>
       </c>
     </row>
@@ -14660,7 +14676,7 @@
       <c r="A325" t="s">
         <v>654</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="3">
         <v>53.680999999999997</v>
       </c>
     </row>
@@ -14668,7 +14684,7 @@
       <c r="A326" t="s">
         <v>844</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="3">
         <v>53.658000000000001</v>
       </c>
     </row>
@@ -14676,7 +14692,7 @@
       <c r="A327" t="s">
         <v>241</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="3">
         <v>53.615000000000002</v>
       </c>
     </row>
@@ -14684,7 +14700,7 @@
       <c r="A328" t="s">
         <v>534</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="3">
         <v>53.375</v>
       </c>
     </row>
@@ -14692,7 +14708,7 @@
       <c r="A329" t="s">
         <v>32</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="3">
         <v>53.3</v>
       </c>
     </row>
@@ -14700,7 +14716,7 @@
       <c r="A330" t="s">
         <v>852</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="3">
         <v>53.28</v>
       </c>
     </row>
@@ -14708,7 +14724,7 @@
       <c r="A331" t="s">
         <v>536</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="3">
         <v>53.201999999999998</v>
       </c>
     </row>
@@ -14716,7 +14732,7 @@
       <c r="A332" t="s">
         <v>889</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="3">
         <v>53.194000000000003</v>
       </c>
     </row>
@@ -14724,7 +14740,7 @@
       <c r="A333" t="s">
         <v>318</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="3">
         <v>53.170999999999999</v>
       </c>
     </row>
@@ -14732,7 +14748,7 @@
       <c r="A334" t="s">
         <v>900</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="3">
         <v>53.156999999999996</v>
       </c>
     </row>
@@ -14740,7 +14756,7 @@
       <c r="A335" t="s">
         <v>860</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="3">
         <v>53.145000000000003</v>
       </c>
     </row>
@@ -14748,7 +14764,7 @@
       <c r="A336" t="s">
         <v>494</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="3">
         <v>53.098999999999997</v>
       </c>
     </row>
@@ -14756,7 +14772,7 @@
       <c r="A337" t="s">
         <v>658</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="3">
         <v>53.088999999999999</v>
       </c>
     </row>
@@ -14764,7 +14780,7 @@
       <c r="A338" t="s">
         <v>244</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="3">
         <v>53.045999999999999</v>
       </c>
     </row>
@@ -14772,7 +14788,7 @@
       <c r="A339" t="s">
         <v>524</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="3">
         <v>53.033000000000001</v>
       </c>
     </row>
@@ -14780,7 +14796,7 @@
       <c r="A340" t="s">
         <v>703</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="3">
         <v>52.923999999999999</v>
       </c>
     </row>
@@ -14788,7 +14804,7 @@
       <c r="A341" t="s">
         <v>217</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="3">
         <v>52.85</v>
       </c>
     </row>
@@ -14796,7 +14812,7 @@
       <c r="A342" t="s">
         <v>893</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B342" s="3">
         <v>52.805999999999997</v>
       </c>
     </row>
@@ -14804,7 +14820,7 @@
       <c r="A343" t="s">
         <v>529</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B343" s="3">
         <v>52.715000000000003</v>
       </c>
     </row>
@@ -14812,7 +14828,7 @@
       <c r="A344" t="s">
         <v>657</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B344" s="3">
         <v>52.704000000000001</v>
       </c>
     </row>
@@ -14820,7 +14836,7 @@
       <c r="A345" t="s">
         <v>508</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B345" s="3">
         <v>52.661000000000001</v>
       </c>
     </row>
@@ -14828,7 +14844,7 @@
       <c r="A346" t="s">
         <v>886</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B346" s="3">
         <v>52.523000000000003</v>
       </c>
     </row>
@@ -14836,7 +14852,7 @@
       <c r="A347" t="s">
         <v>712</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B347" s="3">
         <v>52.521999999999998</v>
       </c>
     </row>
@@ -14844,7 +14860,7 @@
       <c r="A348" t="s">
         <v>899</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B348" s="3">
         <v>52.491999999999997</v>
       </c>
     </row>
@@ -14852,7 +14868,7 @@
       <c r="A349" t="s">
         <v>840</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B349" s="3">
         <v>52.329000000000001</v>
       </c>
     </row>
@@ -14860,7 +14876,7 @@
       <c r="A350" t="s">
         <v>653</v>
       </c>
-      <c r="B350" s="1">
+      <c r="B350" s="3">
         <v>52.292000000000002</v>
       </c>
     </row>
@@ -14868,7 +14884,7 @@
       <c r="A351" t="s">
         <v>492</v>
       </c>
-      <c r="B351" s="1">
+      <c r="B351" s="3">
         <v>52.290999999999997</v>
       </c>
     </row>
@@ -14876,7 +14892,7 @@
       <c r="A352" t="s">
         <v>327</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B352" s="3">
         <v>52.152000000000001</v>
       </c>
     </row>
@@ -14884,7 +14900,7 @@
       <c r="A353" t="s">
         <v>513</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B353" s="3">
         <v>51.854999999999997</v>
       </c>
     </row>
@@ -14892,7 +14908,7 @@
       <c r="A354" t="s">
         <v>309</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B354" s="3">
         <v>51.625</v>
       </c>
     </row>
@@ -14900,7 +14916,7 @@
       <c r="A355" t="s">
         <v>525</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B355" s="3">
         <v>51.573</v>
       </c>
     </row>
@@ -14908,7 +14924,7 @@
       <c r="A356" t="s">
         <v>535</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B356" s="3">
         <v>51.515999999999998</v>
       </c>
     </row>
@@ -14916,7 +14932,7 @@
       <c r="A357" t="s">
         <v>429</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B357" s="3">
         <v>51.472000000000001</v>
       </c>
     </row>
@@ -14924,7 +14940,7 @@
       <c r="A358" t="s">
         <v>891</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B358" s="3">
         <v>51.411000000000001</v>
       </c>
     </row>
@@ -14932,7 +14948,7 @@
       <c r="A359" t="s">
         <v>895</v>
       </c>
-      <c r="B359" s="1">
+      <c r="B359" s="3">
         <v>51.411000000000001</v>
       </c>
     </row>
@@ -14940,7 +14956,7 @@
       <c r="A360" t="s">
         <v>646</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B360" s="3">
         <v>51.345999999999997</v>
       </c>
     </row>
@@ -14948,7 +14964,7 @@
       <c r="A361" t="s">
         <v>709</v>
       </c>
-      <c r="B361" s="1">
+      <c r="B361" s="3">
         <v>51.332999999999998</v>
       </c>
     </row>
@@ -14956,7 +14972,7 @@
       <c r="A362" t="s">
         <v>662</v>
       </c>
-      <c r="B362" s="1">
+      <c r="B362" s="3">
         <v>51.204999999999998</v>
       </c>
     </row>
@@ -14964,7 +14980,7 @@
       <c r="A363" t="s">
         <v>530</v>
       </c>
-      <c r="B363" s="1">
+      <c r="B363" s="3">
         <v>51.191000000000003</v>
       </c>
     </row>
@@ -14972,7 +14988,7 @@
       <c r="A364" t="s">
         <v>308</v>
       </c>
-      <c r="B364" s="1">
+      <c r="B364" s="3">
         <v>51.167999999999999</v>
       </c>
     </row>
@@ -14980,7 +14996,7 @@
       <c r="A365" t="s">
         <v>537</v>
       </c>
-      <c r="B365" s="1">
+      <c r="B365" s="3">
         <v>51.005000000000003</v>
       </c>
     </row>
@@ -14988,7 +15004,7 @@
       <c r="A366" t="s">
         <v>879</v>
       </c>
-      <c r="B366" s="1">
+      <c r="B366" s="3">
         <v>50.98</v>
       </c>
     </row>
@@ -14996,7 +15012,7 @@
       <c r="A367" t="s">
         <v>24</v>
       </c>
-      <c r="B367" s="1">
+      <c r="B367" s="3">
         <v>50.930999999999997</v>
       </c>
     </row>
@@ -15004,7 +15020,7 @@
       <c r="A368" t="s">
         <v>538</v>
       </c>
-      <c r="B368" s="1">
+      <c r="B368" s="3">
         <v>50.762999999999998</v>
       </c>
     </row>
@@ -15012,7 +15028,7 @@
       <c r="A369" t="s">
         <v>111</v>
       </c>
-      <c r="B369" s="1">
+      <c r="B369" s="3">
         <v>50.758000000000003</v>
       </c>
     </row>
@@ -15020,7 +15036,7 @@
       <c r="A370" t="s">
         <v>934</v>
       </c>
-      <c r="B370" s="1">
+      <c r="B370" s="3">
         <v>50.709000000000003</v>
       </c>
     </row>
@@ -15028,7 +15044,7 @@
       <c r="A371" t="s">
         <v>523</v>
       </c>
-      <c r="B371" s="1">
+      <c r="B371" s="3">
         <v>50.673999999999999</v>
       </c>
     </row>
@@ -15036,7 +15052,7 @@
       <c r="A372" t="s">
         <v>238</v>
       </c>
-      <c r="B372" s="1">
+      <c r="B372" s="3">
         <v>50.646999999999998</v>
       </c>
     </row>
@@ -15044,7 +15060,7 @@
       <c r="A373" t="s">
         <v>87</v>
       </c>
-      <c r="B373" s="1">
+      <c r="B373" s="3">
         <v>50.475000000000001</v>
       </c>
     </row>
@@ -15052,7 +15068,7 @@
       <c r="A374" t="s">
         <v>493</v>
       </c>
-      <c r="B374" s="1">
+      <c r="B374" s="3">
         <v>50.47</v>
       </c>
     </row>
@@ -15060,7 +15076,7 @@
       <c r="A375" t="s">
         <v>120</v>
       </c>
-      <c r="B375" s="1">
+      <c r="B375" s="3">
         <v>50.465000000000003</v>
       </c>
     </row>
@@ -15068,7 +15084,7 @@
       <c r="A376" t="s">
         <v>378</v>
       </c>
-      <c r="B376" s="1">
+      <c r="B376" s="3">
         <v>50.462000000000003</v>
       </c>
     </row>
@@ -15076,7 +15092,7 @@
       <c r="A377" t="s">
         <v>660</v>
       </c>
-      <c r="B377" s="1">
+      <c r="B377" s="3">
         <v>50.42</v>
       </c>
     </row>
@@ -15084,7 +15100,7 @@
       <c r="A378" t="s">
         <v>873</v>
       </c>
-      <c r="B378" s="1">
+      <c r="B378" s="3">
         <v>50.366</v>
       </c>
     </row>
@@ -15092,7 +15108,7 @@
       <c r="A379" t="s">
         <v>359</v>
       </c>
-      <c r="B379" s="1">
+      <c r="B379" s="3">
         <v>50.343000000000004</v>
       </c>
     </row>
@@ -15100,7 +15116,7 @@
       <c r="A380" t="s">
         <v>898</v>
       </c>
-      <c r="B380" s="1">
+      <c r="B380" s="3">
         <v>50.207999999999998</v>
       </c>
     </row>
@@ -15108,7 +15124,7 @@
       <c r="A381" t="s">
         <v>248</v>
       </c>
-      <c r="B381" s="1">
+      <c r="B381" s="3">
         <v>50.143999999999998</v>
       </c>
     </row>
@@ -15116,7 +15132,7 @@
       <c r="A382" t="s">
         <v>35</v>
       </c>
-      <c r="B382" s="1">
+      <c r="B382" s="3">
         <v>50.082999999999998</v>
       </c>
     </row>
@@ -15124,7 +15140,7 @@
       <c r="A383" t="s">
         <v>706</v>
       </c>
-      <c r="B383" s="1">
+      <c r="B383" s="3">
         <v>50.023000000000003</v>
       </c>
     </row>
@@ -15132,7 +15148,7 @@
       <c r="A384" t="s">
         <v>533</v>
       </c>
-      <c r="B384" s="1">
+      <c r="B384" s="3">
         <v>49.999000000000002</v>
       </c>
     </row>
@@ -15140,7 +15156,7 @@
       <c r="A385" t="s">
         <v>710</v>
       </c>
-      <c r="B385" s="1">
+      <c r="B385" s="3">
         <v>49.828000000000003</v>
       </c>
     </row>
@@ -15148,7 +15164,7 @@
       <c r="A386" t="s">
         <v>232</v>
       </c>
-      <c r="B386" s="1">
+      <c r="B386" s="3">
         <v>49.704000000000001</v>
       </c>
     </row>
@@ -15156,7 +15172,7 @@
       <c r="A387" t="s">
         <v>876</v>
       </c>
-      <c r="B387" s="1">
+      <c r="B387" s="3">
         <v>49.597999999999999</v>
       </c>
     </row>
@@ -15164,7 +15180,7 @@
       <c r="A388" t="s">
         <v>885</v>
       </c>
-      <c r="B388" s="1">
+      <c r="B388" s="3">
         <v>49.569000000000003</v>
       </c>
     </row>
@@ -15172,7 +15188,7 @@
       <c r="A389" t="s">
         <v>528</v>
       </c>
-      <c r="B389" s="1">
+      <c r="B389" s="3">
         <v>49.524999999999999</v>
       </c>
     </row>
@@ -15180,7 +15196,7 @@
       <c r="A390" t="s">
         <v>810</v>
       </c>
-      <c r="B390" s="1">
+      <c r="B390" s="3">
         <v>49.393000000000001</v>
       </c>
     </row>
@@ -15188,7 +15204,7 @@
       <c r="A391" t="s">
         <v>377</v>
       </c>
-      <c r="B391" s="1">
+      <c r="B391" s="3">
         <v>49.363</v>
       </c>
     </row>
@@ -15196,7 +15212,7 @@
       <c r="A392" t="s">
         <v>650</v>
       </c>
-      <c r="B392" s="1">
+      <c r="B392" s="3">
         <v>49.201000000000001</v>
       </c>
     </row>
@@ -15204,7 +15220,7 @@
       <c r="A393" t="s">
         <v>374</v>
       </c>
-      <c r="B393" s="1">
+      <c r="B393" s="3">
         <v>49.082000000000001</v>
       </c>
     </row>
@@ -15212,7 +15228,7 @@
       <c r="A394" t="s">
         <v>372</v>
       </c>
-      <c r="B394" s="1">
+      <c r="B394" s="3">
         <v>49.057000000000002</v>
       </c>
     </row>
@@ -15220,7 +15236,7 @@
       <c r="A395" t="s">
         <v>320</v>
       </c>
-      <c r="B395" s="1">
+      <c r="B395" s="3">
         <v>48.912999999999997</v>
       </c>
     </row>
@@ -15228,7 +15244,7 @@
       <c r="A396" t="s">
         <v>240</v>
       </c>
-      <c r="B396" s="1">
+      <c r="B396" s="3">
         <v>48.905000000000001</v>
       </c>
     </row>
@@ -15236,7 +15252,7 @@
       <c r="A397" t="s">
         <v>34</v>
       </c>
-      <c r="B397" s="1">
+      <c r="B397" s="3">
         <v>48.859000000000002</v>
       </c>
     </row>
@@ -15244,7 +15260,7 @@
       <c r="A398" t="s">
         <v>103</v>
       </c>
-      <c r="B398" s="1">
+      <c r="B398" s="3">
         <v>48.796999999999997</v>
       </c>
     </row>
@@ -15252,7 +15268,7 @@
       <c r="A399" t="s">
         <v>38</v>
       </c>
-      <c r="B399" s="1">
+      <c r="B399" s="3">
         <v>48.771999999999998</v>
       </c>
     </row>
@@ -15260,7 +15276,7 @@
       <c r="A400" t="s">
         <v>347</v>
       </c>
-      <c r="B400" s="1">
+      <c r="B400" s="3">
         <v>48.741</v>
       </c>
     </row>
@@ -15268,7 +15284,7 @@
       <c r="A401" t="s">
         <v>275</v>
       </c>
-      <c r="B401" s="1">
+      <c r="B401" s="3">
         <v>48.738999999999997</v>
       </c>
     </row>
@@ -15276,7 +15292,7 @@
       <c r="A402" t="s">
         <v>647</v>
       </c>
-      <c r="B402" s="1">
+      <c r="B402" s="3">
         <v>48.384999999999998</v>
       </c>
     </row>
@@ -15284,7 +15300,7 @@
       <c r="A403" t="s">
         <v>656</v>
       </c>
-      <c r="B403" s="1">
+      <c r="B403" s="3">
         <v>48.374000000000002</v>
       </c>
     </row>
@@ -15292,7 +15308,7 @@
       <c r="A404" t="s">
         <v>236</v>
       </c>
-      <c r="B404" s="1">
+      <c r="B404" s="3">
         <v>48.371000000000002</v>
       </c>
     </row>
@@ -15300,7 +15316,7 @@
       <c r="A405" t="s">
         <v>265</v>
       </c>
-      <c r="B405" s="1">
+      <c r="B405" s="3">
         <v>48.265999999999998</v>
       </c>
     </row>
@@ -15308,7 +15324,7 @@
       <c r="A406" t="s">
         <v>488</v>
       </c>
-      <c r="B406" s="1">
+      <c r="B406" s="3">
         <v>48.116</v>
       </c>
     </row>
@@ -15316,7 +15332,7 @@
       <c r="A407" t="s">
         <v>882</v>
       </c>
-      <c r="B407" s="1">
+      <c r="B407" s="3">
         <v>48.11</v>
       </c>
     </row>
@@ -15324,7 +15340,7 @@
       <c r="A408" t="s">
         <v>107</v>
       </c>
-      <c r="B408" s="1">
+      <c r="B408" s="3">
         <v>48.04</v>
       </c>
     </row>
@@ -15332,7 +15348,7 @@
       <c r="A409" t="s">
         <v>664</v>
       </c>
-      <c r="B409" s="1">
+      <c r="B409" s="3">
         <v>48.029000000000003</v>
       </c>
     </row>
@@ -15340,7 +15356,7 @@
       <c r="A410" t="s">
         <v>943</v>
       </c>
-      <c r="B410" s="1">
+      <c r="B410" s="3">
         <v>48.024999999999999</v>
       </c>
     </row>
@@ -15348,7 +15364,7 @@
       <c r="A411" t="s">
         <v>526</v>
       </c>
-      <c r="B411" s="1">
+      <c r="B411" s="3">
         <v>47.942</v>
       </c>
     </row>
@@ -15356,7 +15372,7 @@
       <c r="A412" t="s">
         <v>36</v>
       </c>
-      <c r="B412" s="1">
+      <c r="B412" s="3">
         <v>47.938000000000002</v>
       </c>
     </row>
@@ -15364,7 +15380,7 @@
       <c r="A413" t="s">
         <v>370</v>
       </c>
-      <c r="B413" s="1">
+      <c r="B413" s="3">
         <v>47.850999999999999</v>
       </c>
     </row>
@@ -15372,7 +15388,7 @@
       <c r="A414" t="s">
         <v>264</v>
       </c>
-      <c r="B414" s="1">
+      <c r="B414" s="3">
         <v>47.847999999999999</v>
       </c>
     </row>
@@ -15380,7 +15396,7 @@
       <c r="A415" t="s">
         <v>648</v>
       </c>
-      <c r="B415" s="1">
+      <c r="B415" s="3">
         <v>47.686</v>
       </c>
     </row>
@@ -15388,7 +15404,7 @@
       <c r="A416" t="s">
         <v>520</v>
       </c>
-      <c r="B416" s="1">
+      <c r="B416" s="3">
         <v>47.639000000000003</v>
       </c>
     </row>
@@ -15396,7 +15412,7 @@
       <c r="A417" t="s">
         <v>604</v>
       </c>
-      <c r="B417" s="1">
+      <c r="B417" s="3">
         <v>47.625999999999998</v>
       </c>
     </row>
@@ -15404,7 +15420,7 @@
       <c r="A418" t="s">
         <v>605</v>
       </c>
-      <c r="B418" s="1">
+      <c r="B418" s="3">
         <v>47.625999999999998</v>
       </c>
     </row>
@@ -15412,7 +15428,7 @@
       <c r="A419" t="s">
         <v>521</v>
       </c>
-      <c r="B419" s="1">
+      <c r="B419" s="3">
         <v>47.460999999999999</v>
       </c>
     </row>
@@ -15420,7 +15436,7 @@
       <c r="A420" t="s">
         <v>380</v>
       </c>
-      <c r="B420" s="1">
+      <c r="B420" s="3">
         <v>47.433</v>
       </c>
     </row>
@@ -15428,7 +15444,7 @@
       <c r="A421" t="s">
         <v>424</v>
       </c>
-      <c r="B421" s="1">
+      <c r="B421" s="3">
         <v>47.351999999999997</v>
       </c>
     </row>
@@ -15436,7 +15452,7 @@
       <c r="A422" t="s">
         <v>652</v>
       </c>
-      <c r="B422" s="1">
+      <c r="B422" s="3">
         <v>47.338000000000001</v>
       </c>
     </row>
@@ -15444,7 +15460,7 @@
       <c r="A423" t="s">
         <v>516</v>
       </c>
-      <c r="B423" s="1">
+      <c r="B423" s="3">
         <v>47.314999999999998</v>
       </c>
     </row>
@@ -15452,7 +15468,7 @@
       <c r="A424" t="s">
         <v>831</v>
       </c>
-      <c r="B424" s="1">
+      <c r="B424" s="3">
         <v>47.308999999999997</v>
       </c>
     </row>
@@ -15460,7 +15476,7 @@
       <c r="A425" t="s">
         <v>100</v>
       </c>
-      <c r="B425" s="1">
+      <c r="B425" s="3">
         <v>47.293999999999997</v>
       </c>
     </row>
@@ -15468,7 +15484,7 @@
       <c r="A426" t="s">
         <v>239</v>
       </c>
-      <c r="B426" s="1">
+      <c r="B426" s="3">
         <v>47.185000000000002</v>
       </c>
     </row>
@@ -15476,7 +15492,7 @@
       <c r="A427" t="s">
         <v>242</v>
       </c>
-      <c r="B427" s="1">
+      <c r="B427" s="3">
         <v>47.161999999999999</v>
       </c>
     </row>
@@ -15484,7 +15500,7 @@
       <c r="A428" t="s">
         <v>262</v>
       </c>
-      <c r="B428" s="1">
+      <c r="B428" s="3">
         <v>47.156999999999996</v>
       </c>
     </row>
@@ -15492,7 +15508,7 @@
       <c r="A429" t="s">
         <v>890</v>
       </c>
-      <c r="B429" s="1">
+      <c r="B429" s="3">
         <v>47.082000000000001</v>
       </c>
     </row>
@@ -15500,7 +15516,7 @@
       <c r="A430" t="s">
         <v>108</v>
       </c>
-      <c r="B430" s="1">
+      <c r="B430" s="3">
         <v>46.895000000000003</v>
       </c>
     </row>
@@ -15508,7 +15524,7 @@
       <c r="A431" t="s">
         <v>235</v>
       </c>
-      <c r="B431" s="1">
+      <c r="B431" s="3">
         <v>46.884</v>
       </c>
     </row>
@@ -15516,7 +15532,7 @@
       <c r="A432" t="s">
         <v>263</v>
       </c>
-      <c r="B432" s="1">
+      <c r="B432" s="3">
         <v>46.883000000000003</v>
       </c>
     </row>
@@ -15524,7 +15540,7 @@
       <c r="A433" t="s">
         <v>366</v>
       </c>
-      <c r="B433" s="1">
+      <c r="B433" s="3">
         <v>46.838999999999999</v>
       </c>
     </row>
@@ -15532,7 +15548,7 @@
       <c r="A434" t="s">
         <v>609</v>
       </c>
-      <c r="B434" s="1">
+      <c r="B434" s="3">
         <v>46.756</v>
       </c>
     </row>
@@ -15540,7 +15556,7 @@
       <c r="A435" t="s">
         <v>707</v>
       </c>
-      <c r="B435" s="1">
+      <c r="B435" s="3">
         <v>46.637999999999998</v>
       </c>
     </row>
@@ -15548,7 +15564,7 @@
       <c r="A436" t="s">
         <v>118</v>
       </c>
-      <c r="B436" s="1">
+      <c r="B436" s="3">
         <v>46.444000000000003</v>
       </c>
     </row>
@@ -15556,7 +15572,7 @@
       <c r="A437" t="s">
         <v>896</v>
       </c>
-      <c r="B437" s="1">
+      <c r="B437" s="3">
         <v>46.406999999999996</v>
       </c>
     </row>
@@ -15564,7 +15580,7 @@
       <c r="A438" t="s">
         <v>704</v>
       </c>
-      <c r="B438" s="1">
+      <c r="B438" s="3">
         <v>46.398000000000003</v>
       </c>
     </row>
@@ -15572,7 +15588,7 @@
       <c r="A439" t="s">
         <v>29</v>
       </c>
-      <c r="B439" s="1">
+      <c r="B439" s="3">
         <v>46.381999999999998</v>
       </c>
     </row>
@@ -15580,7 +15596,7 @@
       <c r="A440" t="s">
         <v>639</v>
       </c>
-      <c r="B440" s="1">
+      <c r="B440" s="3">
         <v>46.353000000000002</v>
       </c>
     </row>
@@ -15588,7 +15604,7 @@
       <c r="A441" t="s">
         <v>363</v>
       </c>
-      <c r="B441" s="1">
+      <c r="B441" s="3">
         <v>46.287999999999997</v>
       </c>
     </row>
@@ -15596,7 +15612,7 @@
       <c r="A442" t="s">
         <v>225</v>
       </c>
-      <c r="B442" s="1">
+      <c r="B442" s="3">
         <v>46.216999999999999</v>
       </c>
     </row>
@@ -15604,7 +15620,7 @@
       <c r="A443" t="s">
         <v>422</v>
       </c>
-      <c r="B443" s="1">
+      <c r="B443" s="3">
         <v>46.103000000000002</v>
       </c>
     </row>
@@ -15612,7 +15628,7 @@
       <c r="A444" t="s">
         <v>223</v>
       </c>
-      <c r="B444" s="1">
+      <c r="B444" s="3">
         <v>46.024000000000001</v>
       </c>
     </row>
@@ -15620,7 +15636,7 @@
       <c r="A445" t="s">
         <v>892</v>
       </c>
-      <c r="B445" s="1">
+      <c r="B445" s="3">
         <v>45.878999999999998</v>
       </c>
     </row>
@@ -15628,7 +15644,7 @@
       <c r="A446" t="s">
         <v>705</v>
       </c>
-      <c r="B446" s="1">
+      <c r="B446" s="3">
         <v>45.749000000000002</v>
       </c>
     </row>
@@ -15636,7 +15652,7 @@
       <c r="A447" t="s">
         <v>321</v>
       </c>
-      <c r="B447" s="1">
+      <c r="B447" s="3">
         <v>45.587000000000003</v>
       </c>
     </row>
@@ -15644,7 +15660,7 @@
       <c r="A448" t="s">
         <v>665</v>
       </c>
-      <c r="B448" s="1">
+      <c r="B448" s="3">
         <v>45.555</v>
       </c>
     </row>
@@ -15652,7 +15668,7 @@
       <c r="A449" t="s">
         <v>330</v>
       </c>
-      <c r="B449" s="1">
+      <c r="B449" s="3">
         <v>45.506</v>
       </c>
     </row>
@@ -15660,7 +15676,7 @@
       <c r="A450" t="s">
         <v>932</v>
       </c>
-      <c r="B450" s="1">
+      <c r="B450" s="3">
         <v>45.37</v>
       </c>
     </row>
@@ -15668,7 +15684,7 @@
       <c r="A451" t="s">
         <v>52</v>
       </c>
-      <c r="B451" s="1">
+      <c r="B451" s="3">
         <v>45.369</v>
       </c>
     </row>
@@ -15676,7 +15692,7 @@
       <c r="A452" t="s">
         <v>838</v>
       </c>
-      <c r="B452" s="1">
+      <c r="B452" s="3">
         <v>45.158999999999999</v>
       </c>
     </row>
@@ -15684,7 +15700,7 @@
       <c r="A453" t="s">
         <v>246</v>
       </c>
-      <c r="B453" s="1">
+      <c r="B453" s="3">
         <v>45.098999999999997</v>
       </c>
     </row>
@@ -15692,7 +15708,7 @@
       <c r="A454" t="s">
         <v>37</v>
       </c>
-      <c r="B454" s="1">
+      <c r="B454" s="3">
         <v>45.079000000000001</v>
       </c>
     </row>
@@ -15700,7 +15716,7 @@
       <c r="A455" t="s">
         <v>601</v>
       </c>
-      <c r="B455" s="1">
+      <c r="B455" s="3">
         <v>44.984000000000002</v>
       </c>
     </row>
@@ -15708,7 +15724,7 @@
       <c r="A456" t="s">
         <v>376</v>
       </c>
-      <c r="B456" s="1">
+      <c r="B456" s="3">
         <v>44.981000000000002</v>
       </c>
     </row>
@@ -15716,7 +15732,7 @@
       <c r="A457" t="s">
         <v>754</v>
       </c>
-      <c r="B457" s="1">
+      <c r="B457" s="3">
         <v>44.941000000000003</v>
       </c>
     </row>
@@ -15724,7 +15740,7 @@
       <c r="A458" t="s">
         <v>368</v>
       </c>
-      <c r="B458" s="1">
+      <c r="B458" s="3">
         <v>44.935000000000002</v>
       </c>
     </row>
@@ -15732,7 +15748,7 @@
       <c r="A459" t="s">
         <v>247</v>
       </c>
-      <c r="B459" s="1">
+      <c r="B459" s="3">
         <v>44.927</v>
       </c>
     </row>
@@ -15740,7 +15756,7 @@
       <c r="A460" t="s">
         <v>231</v>
       </c>
-      <c r="B460" s="1">
+      <c r="B460" s="3">
         <v>44.84</v>
       </c>
     </row>
@@ -15748,7 +15764,7 @@
       <c r="A461" t="s">
         <v>871</v>
       </c>
-      <c r="B461" s="1">
+      <c r="B461" s="3">
         <v>44.817</v>
       </c>
     </row>
@@ -15756,7 +15772,7 @@
       <c r="A462" t="s">
         <v>274</v>
       </c>
-      <c r="B462" s="1">
+      <c r="B462" s="3">
         <v>44.811999999999998</v>
       </c>
     </row>
@@ -15764,7 +15780,7 @@
       <c r="A463" t="s">
         <v>268</v>
       </c>
-      <c r="B463" s="1">
+      <c r="B463" s="3">
         <v>44.777999999999999</v>
       </c>
     </row>
@@ -15772,7 +15788,7 @@
       <c r="A464" t="s">
         <v>31</v>
       </c>
-      <c r="B464" s="1">
+      <c r="B464" s="3">
         <v>44.514000000000003</v>
       </c>
     </row>
@@ -15780,7 +15796,7 @@
       <c r="A465" t="s">
         <v>233</v>
       </c>
-      <c r="B465" s="1">
+      <c r="B465" s="3">
         <v>44.411000000000001</v>
       </c>
     </row>
@@ -15788,7 +15804,7 @@
       <c r="A466" t="s">
         <v>877</v>
       </c>
-      <c r="B466" s="1">
+      <c r="B466" s="3">
         <v>44.16</v>
       </c>
     </row>
@@ -15796,7 +15812,7 @@
       <c r="A467" t="s">
         <v>322</v>
       </c>
-      <c r="B467" s="1">
+      <c r="B467" s="3">
         <v>44.112000000000002</v>
       </c>
     </row>
@@ -15804,7 +15820,7 @@
       <c r="A468" t="s">
         <v>360</v>
       </c>
-      <c r="B468" s="1">
+      <c r="B468" s="3">
         <v>44.11</v>
       </c>
     </row>
@@ -15812,7 +15828,7 @@
       <c r="A469" t="s">
         <v>256</v>
       </c>
-      <c r="B469" s="1">
+      <c r="B469" s="3">
         <v>44.093000000000004</v>
       </c>
     </row>
@@ -15820,7 +15836,7 @@
       <c r="A470" t="s">
         <v>373</v>
       </c>
-      <c r="B470" s="1">
+      <c r="B470" s="3">
         <v>44.055</v>
       </c>
     </row>
@@ -15828,7 +15844,7 @@
       <c r="A471" t="s">
         <v>888</v>
       </c>
-      <c r="B471" s="1">
+      <c r="B471" s="3">
         <v>43.978999999999999</v>
       </c>
     </row>
@@ -15836,7 +15852,7 @@
       <c r="A472" t="s">
         <v>25</v>
       </c>
-      <c r="B472" s="1">
+      <c r="B472" s="3">
         <v>43.868000000000002</v>
       </c>
     </row>
@@ -15844,7 +15860,7 @@
       <c r="A473" t="s">
         <v>655</v>
       </c>
-      <c r="B473" s="1">
+      <c r="B473" s="3">
         <v>43.862000000000002</v>
       </c>
     </row>
@@ -15852,7 +15868,7 @@
       <c r="A474" t="s">
         <v>371</v>
       </c>
-      <c r="B474" s="1">
+      <c r="B474" s="3">
         <v>43.813000000000002</v>
       </c>
     </row>
@@ -15860,7 +15876,7 @@
       <c r="A475" t="s">
         <v>257</v>
       </c>
-      <c r="B475" s="1">
+      <c r="B475" s="3">
         <v>43.735999999999997</v>
       </c>
     </row>
@@ -15868,7 +15884,7 @@
       <c r="A476" t="s">
         <v>266</v>
       </c>
-      <c r="B476" s="1">
+      <c r="B476" s="3">
         <v>43.704999999999998</v>
       </c>
     </row>
@@ -15876,7 +15892,7 @@
       <c r="A477" t="s">
         <v>938</v>
       </c>
-      <c r="B477" s="1">
+      <c r="B477" s="3">
         <v>43.665999999999997</v>
       </c>
     </row>
@@ -15884,7 +15900,7 @@
       <c r="A478" t="s">
         <v>875</v>
       </c>
-      <c r="B478" s="1">
+      <c r="B478" s="3">
         <v>43.546999999999997</v>
       </c>
     </row>
@@ -15892,7 +15908,7 @@
       <c r="A479" t="s">
         <v>836</v>
       </c>
-      <c r="B479" s="1">
+      <c r="B479" s="3">
         <v>43.003</v>
       </c>
     </row>
@@ -15900,7 +15916,7 @@
       <c r="A480" t="s">
         <v>355</v>
       </c>
-      <c r="B480" s="1">
+      <c r="B480" s="3">
         <v>42.970999999999997</v>
       </c>
     </row>
@@ -15908,7 +15924,7 @@
       <c r="A481" t="s">
         <v>224</v>
       </c>
-      <c r="B481" s="1">
+      <c r="B481" s="3">
         <v>42.92</v>
       </c>
     </row>
@@ -15916,7 +15932,7 @@
       <c r="A482" t="s">
         <v>352</v>
       </c>
-      <c r="B482" s="1">
+      <c r="B482" s="3">
         <v>42.82</v>
       </c>
     </row>
@@ -15924,7 +15940,7 @@
       <c r="A483" t="s">
         <v>222</v>
       </c>
-      <c r="B483" s="1">
+      <c r="B483" s="3">
         <v>42.765999999999998</v>
       </c>
     </row>
@@ -15932,7 +15948,7 @@
       <c r="A484" t="s">
         <v>26</v>
       </c>
-      <c r="B484" s="1">
+      <c r="B484" s="3">
         <v>42.715000000000003</v>
       </c>
     </row>
@@ -15940,7 +15956,7 @@
       <c r="A485" t="s">
         <v>27</v>
       </c>
-      <c r="B485" s="1">
+      <c r="B485" s="3">
         <v>42.673000000000002</v>
       </c>
     </row>
@@ -15948,7 +15964,7 @@
       <c r="A486" t="s">
         <v>102</v>
       </c>
-      <c r="B486" s="1">
+      <c r="B486" s="3">
         <v>42.634999999999998</v>
       </c>
     </row>
@@ -15956,7 +15972,7 @@
       <c r="A487" t="s">
         <v>221</v>
       </c>
-      <c r="B487" s="1">
+      <c r="B487" s="3">
         <v>42.628</v>
       </c>
     </row>
@@ -15964,7 +15980,7 @@
       <c r="A488" t="s">
         <v>358</v>
       </c>
-      <c r="B488" s="1">
+      <c r="B488" s="3">
         <v>42.53</v>
       </c>
     </row>
@@ -15972,7 +15988,7 @@
       <c r="A489" t="s">
         <v>84</v>
       </c>
-      <c r="B489" s="1">
+      <c r="B489" s="3">
         <v>42.414999999999999</v>
       </c>
     </row>
@@ -15980,7 +15996,7 @@
       <c r="A490" t="s">
         <v>375</v>
       </c>
-      <c r="B490" s="1">
+      <c r="B490" s="3">
         <v>42.256</v>
       </c>
     </row>
@@ -15988,7 +16004,7 @@
       <c r="A491" t="s">
         <v>568</v>
       </c>
-      <c r="B491" s="1">
+      <c r="B491" s="3">
         <v>42.247</v>
       </c>
     </row>
@@ -15996,7 +16012,7 @@
       <c r="A492" t="s">
         <v>361</v>
       </c>
-      <c r="B492" s="1">
+      <c r="B492" s="3">
         <v>42.173000000000002</v>
       </c>
     </row>
@@ -16004,7 +16020,7 @@
       <c r="A493" t="s">
         <v>651</v>
       </c>
-      <c r="B493" s="1">
+      <c r="B493" s="3">
         <v>42.125999999999998</v>
       </c>
     </row>
@@ -16012,7 +16028,7 @@
       <c r="A494" t="s">
         <v>420</v>
       </c>
-      <c r="B494" s="1">
+      <c r="B494" s="3">
         <v>42.12</v>
       </c>
     </row>
@@ -16020,7 +16036,7 @@
       <c r="A495" t="s">
         <v>881</v>
       </c>
-      <c r="B495" s="1">
+      <c r="B495" s="3">
         <v>41.75</v>
       </c>
     </row>
@@ -16028,7 +16044,7 @@
       <c r="A496" t="s">
         <v>216</v>
       </c>
-      <c r="B496" s="1">
+      <c r="B496" s="3">
         <v>41.637</v>
       </c>
     </row>
@@ -16036,7 +16052,7 @@
       <c r="A497" t="s">
         <v>365</v>
       </c>
-      <c r="B497" s="1">
+      <c r="B497" s="3">
         <v>41.566000000000003</v>
       </c>
     </row>
@@ -16044,7 +16060,7 @@
       <c r="A498" t="s">
         <v>328</v>
       </c>
-      <c r="B498" s="1">
+      <c r="B498" s="3">
         <v>41.390999999999998</v>
       </c>
     </row>
@@ -16052,7 +16068,7 @@
       <c r="A499" t="s">
         <v>415</v>
       </c>
-      <c r="B499" s="1">
+      <c r="B499" s="3">
         <v>41.369</v>
       </c>
     </row>
@@ -16060,7 +16076,7 @@
       <c r="A500" t="s">
         <v>487</v>
       </c>
-      <c r="B500" s="1">
+      <c r="B500" s="3">
         <v>41.32</v>
       </c>
     </row>
@@ -16068,7 +16084,7 @@
       <c r="A501" t="s">
         <v>661</v>
       </c>
-      <c r="B501" s="1">
+      <c r="B501" s="3">
         <v>41.261000000000003</v>
       </c>
     </row>
@@ -16076,7 +16092,7 @@
       <c r="A502" t="s">
         <v>663</v>
       </c>
-      <c r="B502" s="1">
+      <c r="B502" s="3">
         <v>41.261000000000003</v>
       </c>
     </row>
@@ -16084,7 +16100,7 @@
       <c r="A503" t="s">
         <v>887</v>
       </c>
-      <c r="B503" s="1">
+      <c r="B503" s="3">
         <v>41.182000000000002</v>
       </c>
     </row>
@@ -16092,7 +16108,7 @@
       <c r="A504" t="s">
         <v>226</v>
       </c>
-      <c r="B504" s="1">
+      <c r="B504" s="3">
         <v>40.970999999999997</v>
       </c>
     </row>
@@ -16100,7 +16116,7 @@
       <c r="A505" t="s">
         <v>42</v>
       </c>
-      <c r="B505" s="1">
+      <c r="B505" s="3">
         <v>40.942999999999998</v>
       </c>
     </row>
@@ -16108,7 +16124,7 @@
       <c r="A506" t="s">
         <v>410</v>
       </c>
-      <c r="B506" s="1">
+      <c r="B506" s="3">
         <v>40.921999999999997</v>
       </c>
     </row>
@@ -16116,7 +16132,7 @@
       <c r="A507" t="s">
         <v>413</v>
       </c>
-      <c r="B507" s="1">
+      <c r="B507" s="3">
         <v>40.703000000000003</v>
       </c>
     </row>
@@ -16124,7 +16140,7 @@
       <c r="A508" t="s">
         <v>261</v>
       </c>
-      <c r="B508" s="1">
+      <c r="B508" s="3">
         <v>40.549999999999997</v>
       </c>
     </row>
@@ -16132,7 +16148,7 @@
       <c r="A509" t="s">
         <v>369</v>
       </c>
-      <c r="B509" s="1">
+      <c r="B509" s="3">
         <v>40.543999999999997</v>
       </c>
     </row>
@@ -16140,7 +16156,7 @@
       <c r="A510" t="s">
         <v>101</v>
       </c>
-      <c r="B510" s="1">
+      <c r="B510" s="3">
         <v>40.512999999999998</v>
       </c>
     </row>
@@ -16148,7 +16164,7 @@
       <c r="A511" t="s">
         <v>229</v>
       </c>
-      <c r="B511" s="1">
+      <c r="B511" s="3">
         <v>40.508000000000003</v>
       </c>
     </row>
@@ -16156,7 +16172,7 @@
       <c r="A512" t="s">
         <v>379</v>
       </c>
-      <c r="B512" s="1">
+      <c r="B512" s="3">
         <v>40.198999999999998</v>
       </c>
     </row>
@@ -16164,7 +16180,7 @@
       <c r="A513" t="s">
         <v>30</v>
       </c>
-      <c r="B513" s="1">
+      <c r="B513" s="3">
         <v>40.155999999999999</v>
       </c>
     </row>
@@ -16172,7 +16188,7 @@
       <c r="A514" t="s">
         <v>894</v>
       </c>
-      <c r="B514" s="1">
+      <c r="B514" s="3">
         <v>40.027999999999999</v>
       </c>
     </row>
@@ -16180,7 +16196,7 @@
       <c r="A515" t="s">
         <v>267</v>
       </c>
-      <c r="B515" s="1">
+      <c r="B515" s="3">
         <v>39.966000000000001</v>
       </c>
     </row>
@@ -16188,7 +16204,7 @@
       <c r="A516" t="s">
         <v>965</v>
       </c>
-      <c r="B516" s="1">
+      <c r="B516" s="3">
         <v>39.826999999999998</v>
       </c>
     </row>
@@ -16196,7 +16212,7 @@
       <c r="A517" t="s">
         <v>968</v>
       </c>
-      <c r="B517" s="1">
+      <c r="B517" s="3">
         <v>39.761000000000003</v>
       </c>
     </row>
@@ -16204,7 +16220,7 @@
       <c r="A518" t="s">
         <v>649</v>
       </c>
-      <c r="B518" s="1">
+      <c r="B518" s="3">
         <v>39.715000000000003</v>
       </c>
     </row>
@@ -16212,7 +16228,7 @@
       <c r="A519" t="s">
         <v>367</v>
       </c>
-      <c r="B519" s="1">
+      <c r="B519" s="3">
         <v>39.597000000000001</v>
       </c>
     </row>
@@ -16220,7 +16236,7 @@
       <c r="A520" t="s">
         <v>353</v>
       </c>
-      <c r="B520" s="1">
+      <c r="B520" s="3">
         <v>39.585000000000001</v>
       </c>
     </row>
@@ -16228,7 +16244,7 @@
       <c r="A521" t="s">
         <v>625</v>
       </c>
-      <c r="B521" s="1">
+      <c r="B521" s="3">
         <v>39.505000000000003</v>
       </c>
     </row>
@@ -16236,7 +16252,7 @@
       <c r="A522" t="s">
         <v>237</v>
       </c>
-      <c r="B522" s="1">
+      <c r="B522" s="3">
         <v>39.411999999999999</v>
       </c>
     </row>
@@ -16244,7 +16260,7 @@
       <c r="A523" t="s">
         <v>364</v>
       </c>
-      <c r="B523" s="1">
+      <c r="B523" s="3">
         <v>39.396999999999998</v>
       </c>
     </row>
@@ -16252,7 +16268,7 @@
       <c r="A524" t="s">
         <v>106</v>
       </c>
-      <c r="B524" s="1">
+      <c r="B524" s="3">
         <v>39.387</v>
       </c>
     </row>
@@ -16260,7 +16276,7 @@
       <c r="A525" t="s">
         <v>622</v>
       </c>
-      <c r="B525" s="1">
+      <c r="B525" s="3">
         <v>39.356000000000002</v>
       </c>
     </row>
@@ -16268,7 +16284,7 @@
       <c r="A526" t="s">
         <v>91</v>
       </c>
-      <c r="B526" s="1">
+      <c r="B526" s="3">
         <v>39.290999999999997</v>
       </c>
     </row>
@@ -16276,7 +16292,7 @@
       <c r="A527" t="s">
         <v>270</v>
       </c>
-      <c r="B527" s="1">
+      <c r="B527" s="3">
         <v>39.082999999999998</v>
       </c>
     </row>
@@ -16284,7 +16300,7 @@
       <c r="A528" t="s">
         <v>259</v>
       </c>
-      <c r="B528" s="1">
+      <c r="B528" s="3">
         <v>39.027999999999999</v>
       </c>
     </row>
@@ -16292,7 +16308,7 @@
       <c r="A529" t="s">
         <v>992</v>
       </c>
-      <c r="B529" s="1">
+      <c r="B529" s="3">
         <v>38.909999999999997</v>
       </c>
     </row>
@@ -16300,7 +16316,7 @@
       <c r="A530" t="s">
         <v>109</v>
       </c>
-      <c r="B530" s="1">
+      <c r="B530" s="3">
         <v>38.834000000000003</v>
       </c>
     </row>
@@ -16308,7 +16324,7 @@
       <c r="A531" t="s">
         <v>580</v>
       </c>
-      <c r="B531" s="1">
+      <c r="B531" s="3">
         <v>38.753999999999998</v>
       </c>
     </row>
@@ -16316,7 +16332,7 @@
       <c r="A532" t="s">
         <v>212</v>
       </c>
-      <c r="B532" s="1">
+      <c r="B532" s="3">
         <v>38.722000000000001</v>
       </c>
     </row>
@@ -16324,7 +16340,7 @@
       <c r="A533" t="s">
         <v>269</v>
       </c>
-      <c r="B533" s="1">
+      <c r="B533" s="3">
         <v>38.567999999999998</v>
       </c>
     </row>
@@ -16332,7 +16348,7 @@
       <c r="A534" t="s">
         <v>33</v>
       </c>
-      <c r="B534" s="1">
+      <c r="B534" s="3">
         <v>38.470999999999997</v>
       </c>
     </row>
@@ -16340,7 +16356,7 @@
       <c r="A535" t="s">
         <v>635</v>
       </c>
-      <c r="B535" s="1">
+      <c r="B535" s="3">
         <v>38.433999999999997</v>
       </c>
     </row>
@@ -16348,7 +16364,7 @@
       <c r="A536" t="s">
         <v>357</v>
       </c>
-      <c r="B536" s="1">
+      <c r="B536" s="3">
         <v>38.262</v>
       </c>
     </row>
@@ -16356,7 +16372,7 @@
       <c r="A537" t="s">
         <v>577</v>
       </c>
-      <c r="B537" s="1">
+      <c r="B537" s="3">
         <v>38.238</v>
       </c>
     </row>
@@ -16364,7 +16380,7 @@
       <c r="A538" t="s">
         <v>963</v>
       </c>
-      <c r="B538" s="1">
+      <c r="B538" s="3">
         <v>38.048000000000002</v>
       </c>
     </row>
@@ -16372,7 +16388,7 @@
       <c r="A539" t="s">
         <v>258</v>
       </c>
-      <c r="B539" s="1">
+      <c r="B539" s="3">
         <v>38.031999999999996</v>
       </c>
     </row>
@@ -16380,7 +16396,7 @@
       <c r="A540" t="s">
         <v>112</v>
       </c>
-      <c r="B540" s="1">
+      <c r="B540" s="3">
         <v>37.938000000000002</v>
       </c>
     </row>
@@ -16388,7 +16404,7 @@
       <c r="A541" t="s">
         <v>278</v>
       </c>
-      <c r="B541" s="1">
+      <c r="B541" s="3">
         <v>37.935000000000002</v>
       </c>
     </row>
@@ -16396,7 +16412,7 @@
       <c r="A542" t="s">
         <v>987</v>
       </c>
-      <c r="B542" s="1">
+      <c r="B542" s="3">
         <v>37.744999999999997</v>
       </c>
     </row>
@@ -16404,7 +16420,7 @@
       <c r="A543" t="s">
         <v>329</v>
       </c>
-      <c r="B543" s="1">
+      <c r="B543" s="3">
         <v>37.273000000000003</v>
       </c>
     </row>
@@ -16412,7 +16428,7 @@
       <c r="A544" t="s">
         <v>98</v>
       </c>
-      <c r="B544" s="1">
+      <c r="B544" s="3">
         <v>37.183999999999997</v>
       </c>
     </row>
@@ -16420,7 +16436,7 @@
       <c r="A545" t="s">
         <v>234</v>
       </c>
-      <c r="B545" s="1">
+      <c r="B545" s="3">
         <v>37.164999999999999</v>
       </c>
     </row>
@@ -16428,7 +16444,7 @@
       <c r="A546" t="s">
         <v>786</v>
       </c>
-      <c r="B546" s="1">
+      <c r="B546" s="3">
         <v>36.945999999999998</v>
       </c>
     </row>
@@ -16436,7 +16452,7 @@
       <c r="A547" t="s">
         <v>260</v>
       </c>
-      <c r="B547" s="1">
+      <c r="B547" s="3">
         <v>36.832999999999998</v>
       </c>
     </row>
@@ -16444,7 +16460,7 @@
       <c r="A548" t="s">
         <v>187</v>
       </c>
-      <c r="B548" s="1">
+      <c r="B548" s="3">
         <v>36.768000000000001</v>
       </c>
     </row>
@@ -16452,7 +16468,7 @@
       <c r="A549" t="s">
         <v>942</v>
       </c>
-      <c r="B549" s="1">
+      <c r="B549" s="3">
         <v>36.686</v>
       </c>
     </row>
@@ -16460,7 +16476,7 @@
       <c r="A550" t="s">
         <v>105</v>
       </c>
-      <c r="B550" s="1">
+      <c r="B550" s="3">
         <v>36.371000000000002</v>
       </c>
     </row>
@@ -16468,7 +16484,7 @@
       <c r="A551" t="s">
         <v>344</v>
       </c>
-      <c r="B551" s="1">
+      <c r="B551" s="3">
         <v>36.283999999999999</v>
       </c>
     </row>
@@ -16476,7 +16492,7 @@
       <c r="A552" t="s">
         <v>962</v>
       </c>
-      <c r="B552" s="1">
+      <c r="B552" s="3">
         <v>36.265000000000001</v>
       </c>
     </row>
@@ -16484,7 +16500,7 @@
       <c r="A553" t="s">
         <v>271</v>
       </c>
-      <c r="B553" s="1">
+      <c r="B553" s="3">
         <v>36.171999999999997</v>
       </c>
     </row>
@@ -16492,7 +16508,7 @@
       <c r="A554" t="s">
         <v>959</v>
       </c>
-      <c r="B554" s="1">
+      <c r="B554" s="3">
         <v>36.155000000000001</v>
       </c>
     </row>
@@ -16500,7 +16516,7 @@
       <c r="A555" t="s">
         <v>90</v>
       </c>
-      <c r="B555" s="1">
+      <c r="B555" s="3">
         <v>36.116999999999997</v>
       </c>
     </row>
@@ -16508,7 +16524,7 @@
       <c r="A556" t="s">
         <v>214</v>
       </c>
-      <c r="B556" s="1">
+      <c r="B556" s="3">
         <v>36.082000000000001</v>
       </c>
     </row>
@@ -16516,7 +16532,7 @@
       <c r="A557" t="s">
         <v>86</v>
       </c>
-      <c r="B557" s="1">
+      <c r="B557" s="3">
         <v>35.78</v>
       </c>
     </row>
@@ -16524,7 +16540,7 @@
       <c r="A558" t="s">
         <v>348</v>
       </c>
-      <c r="B558" s="1">
+      <c r="B558" s="3">
         <v>35.74</v>
       </c>
     </row>
@@ -16532,7 +16548,7 @@
       <c r="A559" t="s">
         <v>621</v>
       </c>
-      <c r="B559" s="1">
+      <c r="B559" s="3">
         <v>35.585999999999999</v>
       </c>
     </row>
@@ -16540,7 +16556,7 @@
       <c r="A560" t="s">
         <v>80</v>
       </c>
-      <c r="B560" s="1">
+      <c r="B560" s="3">
         <v>35.548999999999999</v>
       </c>
     </row>
@@ -16548,7 +16564,7 @@
       <c r="A561" t="s">
         <v>638</v>
       </c>
-      <c r="B561" s="1">
+      <c r="B561" s="3">
         <v>35.534999999999997</v>
       </c>
     </row>
@@ -16556,7 +16572,7 @@
       <c r="A562" t="s">
         <v>354</v>
       </c>
-      <c r="B562" s="1">
+      <c r="B562" s="3">
         <v>35.292999999999999</v>
       </c>
     </row>
@@ -16564,7 +16580,7 @@
       <c r="A563" t="s">
         <v>412</v>
       </c>
-      <c r="B563" s="1">
+      <c r="B563" s="3">
         <v>35.03</v>
       </c>
     </row>
@@ -16572,7 +16588,7 @@
       <c r="A564" t="s">
         <v>85</v>
       </c>
-      <c r="B564" s="1">
+      <c r="B564" s="3">
         <v>35.003</v>
       </c>
     </row>
@@ -16580,7 +16596,7 @@
       <c r="A565" t="s">
         <v>305</v>
       </c>
-      <c r="B565" s="1">
+      <c r="B565" s="3">
         <v>34.914000000000001</v>
       </c>
     </row>
@@ -16588,7 +16604,7 @@
       <c r="A566" t="s">
         <v>218</v>
       </c>
-      <c r="B566" s="1">
+      <c r="B566" s="3">
         <v>34.881</v>
       </c>
     </row>
@@ -16596,7 +16612,7 @@
       <c r="A567" t="s">
         <v>228</v>
       </c>
-      <c r="B567" s="1">
+      <c r="B567" s="3">
         <v>34.655999999999999</v>
       </c>
     </row>
@@ -16604,7 +16620,7 @@
       <c r="A568" t="s">
         <v>630</v>
       </c>
-      <c r="B568" s="1">
+      <c r="B568" s="3">
         <v>34.643000000000001</v>
       </c>
     </row>
@@ -16612,7 +16628,7 @@
       <c r="A569" t="s">
         <v>418</v>
       </c>
-      <c r="B569" s="1">
+      <c r="B569" s="3">
         <v>34.637999999999998</v>
       </c>
     </row>
@@ -16620,7 +16636,7 @@
       <c r="A570" t="s">
         <v>314</v>
       </c>
-      <c r="B570" s="1">
+      <c r="B570" s="3">
         <v>34.606999999999999</v>
       </c>
     </row>
@@ -16628,7 +16644,7 @@
       <c r="A571" t="s">
         <v>362</v>
       </c>
-      <c r="B571" s="1">
+      <c r="B571" s="3">
         <v>34.554000000000002</v>
       </c>
     </row>
@@ -16636,7 +16652,7 @@
       <c r="A572" t="s">
         <v>273</v>
       </c>
-      <c r="B572" s="1">
+      <c r="B572" s="3">
         <v>34.539000000000001</v>
       </c>
     </row>
@@ -16644,7 +16660,7 @@
       <c r="A573" t="s">
         <v>845</v>
       </c>
-      <c r="B573" s="1">
+      <c r="B573" s="3">
         <v>34.344000000000001</v>
       </c>
     </row>
@@ -16652,7 +16668,7 @@
       <c r="A574" t="s">
         <v>272</v>
       </c>
-      <c r="B574" s="1">
+      <c r="B574" s="3">
         <v>34.335999999999999</v>
       </c>
     </row>
@@ -16660,7 +16676,7 @@
       <c r="A575" t="s">
         <v>276</v>
       </c>
-      <c r="B575" s="1">
+      <c r="B575" s="3">
         <v>34.335999999999999</v>
       </c>
     </row>
@@ -16668,7 +16684,7 @@
       <c r="A576" t="s">
         <v>884</v>
       </c>
-      <c r="B576" s="1">
+      <c r="B576" s="3">
         <v>34.24</v>
       </c>
     </row>
@@ -16676,7 +16692,7 @@
       <c r="A577" t="s">
         <v>342</v>
       </c>
-      <c r="B577" s="1">
+      <c r="B577" s="3">
         <v>34.158000000000001</v>
       </c>
     </row>
@@ -16684,7 +16700,7 @@
       <c r="A578" t="s">
         <v>960</v>
       </c>
-      <c r="B578" s="1">
+      <c r="B578" s="3">
         <v>34.139000000000003</v>
       </c>
     </row>
@@ -16692,7 +16708,7 @@
       <c r="A579" t="s">
         <v>115</v>
       </c>
-      <c r="B579" s="1">
+      <c r="B579" s="3">
         <v>34.08</v>
       </c>
     </row>
@@ -16700,7 +16716,7 @@
       <c r="A580" t="s">
         <v>356</v>
       </c>
-      <c r="B580" s="1">
+      <c r="B580" s="3">
         <v>33.779000000000003</v>
       </c>
     </row>
@@ -16708,7 +16724,7 @@
       <c r="A581" t="s">
         <v>812</v>
       </c>
-      <c r="B581" s="1">
+      <c r="B581" s="3">
         <v>33.753</v>
       </c>
     </row>
@@ -16716,7 +16732,7 @@
       <c r="A582" t="s">
         <v>124</v>
       </c>
-      <c r="B582" s="1">
+      <c r="B582" s="3">
         <v>33.670999999999999</v>
       </c>
     </row>
@@ -16724,7 +16740,7 @@
       <c r="A583" t="s">
         <v>565</v>
       </c>
-      <c r="B583" s="1">
+      <c r="B583" s="3">
         <v>33.545999999999999</v>
       </c>
     </row>
@@ -16732,7 +16748,7 @@
       <c r="A584" t="s">
         <v>411</v>
       </c>
-      <c r="B584" s="1">
+      <c r="B584" s="3">
         <v>33.375</v>
       </c>
     </row>
@@ -16740,7 +16756,7 @@
       <c r="A585" t="s">
         <v>245</v>
       </c>
-      <c r="B585" s="1">
+      <c r="B585" s="3">
         <v>33.32</v>
       </c>
     </row>
@@ -16748,7 +16764,7 @@
       <c r="A586" t="s">
         <v>940</v>
       </c>
-      <c r="B586" s="1">
+      <c r="B586" s="3">
         <v>33.319000000000003</v>
       </c>
     </row>
@@ -16756,7 +16772,7 @@
       <c r="A587" t="s">
         <v>414</v>
       </c>
-      <c r="B587" s="1">
+      <c r="B587" s="3">
         <v>33.317999999999998</v>
       </c>
     </row>
@@ -16764,7 +16780,7 @@
       <c r="A588" t="s">
         <v>874</v>
       </c>
-      <c r="B588" s="1">
+      <c r="B588" s="3">
         <v>33.267000000000003</v>
       </c>
     </row>
@@ -16772,7 +16788,7 @@
       <c r="A589" t="s">
         <v>417</v>
       </c>
-      <c r="B589" s="1">
+      <c r="B589" s="3">
         <v>33.237000000000002</v>
       </c>
     </row>
@@ -16780,7 +16796,7 @@
       <c r="A590" t="s">
         <v>81</v>
       </c>
-      <c r="B590" s="1">
+      <c r="B590" s="3">
         <v>33.140999999999998</v>
       </c>
     </row>
@@ -16788,7 +16804,7 @@
       <c r="A591" t="s">
         <v>419</v>
       </c>
-      <c r="B591" s="1">
+      <c r="B591" s="3">
         <v>33.063000000000002</v>
       </c>
     </row>
@@ -16796,7 +16812,7 @@
       <c r="A592" t="s">
         <v>950</v>
       </c>
-      <c r="B592" s="1">
+      <c r="B592" s="3">
         <v>33.01</v>
       </c>
     </row>
@@ -16804,7 +16820,7 @@
       <c r="A593" t="s">
         <v>12</v>
       </c>
-      <c r="B593" s="1">
+      <c r="B593" s="3">
         <v>32.951000000000001</v>
       </c>
     </row>
@@ -16812,7 +16828,7 @@
       <c r="A594" t="s">
         <v>99</v>
       </c>
-      <c r="B594" s="1">
+      <c r="B594" s="3">
         <v>32.948999999999998</v>
       </c>
     </row>
@@ -16820,7 +16836,7 @@
       <c r="A595" t="s">
         <v>744</v>
       </c>
-      <c r="B595" s="1">
+      <c r="B595" s="3">
         <v>32.640999999999998</v>
       </c>
     </row>
@@ -16828,7 +16844,7 @@
       <c r="A596" t="s">
         <v>675</v>
       </c>
-      <c r="B596" s="1">
+      <c r="B596" s="3">
         <v>32.482999999999997</v>
       </c>
     </row>
@@ -16836,7 +16852,7 @@
       <c r="A597" t="s">
         <v>782</v>
       </c>
-      <c r="B597" s="1">
+      <c r="B597" s="3">
         <v>32.465000000000003</v>
       </c>
     </row>
@@ -16844,7 +16860,7 @@
       <c r="A598" t="s">
         <v>302</v>
       </c>
-      <c r="B598" s="1">
+      <c r="B598" s="3">
         <v>32.311</v>
       </c>
     </row>
@@ -16852,7 +16868,7 @@
       <c r="A599" t="s">
         <v>294</v>
       </c>
-      <c r="B599" s="1">
+      <c r="B599" s="3">
         <v>32.253999999999998</v>
       </c>
     </row>
@@ -16860,7 +16876,7 @@
       <c r="A600" t="s">
         <v>345</v>
       </c>
-      <c r="B600" s="1">
+      <c r="B600" s="3">
         <v>32.207999999999998</v>
       </c>
     </row>
@@ -16868,7 +16884,7 @@
       <c r="A601" t="s">
         <v>89</v>
       </c>
-      <c r="B601" s="1">
+      <c r="B601" s="3">
         <v>32.159999999999997</v>
       </c>
     </row>
@@ -16876,7 +16892,7 @@
       <c r="A602" t="s">
         <v>416</v>
       </c>
-      <c r="B602" s="1">
+      <c r="B602" s="3">
         <v>32.046999999999997</v>
       </c>
     </row>
@@ -16884,7 +16900,7 @@
       <c r="A603" t="s">
         <v>351</v>
       </c>
-      <c r="B603" s="1">
+      <c r="B603" s="3">
         <v>32.029000000000003</v>
       </c>
     </row>
@@ -16892,7 +16908,7 @@
       <c r="A604" t="s">
         <v>929</v>
       </c>
-      <c r="B604" s="1">
+      <c r="B604" s="3">
         <v>31.907</v>
       </c>
     </row>
@@ -16900,7 +16916,7 @@
       <c r="A605" t="s">
         <v>96</v>
       </c>
-      <c r="B605" s="1">
+      <c r="B605" s="3">
         <v>31.863</v>
       </c>
     </row>
@@ -16908,7 +16924,7 @@
       <c r="A606" t="s">
         <v>11</v>
       </c>
-      <c r="B606" s="1">
+      <c r="B606" s="3">
         <v>31.710999999999999</v>
       </c>
     </row>
@@ -16916,7 +16932,7 @@
       <c r="A607" t="s">
         <v>643</v>
       </c>
-      <c r="B607" s="1">
+      <c r="B607" s="3">
         <v>31.664000000000001</v>
       </c>
     </row>
@@ -16924,7 +16940,7 @@
       <c r="A608" t="s">
         <v>343</v>
       </c>
-      <c r="B608" s="1">
+      <c r="B608" s="3">
         <v>31.649000000000001</v>
       </c>
     </row>
@@ -16932,7 +16948,7 @@
       <c r="A609" t="s">
         <v>117</v>
       </c>
-      <c r="B609" s="1">
+      <c r="B609" s="3">
         <v>31.488</v>
       </c>
     </row>
@@ -16940,7 +16956,7 @@
       <c r="A610" t="s">
         <v>930</v>
       </c>
-      <c r="B610" s="1">
+      <c r="B610" s="3">
         <v>31.417999999999999</v>
       </c>
     </row>
@@ -16948,7 +16964,7 @@
       <c r="A611" t="s">
         <v>769</v>
       </c>
-      <c r="B611" s="1">
+      <c r="B611" s="3">
         <v>31.396000000000001</v>
       </c>
     </row>
@@ -16956,7 +16972,7 @@
       <c r="A612" t="s">
         <v>573</v>
       </c>
-      <c r="B612" s="1">
+      <c r="B612" s="3">
         <v>31.379000000000001</v>
       </c>
     </row>
@@ -16964,7 +16980,7 @@
       <c r="A613" t="s">
         <v>92</v>
       </c>
-      <c r="B613" s="1">
+      <c r="B613" s="3">
         <v>31.33</v>
       </c>
     </row>
@@ -16972,7 +16988,7 @@
       <c r="A614" t="s">
         <v>773</v>
       </c>
-      <c r="B614" s="1">
+      <c r="B614" s="3">
         <v>31.283000000000001</v>
       </c>
     </row>
@@ -16980,7 +16996,7 @@
       <c r="A615" t="s">
         <v>572</v>
       </c>
-      <c r="B615" s="1">
+      <c r="B615" s="3">
         <v>31.266999999999999</v>
       </c>
     </row>
@@ -16988,7 +17004,7 @@
       <c r="A616" t="s">
         <v>41</v>
       </c>
-      <c r="B616" s="1">
+      <c r="B616" s="3">
         <v>31.251999999999999</v>
       </c>
     </row>
@@ -16996,7 +17012,7 @@
       <c r="A617" t="s">
         <v>760</v>
       </c>
-      <c r="B617" s="1">
+      <c r="B617" s="3">
         <v>31.233000000000001</v>
       </c>
     </row>
@@ -17004,7 +17020,7 @@
       <c r="A618" t="s">
         <v>787</v>
       </c>
-      <c r="B618" s="1">
+      <c r="B618" s="3">
         <v>31.231999999999999</v>
       </c>
     </row>
@@ -17012,7 +17028,7 @@
       <c r="A619" t="s">
         <v>631</v>
       </c>
-      <c r="B619" s="1">
+      <c r="B619" s="3">
         <v>31.23</v>
       </c>
     </row>
@@ -17020,7 +17036,7 @@
       <c r="A620" t="s">
         <v>301</v>
       </c>
-      <c r="B620" s="1">
+      <c r="B620" s="3">
         <v>31.119</v>
       </c>
     </row>
@@ -17028,7 +17044,7 @@
       <c r="A621" t="s">
         <v>742</v>
       </c>
-      <c r="B621" s="1">
+      <c r="B621" s="3">
         <v>31.102</v>
       </c>
     </row>
@@ -17036,7 +17052,7 @@
       <c r="A622" t="s">
         <v>185</v>
       </c>
-      <c r="B622" s="1">
+      <c r="B622" s="3">
         <v>31.007000000000001</v>
       </c>
     </row>
@@ -17044,7 +17060,7 @@
       <c r="A623" t="s">
         <v>562</v>
       </c>
-      <c r="B623" s="1">
+      <c r="B623" s="3">
         <v>30.954999999999998</v>
       </c>
     </row>
@@ -17052,7 +17068,7 @@
       <c r="A624" t="s">
         <v>576</v>
       </c>
-      <c r="B624" s="1">
+      <c r="B624" s="3">
         <v>30.898</v>
       </c>
     </row>
@@ -17060,7 +17076,7 @@
       <c r="A625" t="s">
         <v>567</v>
       </c>
-      <c r="B625" s="1">
+      <c r="B625" s="3">
         <v>30.858000000000001</v>
       </c>
     </row>
@@ -17068,7 +17084,7 @@
       <c r="A626" t="s">
         <v>781</v>
       </c>
-      <c r="B626" s="1">
+      <c r="B626" s="3">
         <v>30.780999999999999</v>
       </c>
     </row>
@@ -17076,7 +17092,7 @@
       <c r="A627" t="s">
         <v>926</v>
       </c>
-      <c r="B627" s="1">
+      <c r="B627" s="3">
         <v>30.661999999999999</v>
       </c>
     </row>
@@ -17084,7 +17100,7 @@
       <c r="A628" t="s">
         <v>830</v>
       </c>
-      <c r="B628" s="1">
+      <c r="B628" s="3">
         <v>30.658999999999999</v>
       </c>
     </row>
@@ -17092,7 +17108,7 @@
       <c r="A629" t="s">
         <v>765</v>
       </c>
-      <c r="B629" s="1">
+      <c r="B629" s="3">
         <v>30.582999999999998</v>
       </c>
     </row>
@@ -17100,7 +17116,7 @@
       <c r="A630" t="s">
         <v>563</v>
       </c>
-      <c r="B630" s="1">
+      <c r="B630" s="3">
         <v>30.524000000000001</v>
       </c>
     </row>
@@ -17108,7 +17124,7 @@
       <c r="A631" t="s">
         <v>818</v>
       </c>
-      <c r="B631" s="1">
+      <c r="B631" s="3">
         <v>30.503</v>
       </c>
     </row>
@@ -17116,7 +17132,7 @@
       <c r="A632" t="s">
         <v>114</v>
       </c>
-      <c r="B632" s="1">
+      <c r="B632" s="3">
         <v>30.460999999999999</v>
       </c>
     </row>
@@ -17124,7 +17140,7 @@
       <c r="A633" t="s">
         <v>97</v>
       </c>
-      <c r="B633" s="1">
+      <c r="B633" s="3">
         <v>30.372</v>
       </c>
     </row>
@@ -17132,7 +17148,7 @@
       <c r="A634" t="s">
         <v>762</v>
       </c>
-      <c r="B634" s="1">
+      <c r="B634" s="3">
         <v>30.315000000000001</v>
       </c>
     </row>
@@ -17140,7 +17156,7 @@
       <c r="A635" t="s">
         <v>190</v>
       </c>
-      <c r="B635" s="1">
+      <c r="B635" s="3">
         <v>30.280999999999999</v>
       </c>
     </row>
@@ -17148,7 +17164,7 @@
       <c r="A636" t="s">
         <v>184</v>
       </c>
-      <c r="B636" s="1">
+      <c r="B636" s="3">
         <v>30.257000000000001</v>
       </c>
     </row>
@@ -17156,7 +17172,7 @@
       <c r="A637" t="s">
         <v>624</v>
       </c>
-      <c r="B637" s="1">
+      <c r="B637" s="3">
         <v>30.202000000000002</v>
       </c>
     </row>
@@ -17164,7 +17180,7 @@
       <c r="A638" t="s">
         <v>683</v>
       </c>
-      <c r="B638" s="1">
+      <c r="B638" s="3">
         <v>30.141999999999999</v>
       </c>
     </row>
@@ -17172,7 +17188,7 @@
       <c r="A639" t="s">
         <v>679</v>
       </c>
-      <c r="B639" s="1">
+      <c r="B639" s="3">
         <v>30.073</v>
       </c>
     </row>
@@ -17180,7 +17196,7 @@
       <c r="A640" t="s">
         <v>569</v>
       </c>
-      <c r="B640" s="1">
+      <c r="B640" s="3">
         <v>30.045000000000002</v>
       </c>
     </row>
@@ -17188,7 +17204,7 @@
       <c r="A641" t="s">
         <v>701</v>
       </c>
-      <c r="B641" s="1">
+      <c r="B641" s="3">
         <v>29.917000000000002</v>
       </c>
     </row>
@@ -17196,7 +17212,7 @@
       <c r="A642" t="s">
         <v>113</v>
       </c>
-      <c r="B642" s="1">
+      <c r="B642" s="3">
         <v>29.914000000000001</v>
       </c>
     </row>
@@ -17204,7 +17220,7 @@
       <c r="A643" t="s">
         <v>745</v>
       </c>
-      <c r="B643" s="1">
+      <c r="B643" s="3">
         <v>29.890999999999998</v>
       </c>
     </row>
@@ -17212,7 +17228,7 @@
       <c r="A644" t="s">
         <v>571</v>
       </c>
-      <c r="B644" s="1">
+      <c r="B644" s="3">
         <v>29.861999999999998</v>
       </c>
     </row>
@@ -17220,7 +17236,7 @@
       <c r="A645" t="s">
         <v>778</v>
       </c>
-      <c r="B645" s="1">
+      <c r="B645" s="3">
         <v>29.849</v>
       </c>
     </row>
@@ -17228,7 +17244,7 @@
       <c r="A646" t="s">
         <v>828</v>
       </c>
-      <c r="B646" s="1">
+      <c r="B646" s="3">
         <v>29.826000000000001</v>
       </c>
     </row>
@@ -17236,7 +17252,7 @@
       <c r="A647" t="s">
         <v>780</v>
       </c>
-      <c r="B647" s="1">
+      <c r="B647" s="3">
         <v>29.771000000000001</v>
       </c>
     </row>
@@ -17244,7 +17260,7 @@
       <c r="A648" t="s">
         <v>814</v>
       </c>
-      <c r="B648" s="1">
+      <c r="B648" s="3">
         <v>29.715</v>
       </c>
     </row>
@@ -17252,7 +17268,7 @@
       <c r="A649" t="s">
         <v>670</v>
       </c>
-      <c r="B649" s="1">
+      <c r="B649" s="3">
         <v>29.664999999999999</v>
       </c>
     </row>
@@ -17260,7 +17276,7 @@
       <c r="A650" t="s">
         <v>180</v>
       </c>
-      <c r="B650" s="1">
+      <c r="B650" s="3">
         <v>29.661000000000001</v>
       </c>
     </row>
@@ -17268,7 +17284,7 @@
       <c r="A651" t="s">
         <v>636</v>
       </c>
-      <c r="B651" s="1">
+      <c r="B651" s="3">
         <v>29.603000000000002</v>
       </c>
     </row>
@@ -17276,7 +17292,7 @@
       <c r="A652" t="s">
         <v>747</v>
       </c>
-      <c r="B652" s="1">
+      <c r="B652" s="3">
         <v>29.585000000000001</v>
       </c>
     </row>
@@ -17284,7 +17300,7 @@
       <c r="A653" t="s">
         <v>736</v>
       </c>
-      <c r="B653" s="1">
+      <c r="B653" s="3">
         <v>29.545999999999999</v>
       </c>
     </row>
@@ -17292,7 +17308,7 @@
       <c r="A654" t="s">
         <v>743</v>
       </c>
-      <c r="B654" s="1">
+      <c r="B654" s="3">
         <v>29.521999999999998</v>
       </c>
     </row>
@@ -17300,7 +17316,7 @@
       <c r="A655" t="s">
         <v>119</v>
       </c>
-      <c r="B655" s="1">
+      <c r="B655" s="3">
         <v>29.521000000000001</v>
       </c>
     </row>
@@ -17308,7 +17324,7 @@
       <c r="A656" t="s">
         <v>696</v>
       </c>
-      <c r="B656" s="1">
+      <c r="B656" s="3">
         <v>29.51</v>
       </c>
     </row>
@@ -17316,7 +17332,7 @@
       <c r="A657" t="s">
         <v>774</v>
       </c>
-      <c r="B657" s="1">
+      <c r="B657" s="3">
         <v>29.408000000000001</v>
       </c>
     </row>
@@ -17324,7 +17340,7 @@
       <c r="A658" t="s">
         <v>95</v>
       </c>
-      <c r="B658" s="1">
+      <c r="B658" s="3">
         <v>29.309000000000001</v>
       </c>
     </row>
@@ -17332,7 +17348,7 @@
       <c r="A659" t="s">
         <v>83</v>
       </c>
-      <c r="B659" s="1">
+      <c r="B659" s="3">
         <v>29.292999999999999</v>
       </c>
     </row>
@@ -17340,7 +17356,7 @@
       <c r="A660" t="s">
         <v>629</v>
       </c>
-      <c r="B660" s="1">
+      <c r="B660" s="3">
         <v>29.218</v>
       </c>
     </row>
@@ -17348,7 +17364,7 @@
       <c r="A661" t="s">
         <v>123</v>
       </c>
-      <c r="B661" s="1">
+      <c r="B661" s="3">
         <v>29.193000000000001</v>
       </c>
     </row>
@@ -17356,7 +17372,7 @@
       <c r="A662" t="s">
         <v>807</v>
       </c>
-      <c r="B662" s="1">
+      <c r="B662" s="3">
         <v>29.183</v>
       </c>
     </row>
@@ -17364,7 +17380,7 @@
       <c r="A663" t="s">
         <v>939</v>
       </c>
-      <c r="B663" s="1">
+      <c r="B663" s="3">
         <v>29.122</v>
       </c>
     </row>
@@ -17372,7 +17388,7 @@
       <c r="A664" t="s">
         <v>213</v>
       </c>
-      <c r="B664" s="1">
+      <c r="B664" s="3">
         <v>29.119</v>
       </c>
     </row>
@@ -17380,7 +17396,7 @@
       <c r="A665" t="s">
         <v>801</v>
       </c>
-      <c r="B665" s="1">
+      <c r="B665" s="3">
         <v>29.091000000000001</v>
       </c>
     </row>
@@ -17388,7 +17404,7 @@
       <c r="A666" t="s">
         <v>981</v>
       </c>
-      <c r="B666" s="1">
+      <c r="B666" s="3">
         <v>28.866</v>
       </c>
     </row>
@@ -17396,7 +17412,7 @@
       <c r="A667" t="s">
         <v>756</v>
       </c>
-      <c r="B667" s="1">
+      <c r="B667" s="3">
         <v>28.777999999999999</v>
       </c>
     </row>
@@ -17404,7 +17420,7 @@
       <c r="A668" t="s">
         <v>404</v>
       </c>
-      <c r="B668" s="1">
+      <c r="B668" s="3">
         <v>28.773</v>
       </c>
     </row>
@@ -17412,7 +17428,7 @@
       <c r="A669" t="s">
         <v>768</v>
       </c>
-      <c r="B669" s="1">
+      <c r="B669" s="3">
         <v>28.754999999999999</v>
       </c>
     </row>
@@ -17420,7 +17436,7 @@
       <c r="A670" t="s">
         <v>53</v>
       </c>
-      <c r="B670" s="1">
+      <c r="B670" s="3">
         <v>28.748000000000001</v>
       </c>
     </row>
@@ -17428,7 +17444,7 @@
       <c r="A671" t="s">
         <v>578</v>
       </c>
-      <c r="B671" s="1">
+      <c r="B671" s="3">
         <v>28.738</v>
       </c>
     </row>
@@ -17436,7 +17452,7 @@
       <c r="A672" t="s">
         <v>951</v>
       </c>
-      <c r="B672" s="1">
+      <c r="B672" s="3">
         <v>28.658999999999999</v>
       </c>
     </row>
@@ -17444,7 +17460,7 @@
       <c r="A673" t="s">
         <v>674</v>
       </c>
-      <c r="B673" s="1">
+      <c r="B673" s="3">
         <v>28.652999999999999</v>
       </c>
     </row>
@@ -17452,7 +17468,7 @@
       <c r="A674" t="s">
         <v>777</v>
       </c>
-      <c r="B674" s="1">
+      <c r="B674" s="3">
         <v>28.652999999999999</v>
       </c>
     </row>
@@ -17460,7 +17476,7 @@
       <c r="A675" t="s">
         <v>947</v>
       </c>
-      <c r="B675" s="1">
+      <c r="B675" s="3">
         <v>28.645</v>
       </c>
     </row>
@@ -17468,7 +17484,7 @@
       <c r="A676" t="s">
         <v>688</v>
       </c>
-      <c r="B676" s="1">
+      <c r="B676" s="3">
         <v>28.581</v>
       </c>
     </row>
@@ -17476,7 +17492,7 @@
       <c r="A677" t="s">
         <v>174</v>
       </c>
-      <c r="B677" s="1">
+      <c r="B677" s="3">
         <v>28.56</v>
       </c>
     </row>
@@ -17484,7 +17500,7 @@
       <c r="A678" t="s">
         <v>740</v>
       </c>
-      <c r="B678" s="1">
+      <c r="B678" s="3">
         <v>28.556000000000001</v>
       </c>
     </row>
@@ -17492,7 +17508,7 @@
       <c r="A679" t="s">
         <v>627</v>
       </c>
-      <c r="B679" s="1">
+      <c r="B679" s="3">
         <v>28.54</v>
       </c>
     </row>
@@ -17500,7 +17516,7 @@
       <c r="A680" t="s">
         <v>776</v>
       </c>
-      <c r="B680" s="1">
+      <c r="B680" s="3">
         <v>28.495000000000001</v>
       </c>
     </row>
@@ -17508,7 +17524,7 @@
       <c r="A681" t="s">
         <v>752</v>
       </c>
-      <c r="B681" s="1">
+      <c r="B681" s="3">
         <v>28.459</v>
       </c>
     </row>
@@ -17516,7 +17532,7 @@
       <c r="A682" t="s">
         <v>287</v>
       </c>
-      <c r="B682" s="1">
+      <c r="B682" s="3">
         <v>28.457999999999998</v>
       </c>
     </row>
@@ -17524,7 +17540,7 @@
       <c r="A683" t="s">
         <v>802</v>
       </c>
-      <c r="B683" s="1">
+      <c r="B683" s="3">
         <v>28.417999999999999</v>
       </c>
     </row>
@@ -17532,7 +17548,7 @@
       <c r="A684" t="s">
         <v>618</v>
       </c>
-      <c r="B684" s="1">
+      <c r="B684" s="3">
         <v>28.39</v>
       </c>
     </row>
@@ -17540,7 +17556,7 @@
       <c r="A685" t="s">
         <v>822</v>
       </c>
-      <c r="B685" s="1">
+      <c r="B685" s="3">
         <v>28.385000000000002</v>
       </c>
     </row>
@@ -17548,7 +17564,7 @@
       <c r="A686" t="s">
         <v>941</v>
       </c>
-      <c r="B686" s="1">
+      <c r="B686" s="3">
         <v>28.346</v>
       </c>
     </row>
@@ -17556,7 +17572,7 @@
       <c r="A687" t="s">
         <v>796</v>
       </c>
-      <c r="B687" s="1">
+      <c r="B687" s="3">
         <v>28.321000000000002</v>
       </c>
     </row>
@@ -17564,7 +17580,7 @@
       <c r="A688" t="s">
         <v>824</v>
       </c>
-      <c r="B688" s="1">
+      <c r="B688" s="3">
         <v>28.131</v>
       </c>
     </row>
@@ -17572,7 +17588,7 @@
       <c r="A689" t="s">
         <v>628</v>
       </c>
-      <c r="B689" s="1">
+      <c r="B689" s="3">
         <v>28.113</v>
       </c>
     </row>
@@ -17580,7 +17596,7 @@
       <c r="A690" t="s">
         <v>289</v>
       </c>
-      <c r="B690" s="1">
+      <c r="B690" s="3">
         <v>28.064</v>
       </c>
     </row>
@@ -17588,7 +17604,7 @@
       <c r="A691" t="s">
         <v>927</v>
       </c>
-      <c r="B691" s="1">
+      <c r="B691" s="3">
         <v>28.029</v>
       </c>
     </row>
@@ -17596,7 +17612,7 @@
       <c r="A692" t="s">
         <v>750</v>
       </c>
-      <c r="B692" s="1">
+      <c r="B692" s="3">
         <v>27.97</v>
       </c>
     </row>
@@ -17604,7 +17620,7 @@
       <c r="A693" t="s">
         <v>623</v>
       </c>
-      <c r="B693" s="1">
+      <c r="B693" s="3">
         <v>27.954999999999998</v>
       </c>
     </row>
@@ -17612,7 +17628,7 @@
       <c r="A694" t="s">
         <v>168</v>
       </c>
-      <c r="B694" s="1">
+      <c r="B694" s="3">
         <v>27.95</v>
       </c>
     </row>
@@ -17620,7 +17636,7 @@
       <c r="A695" t="s">
         <v>211</v>
       </c>
-      <c r="B695" s="1">
+      <c r="B695" s="3">
         <v>27.887</v>
       </c>
     </row>
@@ -17628,7 +17644,7 @@
       <c r="A696" t="s">
         <v>820</v>
       </c>
-      <c r="B696" s="1">
+      <c r="B696" s="3">
         <v>27.832999999999998</v>
       </c>
     </row>
@@ -17636,7 +17652,7 @@
       <c r="A697" t="s">
         <v>834</v>
       </c>
-      <c r="B697" s="1">
+      <c r="B697" s="3">
         <v>27.827000000000002</v>
       </c>
     </row>
@@ -17644,7 +17660,7 @@
       <c r="A698" t="s">
         <v>13</v>
       </c>
-      <c r="B698" s="1">
+      <c r="B698" s="3">
         <v>27.809000000000001</v>
       </c>
     </row>
@@ -17652,7 +17668,7 @@
       <c r="A699" t="s">
         <v>793</v>
       </c>
-      <c r="B699" s="1">
+      <c r="B699" s="3">
         <v>27.69</v>
       </c>
     </row>
@@ -17660,7 +17676,7 @@
       <c r="A700" t="s">
         <v>826</v>
       </c>
-      <c r="B700" s="1">
+      <c r="B700" s="3">
         <v>27.635999999999999</v>
       </c>
     </row>
@@ -17668,7 +17684,7 @@
       <c r="A701" t="s">
         <v>972</v>
       </c>
-      <c r="B701" s="1">
+      <c r="B701" s="3">
         <v>27.613</v>
       </c>
     </row>
@@ -17676,7 +17692,7 @@
       <c r="A702" t="s">
         <v>755</v>
       </c>
-      <c r="B702" s="1">
+      <c r="B702" s="3">
         <v>27.605</v>
       </c>
     </row>
@@ -17684,7 +17700,7 @@
       <c r="A703" t="s">
         <v>684</v>
       </c>
-      <c r="B703" s="1">
+      <c r="B703" s="3">
         <v>27.603999999999999</v>
       </c>
     </row>
@@ -17692,7 +17708,7 @@
       <c r="A704" t="s">
         <v>794</v>
       </c>
-      <c r="B704" s="1">
+      <c r="B704" s="3">
         <v>27.581</v>
       </c>
     </row>
@@ -17700,7 +17716,7 @@
       <c r="A705" t="s">
         <v>694</v>
       </c>
-      <c r="B705" s="1">
+      <c r="B705" s="3">
         <v>27.57</v>
       </c>
     </row>
@@ -17708,7 +17724,7 @@
       <c r="A706" t="s">
         <v>303</v>
       </c>
-      <c r="B706" s="1">
+      <c r="B706" s="3">
         <v>27.513999999999999</v>
       </c>
     </row>
@@ -17716,7 +17732,7 @@
       <c r="A707" t="s">
         <v>153</v>
       </c>
-      <c r="B707" s="1">
+      <c r="B707" s="3">
         <v>27.498000000000001</v>
       </c>
     </row>
@@ -17724,7 +17740,7 @@
       <c r="A708" t="s">
         <v>673</v>
       </c>
-      <c r="B708" s="1">
+      <c r="B708" s="3">
         <v>27.425000000000001</v>
       </c>
     </row>
@@ -17732,7 +17748,7 @@
       <c r="A709" t="s">
         <v>566</v>
       </c>
-      <c r="B709" s="1">
+      <c r="B709" s="3">
         <v>27.390999999999998</v>
       </c>
     </row>
@@ -17740,7 +17756,7 @@
       <c r="A710" t="s">
         <v>167</v>
       </c>
-      <c r="B710" s="1">
+      <c r="B710" s="3">
         <v>27.366</v>
       </c>
     </row>
@@ -17748,7 +17764,7 @@
       <c r="A711" t="s">
         <v>668</v>
       </c>
-      <c r="B711" s="1">
+      <c r="B711" s="3">
         <v>27.349</v>
       </c>
     </row>
@@ -17756,7 +17772,7 @@
       <c r="A712" t="s">
         <v>872</v>
       </c>
-      <c r="B712" s="1">
+      <c r="B712" s="3">
         <v>27.337</v>
       </c>
     </row>
@@ -17764,7 +17780,7 @@
       <c r="A713" t="s">
         <v>672</v>
       </c>
-      <c r="B713" s="1">
+      <c r="B713" s="3">
         <v>27.33</v>
       </c>
     </row>
@@ -17772,7 +17788,7 @@
       <c r="A714" t="s">
         <v>280</v>
       </c>
-      <c r="B714" s="1">
+      <c r="B714" s="3">
         <v>27.303999999999998</v>
       </c>
     </row>
@@ -17780,7 +17796,7 @@
       <c r="A715" t="s">
         <v>689</v>
       </c>
-      <c r="B715" s="1">
+      <c r="B715" s="3">
         <v>27.206</v>
       </c>
     </row>
@@ -17788,7 +17804,7 @@
       <c r="A716" t="s">
         <v>795</v>
       </c>
-      <c r="B716" s="1">
+      <c r="B716" s="3">
         <v>27.198</v>
       </c>
     </row>
@@ -17796,7 +17812,7 @@
       <c r="A717" t="s">
         <v>880</v>
       </c>
-      <c r="B717" s="1">
+      <c r="B717" s="3">
         <v>27.173999999999999</v>
       </c>
     </row>
@@ -17804,7 +17820,7 @@
       <c r="A718" t="s">
         <v>763</v>
       </c>
-      <c r="B718" s="1">
+      <c r="B718" s="3">
         <v>27.123000000000001</v>
       </c>
     </row>
@@ -17812,7 +17828,7 @@
       <c r="A719" t="s">
         <v>685</v>
       </c>
-      <c r="B719" s="1">
+      <c r="B719" s="3">
         <v>27.097000000000001</v>
       </c>
     </row>
@@ -17820,7 +17836,7 @@
       <c r="A720" t="s">
         <v>953</v>
       </c>
-      <c r="B720" s="1">
+      <c r="B720" s="3">
         <v>27.045000000000002</v>
       </c>
     </row>
@@ -17828,7 +17844,7 @@
       <c r="A721" t="s">
         <v>227</v>
       </c>
-      <c r="B721" s="1">
+      <c r="B721" s="3">
         <v>27.03</v>
       </c>
     </row>
@@ -17836,7 +17852,7 @@
       <c r="A722" t="s">
         <v>311</v>
       </c>
-      <c r="B722" s="1">
+      <c r="B722" s="3">
         <v>27.024999999999999</v>
       </c>
     </row>
@@ -17844,7 +17860,7 @@
       <c r="A723" t="s">
         <v>159</v>
       </c>
-      <c r="B723" s="1">
+      <c r="B723" s="3">
         <v>26.965</v>
       </c>
     </row>
@@ -17852,7 +17868,7 @@
       <c r="A724" t="s">
         <v>734</v>
       </c>
-      <c r="B724" s="1">
+      <c r="B724" s="3">
         <v>26.96</v>
       </c>
     </row>
@@ -17860,7 +17876,7 @@
       <c r="A725" t="s">
         <v>825</v>
       </c>
-      <c r="B725" s="1">
+      <c r="B725" s="3">
         <v>26.931999999999999</v>
       </c>
     </row>
@@ -17868,7 +17884,7 @@
       <c r="A726" t="s">
         <v>677</v>
       </c>
-      <c r="B726" s="1">
+      <c r="B726" s="3">
         <v>26.887</v>
       </c>
     </row>
@@ -17876,7 +17892,7 @@
       <c r="A727" t="s">
         <v>779</v>
       </c>
-      <c r="B727" s="1">
+      <c r="B727" s="3">
         <v>26.881</v>
       </c>
     </row>
@@ -17884,7 +17900,7 @@
       <c r="A728" t="s">
         <v>687</v>
       </c>
-      <c r="B728" s="1">
+      <c r="B728" s="3">
         <v>26.856999999999999</v>
       </c>
     </row>
@@ -17892,7 +17908,7 @@
       <c r="A729" t="s">
         <v>17</v>
       </c>
-      <c r="B729" s="1">
+      <c r="B729" s="3">
         <v>26.800999999999998</v>
       </c>
     </row>
@@ -17900,7 +17916,7 @@
       <c r="A730" t="s">
         <v>277</v>
       </c>
-      <c r="B730" s="1">
+      <c r="B730" s="3">
         <v>26.709</v>
       </c>
     </row>
@@ -17908,7 +17924,7 @@
       <c r="A731" t="s">
         <v>642</v>
       </c>
-      <c r="B731" s="1">
+      <c r="B731" s="3">
         <v>26.686</v>
       </c>
     </row>
@@ -17916,7 +17932,7 @@
       <c r="A732" t="s">
         <v>697</v>
       </c>
-      <c r="B732" s="1">
+      <c r="B732" s="3">
         <v>26.638999999999999</v>
       </c>
     </row>
@@ -17924,7 +17940,7 @@
       <c r="A733" t="s">
         <v>766</v>
       </c>
-      <c r="B733" s="1">
+      <c r="B733" s="3">
         <v>26.638000000000002</v>
       </c>
     </row>
@@ -17932,7 +17948,7 @@
       <c r="A734" t="s">
         <v>735</v>
       </c>
-      <c r="B734" s="1">
+      <c r="B734" s="3">
         <v>26.603999999999999</v>
       </c>
     </row>
@@ -17940,7 +17956,7 @@
       <c r="A735" t="s">
         <v>570</v>
       </c>
-      <c r="B735" s="1">
+      <c r="B735" s="3">
         <v>26.594999999999999</v>
       </c>
     </row>
@@ -17948,7 +17964,7 @@
       <c r="A736" t="s">
         <v>149</v>
       </c>
-      <c r="B736" s="1">
+      <c r="B736" s="3">
         <v>26.547000000000001</v>
       </c>
     </row>
@@ -17956,7 +17972,7 @@
       <c r="A737" t="s">
         <v>616</v>
       </c>
-      <c r="B737" s="1">
+      <c r="B737" s="3">
         <v>26.545999999999999</v>
       </c>
     </row>
@@ -17964,7 +17980,7 @@
       <c r="A738" t="s">
         <v>46</v>
       </c>
-      <c r="B738" s="1">
+      <c r="B738" s="3">
         <v>26.5</v>
       </c>
     </row>
@@ -17972,7 +17988,7 @@
       <c r="A739" t="s">
         <v>304</v>
       </c>
-      <c r="B739" s="1">
+      <c r="B739" s="3">
         <v>26.477</v>
       </c>
     </row>
@@ -17980,7 +17996,7 @@
       <c r="A740" t="s">
         <v>681</v>
       </c>
-      <c r="B740" s="1">
+      <c r="B740" s="3">
         <v>26.457000000000001</v>
       </c>
     </row>
@@ -17988,7 +18004,7 @@
       <c r="A741" t="s">
         <v>805</v>
       </c>
-      <c r="B741" s="1">
+      <c r="B741" s="3">
         <v>26.449000000000002</v>
       </c>
     </row>
@@ -17996,7 +18012,7 @@
       <c r="A742" t="s">
         <v>666</v>
       </c>
-      <c r="B742" s="1">
+      <c r="B742" s="3">
         <v>26.448</v>
       </c>
     </row>
@@ -18004,7 +18020,7 @@
       <c r="A743" t="s">
         <v>208</v>
       </c>
-      <c r="B743" s="1">
+      <c r="B743" s="3">
         <v>26.425000000000001</v>
       </c>
     </row>
@@ -18012,7 +18028,7 @@
       <c r="A744" t="s">
         <v>125</v>
       </c>
-      <c r="B744" s="1">
+      <c r="B744" s="3">
         <v>26.423999999999999</v>
       </c>
     </row>
@@ -18020,7 +18036,7 @@
       <c r="A745" t="s">
         <v>6</v>
       </c>
-      <c r="B745" s="1">
+      <c r="B745" s="3">
         <v>26.3</v>
       </c>
     </row>
@@ -18028,7 +18044,7 @@
       <c r="A746" t="s">
         <v>200</v>
       </c>
-      <c r="B746" s="1">
+      <c r="B746" s="3">
         <v>26.265000000000001</v>
       </c>
     </row>
@@ -18036,7 +18052,7 @@
       <c r="A747" t="s">
         <v>121</v>
       </c>
-      <c r="B747" s="1">
+      <c r="B747" s="3">
         <v>26.231000000000002</v>
       </c>
     </row>
@@ -18044,7 +18060,7 @@
       <c r="A748" t="s">
         <v>615</v>
       </c>
-      <c r="B748" s="1">
+      <c r="B748" s="3">
         <v>26.225000000000001</v>
       </c>
     </row>
@@ -18052,7 +18068,7 @@
       <c r="A749" t="s">
         <v>816</v>
       </c>
-      <c r="B749" s="1">
+      <c r="B749" s="3">
         <v>26.216000000000001</v>
       </c>
     </row>
@@ -18060,7 +18076,7 @@
       <c r="A750" t="s">
         <v>827</v>
       </c>
-      <c r="B750" s="1">
+      <c r="B750" s="3">
         <v>26.138000000000002</v>
       </c>
     </row>
@@ -18068,7 +18084,7 @@
       <c r="A751" t="s">
         <v>770</v>
       </c>
-      <c r="B751" s="1">
+      <c r="B751" s="3">
         <v>26.111999999999998</v>
       </c>
     </row>
@@ -18076,7 +18092,7 @@
       <c r="A752" t="s">
         <v>88</v>
       </c>
-      <c r="B752" s="1">
+      <c r="B752" s="3">
         <v>26.085000000000001</v>
       </c>
     </row>
@@ -18084,7 +18100,7 @@
       <c r="A753" t="s">
         <v>94</v>
       </c>
-      <c r="B753" s="1">
+      <c r="B753" s="3">
         <v>26.061</v>
       </c>
     </row>
@@ -18092,7 +18108,7 @@
       <c r="A754" t="s">
         <v>767</v>
       </c>
-      <c r="B754" s="1">
+      <c r="B754" s="3">
         <v>25.96</v>
       </c>
     </row>
@@ -18100,7 +18116,7 @@
       <c r="A755" t="s">
         <v>680</v>
       </c>
-      <c r="B755" s="1">
+      <c r="B755" s="3">
         <v>25.914000000000001</v>
       </c>
     </row>
@@ -18108,7 +18124,7 @@
       <c r="A756" t="s">
         <v>350</v>
       </c>
-      <c r="B756" s="1">
+      <c r="B756" s="3">
         <v>25.885999999999999</v>
       </c>
     </row>
@@ -18116,7 +18132,7 @@
       <c r="A757" t="s">
         <v>14</v>
       </c>
-      <c r="B757" s="1">
+      <c r="B757" s="3">
         <v>25.858000000000001</v>
       </c>
     </row>
@@ -18124,7 +18140,7 @@
       <c r="A758" t="s">
         <v>682</v>
       </c>
-      <c r="B758" s="1">
+      <c r="B758" s="3">
         <v>25.853999999999999</v>
       </c>
     </row>
@@ -18132,7 +18148,7 @@
       <c r="A759" t="s">
         <v>189</v>
       </c>
-      <c r="B759" s="1">
+      <c r="B759" s="3">
         <v>25.850999999999999</v>
       </c>
     </row>
@@ -18140,7 +18156,7 @@
       <c r="A760" t="s">
         <v>202</v>
       </c>
-      <c r="B760" s="1">
+      <c r="B760" s="3">
         <v>25.841000000000001</v>
       </c>
     </row>
@@ -18148,7 +18164,7 @@
       <c r="A761" t="s">
         <v>194</v>
       </c>
-      <c r="B761" s="1">
+      <c r="B761" s="3">
         <v>25.824000000000002</v>
       </c>
     </row>
@@ -18156,7 +18172,7 @@
       <c r="A762" t="s">
         <v>738</v>
       </c>
-      <c r="B762" s="1">
+      <c r="B762" s="3">
         <v>25.786999999999999</v>
       </c>
     </row>
@@ -18164,7 +18180,7 @@
       <c r="A763" t="s">
         <v>15</v>
       </c>
-      <c r="B763" s="1">
+      <c r="B763" s="3">
         <v>25.760999999999999</v>
       </c>
     </row>
@@ -18172,7 +18188,7 @@
       <c r="A764" t="s">
         <v>883</v>
       </c>
-      <c r="B764" s="1">
+      <c r="B764" s="3">
         <v>25.686</v>
       </c>
     </row>
@@ -18180,7 +18196,7 @@
       <c r="A765" t="s">
         <v>220</v>
       </c>
-      <c r="B765" s="1">
+      <c r="B765" s="3">
         <v>25.658999999999999</v>
       </c>
     </row>
@@ -18188,7 +18204,7 @@
       <c r="A766" t="s">
         <v>761</v>
       </c>
-      <c r="B766" s="1">
+      <c r="B766" s="3">
         <v>25.631</v>
       </c>
     </row>
@@ -18196,7 +18212,7 @@
       <c r="A767" t="s">
         <v>215</v>
       </c>
-      <c r="B767" s="1">
+      <c r="B767" s="3">
         <v>25.495999999999999</v>
       </c>
     </row>
@@ -18204,7 +18220,7 @@
       <c r="A768" t="s">
         <v>147</v>
       </c>
-      <c r="B768" s="1">
+      <c r="B768" s="3">
         <v>25.46</v>
       </c>
     </row>
@@ -18212,7 +18228,7 @@
       <c r="A769" t="s">
         <v>797</v>
       </c>
-      <c r="B769" s="1">
+      <c r="B769" s="3">
         <v>25.396000000000001</v>
       </c>
     </row>
@@ -18220,7 +18236,7 @@
       <c r="A770" t="s">
         <v>751</v>
       </c>
-      <c r="B770" s="1">
+      <c r="B770" s="3">
         <v>25.395</v>
       </c>
     </row>
@@ -18228,7 +18244,7 @@
       <c r="A771" t="s">
         <v>759</v>
       </c>
-      <c r="B771" s="1">
+      <c r="B771" s="3">
         <v>25.363</v>
       </c>
     </row>
@@ -18236,7 +18252,7 @@
       <c r="A772" t="s">
         <v>676</v>
       </c>
-      <c r="B772" s="1">
+      <c r="B772" s="3">
         <v>25.335000000000001</v>
       </c>
     </row>
@@ -18244,7 +18260,7 @@
       <c r="A773" t="s">
         <v>817</v>
       </c>
-      <c r="B773" s="1">
+      <c r="B773" s="3">
         <v>25.303999999999998</v>
       </c>
     </row>
@@ -18252,7 +18268,7 @@
       <c r="A774" t="s">
         <v>799</v>
       </c>
-      <c r="B774" s="1">
+      <c r="B774" s="3">
         <v>25.251000000000001</v>
       </c>
     </row>
@@ -18260,7 +18276,7 @@
       <c r="A775" t="s">
         <v>833</v>
       </c>
-      <c r="B775" s="1">
+      <c r="B775" s="3">
         <v>25.22</v>
       </c>
     </row>
@@ -18268,7 +18284,7 @@
       <c r="A776" t="s">
         <v>944</v>
       </c>
-      <c r="B776" s="1">
+      <c r="B776" s="3">
         <v>25.187000000000001</v>
       </c>
     </row>
@@ -18276,7 +18292,7 @@
       <c r="A777" t="s">
         <v>691</v>
       </c>
-      <c r="B777" s="1">
+      <c r="B777" s="3">
         <v>25.155999999999999</v>
       </c>
     </row>
@@ -18284,7 +18300,7 @@
       <c r="A778" t="s">
         <v>230</v>
       </c>
-      <c r="B778" s="1">
+      <c r="B778" s="3">
         <v>25.07</v>
       </c>
     </row>
@@ -18292,7 +18308,7 @@
       <c r="A779" t="s">
         <v>158</v>
       </c>
-      <c r="B779" s="1">
+      <c r="B779" s="3">
         <v>24.978000000000002</v>
       </c>
     </row>
@@ -18300,7 +18316,7 @@
       <c r="A780" t="s">
         <v>775</v>
       </c>
-      <c r="B780" s="1">
+      <c r="B780" s="3">
         <v>24.946000000000002</v>
       </c>
     </row>
@@ -18308,7 +18324,7 @@
       <c r="A781" t="s">
         <v>157</v>
       </c>
-      <c r="B781" s="1">
+      <c r="B781" s="3">
         <v>24.908000000000001</v>
       </c>
     </row>
@@ -18316,7 +18332,7 @@
       <c r="A782" t="s">
         <v>574</v>
       </c>
-      <c r="B782" s="1">
+      <c r="B782" s="3">
         <v>24.893999999999998</v>
       </c>
     </row>
@@ -18324,7 +18340,7 @@
       <c r="A783" t="s">
         <v>197</v>
       </c>
-      <c r="B783" s="1">
+      <c r="B783" s="3">
         <v>24.882999999999999</v>
       </c>
     </row>
@@ -18332,7 +18348,7 @@
       <c r="A784" t="s">
         <v>803</v>
       </c>
-      <c r="B784" s="1">
+      <c r="B784" s="3">
         <v>24.872</v>
       </c>
     </row>
@@ -18340,7 +18356,7 @@
       <c r="A785" t="s">
         <v>806</v>
       </c>
-      <c r="B785" s="1">
+      <c r="B785" s="3">
         <v>24.855</v>
       </c>
     </row>
@@ -18348,7 +18364,7 @@
       <c r="A786" t="s">
         <v>634</v>
       </c>
-      <c r="B786" s="1">
+      <c r="B786" s="3">
         <v>24.85</v>
       </c>
     </row>
@@ -18356,7 +18372,7 @@
       <c r="A787" t="s">
         <v>771</v>
       </c>
-      <c r="B787" s="1">
+      <c r="B787" s="3">
         <v>24.823</v>
       </c>
     </row>
@@ -18364,7 +18380,7 @@
       <c r="A788" t="s">
         <v>201</v>
       </c>
-      <c r="B788" s="1">
+      <c r="B788" s="3">
         <v>24.818000000000001</v>
       </c>
     </row>
@@ -18372,7 +18388,7 @@
       <c r="A789" t="s">
         <v>790</v>
       </c>
-      <c r="B789" s="1">
+      <c r="B789" s="3">
         <v>24.698</v>
       </c>
     </row>
@@ -18380,7 +18396,7 @@
       <c r="A790" t="s">
         <v>746</v>
       </c>
-      <c r="B790" s="1">
+      <c r="B790" s="3">
         <v>24.657</v>
       </c>
     </row>
@@ -18388,7 +18404,7 @@
       <c r="A791" t="s">
         <v>346</v>
       </c>
-      <c r="B791" s="1">
+      <c r="B791" s="3">
         <v>24.654</v>
       </c>
     </row>
@@ -18396,7 +18412,7 @@
       <c r="A792" t="s">
         <v>772</v>
       </c>
-      <c r="B792" s="1">
+      <c r="B792" s="3">
         <v>24.593</v>
       </c>
     </row>
@@ -18404,7 +18420,7 @@
       <c r="A793" t="s">
         <v>281</v>
       </c>
-      <c r="B793" s="1">
+      <c r="B793" s="3">
         <v>24.59</v>
       </c>
     </row>
@@ -18412,7 +18428,7 @@
       <c r="A794" t="s">
         <v>172</v>
       </c>
-      <c r="B794" s="1">
+      <c r="B794" s="3">
         <v>24.577999999999999</v>
       </c>
     </row>
@@ -18420,7 +18436,7 @@
       <c r="A795" t="s">
         <v>678</v>
       </c>
-      <c r="B795" s="1">
+      <c r="B795" s="3">
         <v>24.512</v>
       </c>
     </row>
@@ -18428,7 +18444,7 @@
       <c r="A796" t="s">
         <v>173</v>
       </c>
-      <c r="B796" s="1">
+      <c r="B796" s="3">
         <v>24.440999999999999</v>
       </c>
     </row>
@@ -18436,7 +18452,7 @@
       <c r="A797" t="s">
         <v>1</v>
       </c>
-      <c r="B797" s="1">
+      <c r="B797" s="3">
         <v>24.402000000000001</v>
       </c>
     </row>
@@ -18444,7 +18460,7 @@
       <c r="A798" t="s">
         <v>44</v>
       </c>
-      <c r="B798" s="1">
+      <c r="B798" s="3">
         <v>24.302</v>
       </c>
     </row>
@@ -18452,7 +18468,7 @@
       <c r="A799" t="s">
         <v>8</v>
       </c>
-      <c r="B799" s="1">
+      <c r="B799" s="3">
         <v>24.292000000000002</v>
       </c>
     </row>
@@ -18460,7 +18476,7 @@
       <c r="A800" t="s">
         <v>785</v>
       </c>
-      <c r="B800" s="1">
+      <c r="B800" s="3">
         <v>24.260999999999999</v>
       </c>
     </row>
@@ -18468,7 +18484,7 @@
       <c r="A801" t="s">
         <v>196</v>
       </c>
-      <c r="B801" s="1">
+      <c r="B801" s="3">
         <v>24.251000000000001</v>
       </c>
     </row>
@@ -18476,7 +18492,7 @@
       <c r="A802" t="s">
         <v>4</v>
       </c>
-      <c r="B802" s="1">
+      <c r="B802" s="3">
         <v>24.25</v>
       </c>
     </row>
@@ -18484,7 +18500,7 @@
       <c r="A803" t="s">
         <v>152</v>
       </c>
-      <c r="B803" s="1">
+      <c r="B803" s="3">
         <v>24.081</v>
       </c>
     </row>
@@ -18492,7 +18508,7 @@
       <c r="A804" t="s">
         <v>692</v>
       </c>
-      <c r="B804" s="1">
+      <c r="B804" s="3">
         <v>23.992000000000001</v>
       </c>
     </row>
@@ -18500,7 +18516,7 @@
       <c r="A805" t="s">
         <v>835</v>
       </c>
-      <c r="B805" s="1">
+      <c r="B805" s="3">
         <v>23.905999999999999</v>
       </c>
     </row>
@@ -18508,7 +18524,7 @@
       <c r="A806" t="s">
         <v>791</v>
       </c>
-      <c r="B806" s="1">
+      <c r="B806" s="3">
         <v>23.901</v>
       </c>
     </row>
@@ -18516,7 +18532,7 @@
       <c r="A807" t="s">
         <v>870</v>
       </c>
-      <c r="B807" s="1">
+      <c r="B807" s="3">
         <v>23.867999999999999</v>
       </c>
     </row>
@@ -18524,7 +18540,7 @@
       <c r="A808" t="s">
         <v>695</v>
       </c>
-      <c r="B808" s="1">
+      <c r="B808" s="3">
         <v>23.827999999999999</v>
       </c>
     </row>
@@ -18532,7 +18548,7 @@
       <c r="A809" t="s">
         <v>823</v>
       </c>
-      <c r="B809" s="1">
+      <c r="B809" s="3">
         <v>23.789000000000001</v>
       </c>
     </row>
@@ -18540,7 +18556,7 @@
       <c r="A810" t="s">
         <v>171</v>
       </c>
-      <c r="B810" s="1">
+      <c r="B810" s="3">
         <v>23.722000000000001</v>
       </c>
     </row>
@@ -18548,7 +18564,7 @@
       <c r="A811" t="s">
         <v>182</v>
       </c>
-      <c r="B811" s="1">
+      <c r="B811" s="3">
         <v>23.7</v>
       </c>
     </row>
@@ -18556,7 +18572,7 @@
       <c r="A812" t="s">
         <v>931</v>
       </c>
-      <c r="B812" s="1">
+      <c r="B812" s="3">
         <v>23.648</v>
       </c>
     </row>
@@ -18564,7 +18580,7 @@
       <c r="A813" t="s">
         <v>753</v>
       </c>
-      <c r="B813" s="1">
+      <c r="B813" s="3">
         <v>23.641999999999999</v>
       </c>
     </row>
@@ -18572,7 +18588,7 @@
       <c r="A814" t="s">
         <v>193</v>
       </c>
-      <c r="B814" s="1">
+      <c r="B814" s="3">
         <v>23.620999999999999</v>
       </c>
     </row>
@@ -18580,7 +18596,7 @@
       <c r="A815" t="s">
         <v>641</v>
       </c>
-      <c r="B815" s="1">
+      <c r="B815" s="3">
         <v>23.617000000000001</v>
       </c>
     </row>
@@ -18588,7 +18604,7 @@
       <c r="A816" t="s">
         <v>700</v>
       </c>
-      <c r="B816" s="1">
+      <c r="B816" s="3">
         <v>23.539000000000001</v>
       </c>
     </row>
@@ -18596,7 +18612,7 @@
       <c r="A817" t="s">
         <v>783</v>
       </c>
-      <c r="B817" s="1">
+      <c r="B817" s="3">
         <v>23.536999999999999</v>
       </c>
     </row>
@@ -18604,7 +18620,7 @@
       <c r="A818" t="s">
         <v>199</v>
       </c>
-      <c r="B818" s="1">
+      <c r="B818" s="3">
         <v>23.48</v>
       </c>
     </row>
@@ -18612,7 +18628,7 @@
       <c r="A819" t="s">
         <v>137</v>
       </c>
-      <c r="B819" s="1">
+      <c r="B819" s="3">
         <v>23.416</v>
       </c>
     </row>
@@ -18620,7 +18636,7 @@
       <c r="A820" t="s">
         <v>813</v>
       </c>
-      <c r="B820" s="1">
+      <c r="B820" s="3">
         <v>23.341000000000001</v>
       </c>
     </row>
@@ -18628,7 +18644,7 @@
       <c r="A821" t="s">
         <v>789</v>
       </c>
-      <c r="B821" s="1">
+      <c r="B821" s="3">
         <v>23.324000000000002</v>
       </c>
     </row>
@@ -18636,7 +18652,7 @@
       <c r="A822" t="s">
         <v>811</v>
       </c>
-      <c r="B822" s="1">
+      <c r="B822" s="3">
         <v>23.315999999999999</v>
       </c>
     </row>
@@ -18644,7 +18660,7 @@
       <c r="A823" t="s">
         <v>741</v>
       </c>
-      <c r="B823" s="1">
+      <c r="B823" s="3">
         <v>23.286999999999999</v>
       </c>
     </row>
@@ -18652,7 +18668,7 @@
       <c r="A824" t="s">
         <v>164</v>
       </c>
-      <c r="B824" s="1">
+      <c r="B824" s="3">
         <v>23.169</v>
       </c>
     </row>
@@ -18660,7 +18676,7 @@
       <c r="A825" t="s">
         <v>737</v>
       </c>
-      <c r="B825" s="1">
+      <c r="B825" s="3">
         <v>23.091999999999999</v>
       </c>
     </row>
@@ -18668,7 +18684,7 @@
       <c r="A826" t="s">
         <v>170</v>
       </c>
-      <c r="B826" s="1">
+      <c r="B826" s="3">
         <v>23.064</v>
       </c>
     </row>
@@ -18676,7 +18692,7 @@
       <c r="A827" t="s">
         <v>82</v>
       </c>
-      <c r="B827" s="1">
+      <c r="B827" s="3">
         <v>23.059000000000001</v>
       </c>
     </row>
@@ -18684,7 +18700,7 @@
       <c r="A828" t="s">
         <v>837</v>
       </c>
-      <c r="B828" s="1">
+      <c r="B828" s="3">
         <v>23.030999999999999</v>
       </c>
     </row>
@@ -18692,7 +18708,7 @@
       <c r="A829" t="s">
         <v>739</v>
       </c>
-      <c r="B829" s="1">
+      <c r="B829" s="3">
         <v>22.981999999999999</v>
       </c>
     </row>
@@ -18700,7 +18716,7 @@
       <c r="A830" t="s">
         <v>156</v>
       </c>
-      <c r="B830" s="1">
+      <c r="B830" s="3">
         <v>22.899000000000001</v>
       </c>
     </row>
@@ -18708,7 +18724,7 @@
       <c r="A831" t="s">
         <v>155</v>
       </c>
-      <c r="B831" s="1">
+      <c r="B831" s="3">
         <v>22.861999999999998</v>
       </c>
     </row>
@@ -18716,7 +18732,7 @@
       <c r="A832" t="s">
         <v>808</v>
       </c>
-      <c r="B832" s="1">
+      <c r="B832" s="3">
         <v>22.853000000000002</v>
       </c>
     </row>
@@ -18724,7 +18740,7 @@
       <c r="A833" t="s">
         <v>784</v>
       </c>
-      <c r="B833" s="1">
+      <c r="B833" s="3">
         <v>22.834</v>
       </c>
     </row>
@@ -18732,7 +18748,7 @@
       <c r="A834" t="s">
         <v>163</v>
       </c>
-      <c r="B834" s="1">
+      <c r="B834" s="3">
         <v>22.814</v>
       </c>
     </row>
@@ -18740,7 +18756,7 @@
       <c r="A835" t="s">
         <v>579</v>
       </c>
-      <c r="B835" s="1">
+      <c r="B835" s="3">
         <v>22.797999999999998</v>
       </c>
     </row>
@@ -18748,7 +18764,7 @@
       <c r="A836" t="s">
         <v>946</v>
       </c>
-      <c r="B836" s="1">
+      <c r="B836" s="3">
         <v>22.777999999999999</v>
       </c>
     </row>
@@ -18756,7 +18772,7 @@
       <c r="A837" t="s">
         <v>183</v>
       </c>
-      <c r="B837" s="1">
+      <c r="B837" s="3">
         <v>22.736999999999998</v>
       </c>
     </row>
@@ -18764,7 +18780,7 @@
       <c r="A838" t="s">
         <v>116</v>
       </c>
-      <c r="B838" s="1">
+      <c r="B838" s="3">
         <v>22.721</v>
       </c>
     </row>
@@ -18772,7 +18788,7 @@
       <c r="A839" t="s">
         <v>748</v>
       </c>
-      <c r="B839" s="1">
+      <c r="B839" s="3">
         <v>22.710999999999999</v>
       </c>
     </row>
@@ -18780,7 +18796,7 @@
       <c r="A840" t="s">
         <v>819</v>
       </c>
-      <c r="B840" s="1">
+      <c r="B840" s="3">
         <v>22.608000000000001</v>
       </c>
     </row>
@@ -18788,7 +18804,7 @@
       <c r="A841" t="s">
         <v>583</v>
       </c>
-      <c r="B841" s="1">
+      <c r="B841" s="3">
         <v>22.398</v>
       </c>
     </row>
@@ -18796,7 +18812,7 @@
       <c r="A842" t="s">
         <v>757</v>
       </c>
-      <c r="B842" s="1">
+      <c r="B842" s="3">
         <v>22.343</v>
       </c>
     </row>
@@ -18804,7 +18820,7 @@
       <c r="A843" t="s">
         <v>792</v>
       </c>
-      <c r="B843" s="1">
+      <c r="B843" s="3">
         <v>22.303999999999998</v>
       </c>
     </row>
@@ -18812,7 +18828,7 @@
       <c r="A844" t="s">
         <v>7</v>
       </c>
-      <c r="B844" s="1">
+      <c r="B844" s="3">
         <v>22.282</v>
       </c>
     </row>
@@ -18820,7 +18836,7 @@
       <c r="A845" t="s">
         <v>839</v>
       </c>
-      <c r="B845" s="1">
+      <c r="B845" s="3">
         <v>22.242999999999999</v>
       </c>
     </row>
@@ -18828,7 +18844,7 @@
       <c r="A846" t="s">
         <v>667</v>
       </c>
-      <c r="B846" s="1">
+      <c r="B846" s="3">
         <v>22.184000000000001</v>
       </c>
     </row>
@@ -18836,7 +18852,7 @@
       <c r="A847" t="s">
         <v>169</v>
       </c>
-      <c r="B847" s="1">
+      <c r="B847" s="3">
         <v>22.151</v>
       </c>
     </row>
@@ -18844,7 +18860,7 @@
       <c r="A848" t="s">
         <v>181</v>
       </c>
-      <c r="B848" s="1">
+      <c r="B848" s="3">
         <v>22.067</v>
       </c>
     </row>
@@ -18852,7 +18868,7 @@
       <c r="A849" t="s">
         <v>166</v>
       </c>
-      <c r="B849" s="1">
+      <c r="B849" s="3">
         <v>22.061</v>
       </c>
     </row>
@@ -18860,7 +18876,7 @@
       <c r="A850" t="s">
         <v>150</v>
       </c>
-      <c r="B850" s="1">
+      <c r="B850" s="3">
         <v>22.058</v>
       </c>
     </row>
@@ -18868,7 +18884,7 @@
       <c r="A851" t="s">
         <v>10</v>
       </c>
-      <c r="B851" s="1">
+      <c r="B851" s="3">
         <v>21.94</v>
       </c>
     </row>
@@ -18876,7 +18892,7 @@
       <c r="A852" t="s">
         <v>284</v>
       </c>
-      <c r="B852" s="1">
+      <c r="B852" s="3">
         <v>21.925000000000001</v>
       </c>
     </row>
@@ -18884,7 +18900,7 @@
       <c r="A853" t="s">
         <v>349</v>
       </c>
-      <c r="B853" s="1">
+      <c r="B853" s="3">
         <v>21.916</v>
       </c>
     </row>
@@ -18892,7 +18908,7 @@
       <c r="A854" t="s">
         <v>809</v>
       </c>
-      <c r="B854" s="1">
+      <c r="B854" s="3">
         <v>21.838000000000001</v>
       </c>
     </row>
@@ -18900,7 +18916,7 @@
       <c r="A855" t="s">
         <v>686</v>
       </c>
-      <c r="B855" s="1">
+      <c r="B855" s="3">
         <v>21.791</v>
       </c>
     </row>
@@ -18908,7 +18924,7 @@
       <c r="A856" t="s">
         <v>9</v>
       </c>
-      <c r="B856" s="1">
+      <c r="B856" s="3">
         <v>21.783999999999999</v>
       </c>
     </row>
@@ -18916,7 +18932,7 @@
       <c r="A857" t="s">
         <v>758</v>
       </c>
-      <c r="B857" s="1">
+      <c r="B857" s="3">
         <v>21.78</v>
       </c>
     </row>
@@ -18924,7 +18940,7 @@
       <c r="A858" t="s">
         <v>162</v>
       </c>
-      <c r="B858" s="1">
+      <c r="B858" s="3">
         <v>21.771999999999998</v>
       </c>
     </row>
@@ -18932,7 +18948,7 @@
       <c r="A859" t="s">
         <v>564</v>
       </c>
-      <c r="B859" s="1">
+      <c r="B859" s="3">
         <v>21.507999999999999</v>
       </c>
     </row>
@@ -18940,7 +18956,7 @@
       <c r="A860" t="s">
         <v>815</v>
       </c>
-      <c r="B860" s="1">
+      <c r="B860" s="3">
         <v>21.442</v>
       </c>
     </row>
@@ -18948,7 +18964,7 @@
       <c r="A861" t="s">
         <v>5</v>
       </c>
-      <c r="B861" s="1">
+      <c r="B861" s="3">
         <v>21.43</v>
       </c>
     </row>
@@ -18956,7 +18972,7 @@
       <c r="A862" t="s">
         <v>581</v>
       </c>
-      <c r="B862" s="1">
+      <c r="B862" s="3">
         <v>21.391999999999999</v>
       </c>
     </row>
@@ -18964,7 +18980,7 @@
       <c r="A863" t="s">
         <v>698</v>
       </c>
-      <c r="B863" s="1">
+      <c r="B863" s="3">
         <v>21.373000000000001</v>
       </c>
     </row>
@@ -18972,7 +18988,7 @@
       <c r="A864" t="s">
         <v>832</v>
       </c>
-      <c r="B864" s="1">
+      <c r="B864" s="3">
         <v>21.356000000000002</v>
       </c>
     </row>
@@ -18980,7 +18996,7 @@
       <c r="A865" t="s">
         <v>693</v>
       </c>
-      <c r="B865" s="1">
+      <c r="B865" s="3">
         <v>21.137</v>
       </c>
     </row>
@@ -18988,7 +19004,7 @@
       <c r="A866" t="s">
         <v>207</v>
       </c>
-      <c r="B866" s="1">
+      <c r="B866" s="3">
         <v>21.06</v>
       </c>
     </row>
@@ -18996,7 +19012,7 @@
       <c r="A867" t="s">
         <v>209</v>
       </c>
-      <c r="B867" s="1">
+      <c r="B867" s="3">
         <v>21.004000000000001</v>
       </c>
     </row>
@@ -19004,7 +19020,7 @@
       <c r="A868" t="s">
         <v>188</v>
       </c>
-      <c r="B868" s="1">
+      <c r="B868" s="3">
         <v>20.928999999999998</v>
       </c>
     </row>
@@ -19012,7 +19028,7 @@
       <c r="A869" t="s">
         <v>165</v>
       </c>
-      <c r="B869" s="1">
+      <c r="B869" s="3">
         <v>20.870999999999999</v>
       </c>
     </row>
@@ -19020,7 +19036,7 @@
       <c r="A870" t="s">
         <v>192</v>
       </c>
-      <c r="B870" s="1">
+      <c r="B870" s="3">
         <v>20.699000000000002</v>
       </c>
     </row>
@@ -19028,7 +19044,7 @@
       <c r="A871" t="s">
         <v>93</v>
       </c>
-      <c r="B871" s="1">
+      <c r="B871" s="3">
         <v>20.442</v>
       </c>
     </row>
@@ -19036,7 +19052,7 @@
       <c r="A872" t="s">
         <v>749</v>
       </c>
-      <c r="B872" s="1">
+      <c r="B872" s="3">
         <v>20.332000000000001</v>
       </c>
     </row>
@@ -19044,7 +19060,7 @@
       <c r="A873" t="s">
         <v>204</v>
       </c>
-      <c r="B873" s="1">
+      <c r="B873" s="3">
         <v>19.850999999999999</v>
       </c>
     </row>
@@ -19052,7 +19068,7 @@
       <c r="A874" t="s">
         <v>176</v>
       </c>
-      <c r="B874" s="1">
+      <c r="B874" s="3">
         <v>19.638999999999999</v>
       </c>
     </row>
@@ -19060,7 +19076,7 @@
       <c r="A875" t="s">
         <v>288</v>
       </c>
-      <c r="B875" s="1">
+      <c r="B875" s="3">
         <v>19.492999999999999</v>
       </c>
     </row>
@@ -19068,7 +19084,7 @@
       <c r="A876" t="s">
         <v>702</v>
       </c>
-      <c r="B876" s="1">
+      <c r="B876" s="3">
         <v>19.486000000000001</v>
       </c>
     </row>
@@ -19076,7 +19092,7 @@
       <c r="A877" t="s">
         <v>179</v>
       </c>
-      <c r="B877" s="1">
+      <c r="B877" s="3">
         <v>19.395</v>
       </c>
     </row>
@@ -19084,7 +19100,7 @@
       <c r="A878" t="s">
         <v>617</v>
       </c>
-      <c r="B878" s="1">
+      <c r="B878" s="3">
         <v>19.314</v>
       </c>
     </row>
@@ -19092,7 +19108,7 @@
       <c r="A879" t="s">
         <v>47</v>
       </c>
-      <c r="B879" s="1">
+      <c r="B879" s="3">
         <v>19.291</v>
       </c>
     </row>
@@ -19100,7 +19116,7 @@
       <c r="A880" t="s">
         <v>59</v>
       </c>
-      <c r="B880" s="1">
+      <c r="B880" s="3">
         <v>19.111000000000001</v>
       </c>
     </row>
@@ -19108,7 +19124,7 @@
       <c r="A881" t="s">
         <v>3</v>
       </c>
-      <c r="B881" s="1">
+      <c r="B881" s="3">
         <v>19.084</v>
       </c>
     </row>
@@ -19116,7 +19132,7 @@
       <c r="A882" t="s">
         <v>800</v>
       </c>
-      <c r="B882" s="1">
+      <c r="B882" s="3">
         <v>18.943000000000001</v>
       </c>
     </row>
@@ -19124,7 +19140,7 @@
       <c r="A883" t="s">
         <v>637</v>
       </c>
-      <c r="B883" s="1">
+      <c r="B883" s="3">
         <v>18.849</v>
       </c>
     </row>
@@ -19132,7 +19148,7 @@
       <c r="A884" t="s">
         <v>645</v>
       </c>
-      <c r="B884" s="1">
+      <c r="B884" s="3">
         <v>18.774000000000001</v>
       </c>
     </row>
@@ -19140,7 +19156,7 @@
       <c r="A885" t="s">
         <v>633</v>
       </c>
-      <c r="B885" s="1">
+      <c r="B885" s="3">
         <v>18.765999999999998</v>
       </c>
     </row>
@@ -19148,7 +19164,7 @@
       <c r="A886" t="s">
         <v>548</v>
       </c>
-      <c r="B886" s="1">
+      <c r="B886" s="3">
         <v>18.658999999999999</v>
       </c>
     </row>
@@ -19156,7 +19172,7 @@
       <c r="A887" t="s">
         <v>219</v>
       </c>
-      <c r="B887" s="1">
+      <c r="B887" s="3">
         <v>18.619</v>
       </c>
     </row>
@@ -19164,7 +19180,7 @@
       <c r="A888" t="s">
         <v>62</v>
       </c>
-      <c r="B888" s="1">
+      <c r="B888" s="3">
         <v>18.562000000000001</v>
       </c>
     </row>
@@ -19172,7 +19188,7 @@
       <c r="A889" t="s">
         <v>2</v>
       </c>
-      <c r="B889" s="1">
+      <c r="B889" s="3">
         <v>18.149000000000001</v>
       </c>
     </row>
@@ -19180,7 +19196,7 @@
       <c r="A890" t="s">
         <v>690</v>
       </c>
-      <c r="B890" s="1">
+      <c r="B890" s="3">
         <v>17.673999999999999</v>
       </c>
     </row>
@@ -19188,7 +19204,7 @@
       <c r="A891" t="s">
         <v>878</v>
       </c>
-      <c r="B891" s="1">
+      <c r="B891" s="3">
         <v>16.667000000000002</v>
       </c>
     </row>
@@ -19196,7 +19212,7 @@
       <c r="A892" t="s">
         <v>300</v>
       </c>
-      <c r="B892" s="1">
+      <c r="B892" s="3">
         <v>16.553000000000001</v>
       </c>
     </row>
@@ -19204,7 +19220,7 @@
       <c r="A893" t="s">
         <v>582</v>
       </c>
-      <c r="B893" s="1">
+      <c r="B893" s="3">
         <v>16.428999999999998</v>
       </c>
     </row>
@@ -19212,7 +19228,7 @@
       <c r="A894" t="s">
         <v>971</v>
       </c>
-      <c r="B894" s="1">
+      <c r="B894" s="3">
         <v>15.807</v>
       </c>
     </row>
@@ -19220,7 +19236,7 @@
       <c r="A895" t="s">
         <v>928</v>
       </c>
-      <c r="B895" s="1">
+      <c r="B895" s="3">
         <v>15.752000000000001</v>
       </c>
     </row>
@@ -19228,7 +19244,7 @@
       <c r="A896" t="s">
         <v>191</v>
       </c>
-      <c r="B896" s="1">
+      <c r="B896" s="3">
         <v>15.234</v>
       </c>
     </row>
@@ -19236,7 +19252,7 @@
       <c r="A897" t="s">
         <v>161</v>
       </c>
-      <c r="B897" s="1">
+      <c r="B897" s="3">
         <v>14.743</v>
       </c>
     </row>
@@ -19244,7 +19260,7 @@
       <c r="A898" t="s">
         <v>292</v>
       </c>
-      <c r="B898" s="1">
+      <c r="B898" s="3">
         <v>14.694000000000001</v>
       </c>
     </row>
@@ -19252,7 +19268,7 @@
       <c r="A899" t="s">
         <v>151</v>
       </c>
-      <c r="B899" s="1">
+      <c r="B899" s="3">
         <v>14.683</v>
       </c>
     </row>
@@ -19260,7 +19276,7 @@
       <c r="A900" t="s">
         <v>283</v>
       </c>
-      <c r="B900" s="1">
+      <c r="B900" s="3">
         <v>14.26</v>
       </c>
     </row>
@@ -19268,7 +19284,7 @@
       <c r="A901" t="s">
         <v>290</v>
       </c>
-      <c r="B901" s="1">
+      <c r="B901" s="3">
         <v>13.9</v>
       </c>
     </row>
@@ -19276,7 +19292,7 @@
       <c r="A902" t="s">
         <v>61</v>
       </c>
-      <c r="B902" s="1">
+      <c r="B902" s="3">
         <v>13.638999999999999</v>
       </c>
     </row>
@@ -19284,7 +19300,7 @@
       <c r="A903" t="s">
         <v>177</v>
       </c>
-      <c r="B903" s="1">
+      <c r="B903" s="3">
         <v>13.541</v>
       </c>
     </row>
@@ -19292,7 +19308,7 @@
       <c r="A904" t="s">
         <v>596</v>
       </c>
-      <c r="B904" s="1">
+      <c r="B904" s="3">
         <v>13.481</v>
       </c>
     </row>
@@ -19300,7 +19316,7 @@
       <c r="A905" t="s">
         <v>16</v>
       </c>
-      <c r="B905" s="1">
+      <c r="B905" s="3">
         <v>13.401</v>
       </c>
     </row>
@@ -19308,7 +19324,7 @@
       <c r="A906" t="s">
         <v>620</v>
       </c>
-      <c r="B906" s="1">
+      <c r="B906" s="3">
         <v>13.324999999999999</v>
       </c>
     </row>
@@ -19316,7 +19332,7 @@
       <c r="A907" t="s">
         <v>293</v>
       </c>
-      <c r="B907" s="1">
+      <c r="B907" s="3">
         <v>13.288</v>
       </c>
     </row>
@@ -19324,7 +19340,7 @@
       <c r="A908" t="s">
         <v>299</v>
       </c>
-      <c r="B908" s="1">
+      <c r="B908" s="3">
         <v>13.177</v>
       </c>
     </row>
@@ -19332,7 +19348,7 @@
       <c r="A909" t="s">
         <v>296</v>
       </c>
-      <c r="B909" s="1">
+      <c r="B909" s="3">
         <v>13.162000000000001</v>
       </c>
     </row>
@@ -19340,7 +19356,7 @@
       <c r="A910" t="s">
         <v>68</v>
       </c>
-      <c r="B910" s="1">
+      <c r="B910" s="3">
         <v>13.038</v>
       </c>
     </row>
@@ -19348,7 +19364,7 @@
       <c r="A911" t="s">
         <v>285</v>
       </c>
-      <c r="B911" s="1">
+      <c r="B911" s="3">
         <v>12.824</v>
       </c>
     </row>
@@ -19356,7 +19372,7 @@
       <c r="A912" t="s">
         <v>291</v>
       </c>
-      <c r="B912" s="1">
+      <c r="B912" s="3">
         <v>12.42</v>
       </c>
     </row>
@@ -19364,7 +19380,7 @@
       <c r="A913" t="s">
         <v>154</v>
       </c>
-      <c r="B913" s="1">
+      <c r="B913" s="3">
         <v>12.085000000000001</v>
       </c>
     </row>
@@ -19372,7 +19388,7 @@
       <c r="A914" t="s">
         <v>949</v>
       </c>
-      <c r="B914" s="1">
+      <c r="B914" s="3">
         <v>12.041</v>
       </c>
     </row>
@@ -19380,7 +19396,7 @@
       <c r="A915" t="s">
         <v>58</v>
       </c>
-      <c r="B915" s="1">
+      <c r="B915" s="3">
         <v>11.24</v>
       </c>
     </row>
@@ -19388,7 +19404,7 @@
       <c r="A916" t="s">
         <v>195</v>
       </c>
-      <c r="B916" s="1">
+      <c r="B916" s="3">
         <v>11.119</v>
       </c>
     </row>
@@ -19396,7 +19412,7 @@
       <c r="A917" t="s">
         <v>597</v>
       </c>
-      <c r="B917" s="1">
+      <c r="B917" s="3">
         <v>10.827999999999999</v>
       </c>
     </row>
@@ -19404,7 +19420,7 @@
       <c r="A918" t="s">
         <v>298</v>
       </c>
-      <c r="B918" s="1">
+      <c r="B918" s="3">
         <v>10.701000000000001</v>
       </c>
     </row>
@@ -19412,7 +19428,7 @@
       <c r="A919" t="s">
         <v>282</v>
       </c>
-      <c r="B919" s="1">
+      <c r="B919" s="3">
         <v>10.308</v>
       </c>
     </row>
@@ -19420,7 +19436,7 @@
       <c r="A920" t="s">
         <v>148</v>
       </c>
-      <c r="B920" s="1">
+      <c r="B920" s="3">
         <v>10.298999999999999</v>
       </c>
     </row>
@@ -19428,7 +19444,7 @@
       <c r="A921" t="s">
         <v>966</v>
       </c>
-      <c r="B921" s="1">
+      <c r="B921" s="3">
         <v>10.223000000000001</v>
       </c>
     </row>
@@ -19436,7 +19452,7 @@
       <c r="A922" t="s">
         <v>279</v>
       </c>
-      <c r="B922" s="1">
+      <c r="B922" s="3">
         <v>10.128</v>
       </c>
     </row>
@@ -19444,7 +19460,7 @@
       <c r="A923" t="s">
         <v>969</v>
       </c>
-      <c r="B923" s="1">
+      <c r="B923" s="3">
         <v>10.099</v>
       </c>
     </row>
@@ -19452,7 +19468,7 @@
       <c r="A924" t="s">
         <v>160</v>
       </c>
-      <c r="B924" s="1">
+      <c r="B924" s="3">
         <v>9.9450000000000003</v>
       </c>
     </row>
@@ -19460,7 +19476,7 @@
       <c r="A925" t="s">
         <v>821</v>
       </c>
-      <c r="B925" s="1">
+      <c r="B925" s="3">
         <v>9.8460000000000001</v>
       </c>
     </row>
@@ -19468,7 +19484,7 @@
       <c r="A926" t="s">
         <v>614</v>
       </c>
-      <c r="B926" s="1">
+      <c r="B926" s="3">
         <v>9.8339999999999996</v>
       </c>
     </row>
@@ -19476,7 +19492,7 @@
       <c r="A927" t="s">
         <v>51</v>
       </c>
-      <c r="B927" s="1">
+      <c r="B927" s="3">
         <v>9.74</v>
       </c>
     </row>
@@ -19484,7 +19500,7 @@
       <c r="A928" t="s">
         <v>286</v>
       </c>
-      <c r="B928" s="1">
+      <c r="B928" s="3">
         <v>9.6929999999999996</v>
       </c>
     </row>
@@ -19492,7 +19508,7 @@
       <c r="A929" t="s">
         <v>970</v>
       </c>
-      <c r="B929" s="1">
+      <c r="B929" s="3">
         <v>9.0449999999999999</v>
       </c>
     </row>
@@ -19500,7 +19516,7 @@
       <c r="A930" t="s">
         <v>175</v>
       </c>
-      <c r="B930" s="1">
+      <c r="B930" s="3">
         <v>9.0350000000000001</v>
       </c>
     </row>
@@ -19508,7 +19524,7 @@
       <c r="A931" t="s">
         <v>967</v>
       </c>
-      <c r="B931" s="1">
+      <c r="B931" s="3">
         <v>8.9819999999999993</v>
       </c>
     </row>
@@ -19516,7 +19532,7 @@
       <c r="A932" t="s">
         <v>935</v>
       </c>
-      <c r="B932" s="1">
+      <c r="B932" s="3">
         <v>8.8439999999999994</v>
       </c>
     </row>
@@ -19524,7 +19540,7 @@
       <c r="A933" t="s">
         <v>206</v>
       </c>
-      <c r="B933" s="1">
+      <c r="B933" s="3">
         <v>8.5190000000000001</v>
       </c>
     </row>
@@ -19532,7 +19548,7 @@
       <c r="A934" t="s">
         <v>1005</v>
       </c>
-      <c r="B934" s="1">
+      <c r="B934" s="3">
         <v>8.3659999999999997</v>
       </c>
     </row>
@@ -19540,7 +19556,7 @@
       <c r="A935" t="s">
         <v>957</v>
       </c>
-      <c r="B935" s="1">
+      <c r="B935" s="3">
         <v>8.2870000000000008</v>
       </c>
     </row>
@@ -19548,7 +19564,7 @@
       <c r="A936" t="s">
         <v>1004</v>
       </c>
-      <c r="B936" s="1">
+      <c r="B936" s="3">
         <v>8.2720000000000002</v>
       </c>
     </row>
@@ -19556,7 +19572,7 @@
       <c r="A937" t="s">
         <v>198</v>
       </c>
-      <c r="B937" s="1">
+      <c r="B937" s="3">
         <v>8.01</v>
       </c>
     </row>
@@ -19564,7 +19580,7 @@
       <c r="A938" t="s">
         <v>958</v>
       </c>
-      <c r="B938" s="1">
+      <c r="B938" s="3">
         <v>7.8150000000000004</v>
       </c>
     </row>
@@ -19572,7 +19588,7 @@
       <c r="A939" t="s">
         <v>295</v>
       </c>
-      <c r="B939" s="1">
+      <c r="B939" s="3">
         <v>7.5460000000000003</v>
       </c>
     </row>
@@ -19580,7 +19596,7 @@
       <c r="A940" t="s">
         <v>54</v>
       </c>
-      <c r="B940" s="1">
+      <c r="B940" s="3">
         <v>7.532</v>
       </c>
     </row>
@@ -19588,7 +19604,7 @@
       <c r="A941" t="s">
         <v>50</v>
       </c>
-      <c r="B941" s="1">
+      <c r="B941" s="3">
         <v>7.4169999999999998</v>
       </c>
     </row>
@@ -19596,7 +19612,7 @@
       <c r="A942" t="s">
         <v>178</v>
       </c>
-      <c r="B942" s="1">
+      <c r="B942" s="3">
         <v>7.375</v>
       </c>
     </row>
@@ -19604,7 +19620,7 @@
       <c r="A943" t="s">
         <v>39</v>
       </c>
-      <c r="B943" s="1">
+      <c r="B943" s="3">
         <v>7.3330000000000002</v>
       </c>
     </row>
@@ -19612,7 +19628,7 @@
       <c r="A944" t="s">
         <v>186</v>
       </c>
-      <c r="B944" s="1">
+      <c r="B944" s="3">
         <v>7.2930000000000001</v>
       </c>
     </row>
@@ -19620,7 +19636,7 @@
       <c r="A945" t="s">
         <v>297</v>
       </c>
-      <c r="B945" s="1">
+      <c r="B945" s="3">
         <v>7.2460000000000004</v>
       </c>
     </row>
@@ -19628,7 +19644,7 @@
       <c r="A946" t="s">
         <v>956</v>
       </c>
-      <c r="B946" s="1">
+      <c r="B946" s="3">
         <v>7.1890000000000001</v>
       </c>
     </row>
@@ -19636,7 +19652,7 @@
       <c r="A947" t="s">
         <v>937</v>
       </c>
-      <c r="B947" s="1">
+      <c r="B947" s="3">
         <v>7.1740000000000004</v>
       </c>
     </row>
@@ -19644,7 +19660,7 @@
       <c r="A948" t="s">
         <v>1008</v>
       </c>
-      <c r="B948" s="1">
+      <c r="B948" s="3">
         <v>7.0030000000000001</v>
       </c>
     </row>
@@ -19652,7 +19668,7 @@
       <c r="A949" t="s">
         <v>993</v>
       </c>
-      <c r="B949" s="1">
+      <c r="B949" s="3">
         <v>6.9740000000000002</v>
       </c>
     </row>
@@ -19660,7 +19676,7 @@
       <c r="A950" t="s">
         <v>936</v>
       </c>
-      <c r="B950" s="1">
+      <c r="B950" s="3">
         <v>6.4829999999999997</v>
       </c>
     </row>
@@ -19668,7 +19684,7 @@
       <c r="A951" t="s">
         <v>599</v>
       </c>
-      <c r="B951" s="1">
+      <c r="B951" s="3">
         <v>6.3120000000000003</v>
       </c>
     </row>
@@ -19676,7 +19692,7 @@
       <c r="A952" t="s">
         <v>973</v>
       </c>
-      <c r="B952" s="1">
+      <c r="B952" s="3">
         <v>6.2889999999999997</v>
       </c>
     </row>
@@ -19684,7 +19700,7 @@
       <c r="A953" t="s">
         <v>985</v>
       </c>
-      <c r="B953" s="1">
+      <c r="B953" s="3">
         <v>6.2110000000000003</v>
       </c>
     </row>
@@ -19692,7 +19708,7 @@
       <c r="A954" t="s">
         <v>699</v>
       </c>
-      <c r="B954" s="1">
+      <c r="B954" s="3">
         <v>6.133</v>
       </c>
     </row>
@@ -19700,7 +19716,7 @@
       <c r="A955" t="s">
         <v>143</v>
       </c>
-      <c r="B955" s="1">
+      <c r="B955" s="3">
         <v>6.09</v>
       </c>
     </row>
@@ -19708,7 +19724,7 @@
       <c r="A956" t="s">
         <v>764</v>
       </c>
-      <c r="B956" s="1">
+      <c r="B956" s="3">
         <v>5.9539999999999997</v>
       </c>
     </row>
@@ -19716,7 +19732,7 @@
       <c r="A957" t="s">
         <v>1010</v>
       </c>
-      <c r="B957" s="1">
+      <c r="B957" s="3">
         <v>5.952</v>
       </c>
     </row>
@@ -19724,7 +19740,7 @@
       <c r="A958" t="s">
         <v>990</v>
       </c>
-      <c r="B958" s="1">
+      <c r="B958" s="3">
         <v>5.9509999999999996</v>
       </c>
     </row>
@@ -19732,7 +19748,7 @@
       <c r="A959" t="s">
         <v>203</v>
       </c>
-      <c r="B959" s="1">
+      <c r="B959" s="3">
         <v>5.8869999999999996</v>
       </c>
     </row>
@@ -19740,7 +19756,7 @@
       <c r="A960" t="s">
         <v>979</v>
       </c>
-      <c r="B960" s="1">
+      <c r="B960" s="3">
         <v>5.83</v>
       </c>
     </row>
@@ -19748,7 +19764,7 @@
       <c r="A961" t="s">
         <v>139</v>
       </c>
-      <c r="B961" s="1">
+      <c r="B961" s="3">
         <v>5.6180000000000003</v>
       </c>
     </row>
@@ -19756,7 +19772,7 @@
       <c r="A962" t="s">
         <v>964</v>
       </c>
-      <c r="B962" s="1">
+      <c r="B962" s="3">
         <v>5.5250000000000004</v>
       </c>
     </row>
@@ -19764,7 +19780,7 @@
       <c r="A963" t="s">
         <v>976</v>
       </c>
-      <c r="B963" s="1">
+      <c r="B963" s="3">
         <v>5.43</v>
       </c>
     </row>
@@ -19772,7 +19788,7 @@
       <c r="A964" t="s">
         <v>55</v>
       </c>
-      <c r="B964" s="1">
+      <c r="B964" s="3">
         <v>5.4119999999999999</v>
       </c>
     </row>
@@ -19780,7 +19796,7 @@
       <c r="A965" t="s">
         <v>40</v>
       </c>
-      <c r="B965" s="1">
+      <c r="B965" s="3">
         <v>5.3440000000000003</v>
       </c>
     </row>
@@ -19788,7 +19804,7 @@
       <c r="A966" t="s">
         <v>804</v>
       </c>
-      <c r="B966" s="1">
+      <c r="B966" s="3">
         <v>5.2949999999999999</v>
       </c>
     </row>
@@ -19796,7 +19812,7 @@
       <c r="A967" t="s">
         <v>1011</v>
       </c>
-      <c r="B967" s="1">
+      <c r="B967" s="3">
         <v>5.2750000000000004</v>
       </c>
     </row>
@@ -19804,7 +19820,7 @@
       <c r="A968" t="s">
         <v>57</v>
       </c>
-      <c r="B968" s="1">
+      <c r="B968" s="3">
         <v>5.2679999999999998</v>
       </c>
     </row>
@@ -19812,7 +19828,7 @@
       <c r="A969" t="s">
         <v>945</v>
       </c>
-      <c r="B969" s="1">
+      <c r="B969" s="3">
         <v>5.2380000000000004</v>
       </c>
     </row>
@@ -19820,7 +19836,7 @@
       <c r="A970" t="s">
         <v>986</v>
       </c>
-      <c r="B970" s="1">
+      <c r="B970" s="3">
         <v>5.1680000000000001</v>
       </c>
     </row>
@@ -19828,7 +19844,7 @@
       <c r="A971" t="s">
         <v>45</v>
       </c>
-      <c r="B971" s="1">
+      <c r="B971" s="3">
         <v>5.1210000000000004</v>
       </c>
     </row>
@@ -19836,7 +19852,7 @@
       <c r="A972" t="s">
         <v>210</v>
       </c>
-      <c r="B972" s="1">
+      <c r="B972" s="3">
         <v>5.0880000000000001</v>
       </c>
     </row>
@@ -19844,7 +19860,7 @@
       <c r="A973" t="s">
         <v>48</v>
       </c>
-      <c r="B973" s="1">
+      <c r="B973" s="3">
         <v>5.0679999999999996</v>
       </c>
     </row>
@@ -19852,7 +19868,7 @@
       <c r="A974" t="s">
         <v>43</v>
       </c>
-      <c r="B974" s="1">
+      <c r="B974" s="3">
         <v>4.992</v>
       </c>
     </row>
@@ -19860,7 +19876,7 @@
       <c r="A975" t="s">
         <v>255</v>
       </c>
-      <c r="B975" s="1">
+      <c r="B975" s="3">
         <v>4.9820000000000002</v>
       </c>
     </row>
@@ -19868,7 +19884,7 @@
       <c r="A976" t="s">
         <v>136</v>
       </c>
-      <c r="B976" s="1">
+      <c r="B976" s="3">
         <v>4.8769999999999998</v>
       </c>
     </row>
@@ -19876,7 +19892,7 @@
       <c r="A977" t="s">
         <v>671</v>
       </c>
-      <c r="B977" s="1">
+      <c r="B977" s="3">
         <v>4.7939999999999996</v>
       </c>
     </row>
@@ -19884,7 +19900,7 @@
       <c r="A978" t="s">
         <v>982</v>
       </c>
-      <c r="B978" s="1">
+      <c r="B978" s="3">
         <v>4.601</v>
       </c>
     </row>
@@ -19892,7 +19908,7 @@
       <c r="A979" t="s">
         <v>952</v>
       </c>
-      <c r="B979" s="1">
+      <c r="B979" s="3">
         <v>4.569</v>
       </c>
     </row>
@@ -19900,7 +19916,7 @@
       <c r="A980" t="s">
         <v>961</v>
       </c>
-      <c r="B980" s="1">
+      <c r="B980" s="3">
         <v>4.55</v>
       </c>
     </row>
@@ -19908,7 +19924,7 @@
       <c r="A981" t="s">
         <v>205</v>
       </c>
-      <c r="B981" s="1">
+      <c r="B981" s="3">
         <v>4.5110000000000001</v>
       </c>
     </row>
@@ -19916,7 +19932,7 @@
       <c r="A982" t="s">
         <v>145</v>
       </c>
-      <c r="B982" s="1">
+      <c r="B982" s="3">
         <v>4.492</v>
       </c>
     </row>
@@ -19924,7 +19940,7 @@
       <c r="A983" t="s">
         <v>253</v>
       </c>
-      <c r="B983" s="1">
+      <c r="B983" s="3">
         <v>4.4589999999999996</v>
       </c>
     </row>
@@ -19932,7 +19948,7 @@
       <c r="A984" t="s">
         <v>140</v>
       </c>
-      <c r="B984" s="1">
+      <c r="B984" s="3">
         <v>4.4370000000000003</v>
       </c>
     </row>
@@ -19940,7 +19956,7 @@
       <c r="A985" t="s">
         <v>141</v>
       </c>
-      <c r="B985" s="1">
+      <c r="B985" s="3">
         <v>4.4050000000000002</v>
       </c>
     </row>
@@ -19948,7 +19964,7 @@
       <c r="A986" t="s">
         <v>250</v>
       </c>
-      <c r="B986" s="1">
+      <c r="B986" s="3">
         <v>4.3760000000000003</v>
       </c>
     </row>
@@ -19956,7 +19972,7 @@
       <c r="A987" t="s">
         <v>977</v>
       </c>
-      <c r="B987" s="1">
+      <c r="B987" s="3">
         <v>4.3280000000000003</v>
       </c>
     </row>
@@ -19964,7 +19980,7 @@
       <c r="A988" t="s">
         <v>974</v>
       </c>
-      <c r="B988" s="1">
+      <c r="B988" s="3">
         <v>4.2679999999999998</v>
       </c>
     </row>
@@ -19972,7 +19988,7 @@
       <c r="A989" t="s">
         <v>984</v>
       </c>
-      <c r="B989" s="1">
+      <c r="B989" s="3">
         <v>4.2370000000000001</v>
       </c>
     </row>
@@ -19980,7 +19996,7 @@
       <c r="A990" t="s">
         <v>989</v>
       </c>
-      <c r="B990" s="1">
+      <c r="B990" s="3">
         <v>4.2279999999999998</v>
       </c>
     </row>
@@ -19988,7 +20004,7 @@
       <c r="A991" t="s">
         <v>598</v>
       </c>
-      <c r="B991" s="1">
+      <c r="B991" s="3">
         <v>4.1509999999999998</v>
       </c>
     </row>
@@ -19996,7 +20012,7 @@
       <c r="A992" t="s">
         <v>788</v>
       </c>
-      <c r="B992" s="1">
+      <c r="B992" s="3">
         <v>4.1139999999999999</v>
       </c>
     </row>
@@ -20004,7 +20020,7 @@
       <c r="A993" t="s">
         <v>56</v>
       </c>
-      <c r="B993" s="1">
+      <c r="B993" s="3">
         <v>4.1020000000000003</v>
       </c>
     </row>
@@ -20012,7 +20028,7 @@
       <c r="A994" t="s">
         <v>138</v>
       </c>
-      <c r="B994" s="1">
+      <c r="B994" s="3">
         <v>4.0919999999999996</v>
       </c>
     </row>
@@ -20020,7 +20036,7 @@
       <c r="A995" t="s">
         <v>954</v>
       </c>
-      <c r="B995" s="1">
+      <c r="B995" s="3">
         <v>4.0439999999999996</v>
       </c>
     </row>
@@ -20028,7 +20044,7 @@
       <c r="A996" t="s">
         <v>988</v>
       </c>
-      <c r="B996" s="1">
+      <c r="B996" s="3">
         <v>4.0190000000000001</v>
       </c>
     </row>
@@ -20036,7 +20052,7 @@
       <c r="A997" t="s">
         <v>249</v>
       </c>
-      <c r="B997" s="1">
+      <c r="B997" s="3">
         <v>3.9980000000000002</v>
       </c>
     </row>
@@ -20044,7 +20060,7 @@
       <c r="A998" t="s">
         <v>955</v>
       </c>
-      <c r="B998" s="1">
+      <c r="B998" s="3">
         <v>3.93</v>
       </c>
     </row>
@@ -20052,7 +20068,7 @@
       <c r="A999" t="s">
         <v>669</v>
       </c>
-      <c r="B999" s="1">
+      <c r="B999" s="3">
         <v>3.7589999999999999</v>
       </c>
     </row>
@@ -20060,7 +20076,7 @@
       <c r="A1000" t="s">
         <v>142</v>
       </c>
-      <c r="B1000" s="1">
+      <c r="B1000" s="3">
         <v>3.7040000000000002</v>
       </c>
     </row>
@@ -20068,7 +20084,7 @@
       <c r="A1001" t="s">
         <v>252</v>
       </c>
-      <c r="B1001" s="1">
+      <c r="B1001" s="3">
         <v>3.6269999999999998</v>
       </c>
     </row>
@@ -20076,7 +20092,7 @@
       <c r="A1002" t="s">
         <v>975</v>
       </c>
-      <c r="B1002" s="1">
+      <c r="B1002" s="3">
         <v>3.62</v>
       </c>
     </row>
@@ -20084,7 +20100,7 @@
       <c r="A1003" t="s">
         <v>146</v>
       </c>
-      <c r="B1003" s="1">
+      <c r="B1003" s="3">
         <v>3.456</v>
       </c>
     </row>
@@ -20092,7 +20108,7 @@
       <c r="A1004" t="s">
         <v>144</v>
       </c>
-      <c r="B1004" s="1">
+      <c r="B1004" s="3">
         <v>3.3759999999999999</v>
       </c>
     </row>
@@ -20100,7 +20116,7 @@
       <c r="A1005" t="s">
         <v>978</v>
       </c>
-      <c r="B1005" s="1">
+      <c r="B1005" s="3">
         <v>3.3420000000000001</v>
       </c>
     </row>
@@ -20108,7 +20124,7 @@
       <c r="A1006" t="s">
         <v>991</v>
       </c>
-      <c r="B1006" s="1">
+      <c r="B1006" s="3">
         <v>3.0859999999999999</v>
       </c>
     </row>
@@ -20116,7 +20132,7 @@
       <c r="A1007" t="s">
         <v>254</v>
       </c>
-      <c r="B1007" s="1">
+      <c r="B1007" s="3">
         <v>2.9420000000000002</v>
       </c>
     </row>
@@ -20124,7 +20140,7 @@
       <c r="A1008" t="s">
         <v>251</v>
       </c>
-      <c r="B1008" s="1">
+      <c r="B1008" s="3">
         <v>2.8959999999999999</v>
       </c>
     </row>
@@ -20132,7 +20148,7 @@
       <c r="A1009" t="s">
         <v>1003</v>
       </c>
-      <c r="B1009" s="1">
+      <c r="B1009" s="3">
         <v>2.2829999999999999</v>
       </c>
     </row>
@@ -20140,7 +20156,7 @@
       <c r="A1010" t="s">
         <v>798</v>
       </c>
-      <c r="B1010" s="1">
+      <c r="B1010" s="3">
         <v>2.0539999999999998</v>
       </c>
     </row>
@@ -20148,7 +20164,7 @@
       <c r="A1011" t="s">
         <v>1009</v>
       </c>
-      <c r="B1011" s="1">
+      <c r="B1011" s="3">
         <v>1.081</v>
       </c>
     </row>
@@ -20156,7 +20172,7 @@
       <c r="A1012" t="s">
         <v>1007</v>
       </c>
-      <c r="B1012" s="1">
+      <c r="B1012" s="3">
         <v>0.63400000000000001</v>
       </c>
     </row>
@@ -20164,7 +20180,7 @@
       <c r="A1013" t="s">
         <v>1006</v>
       </c>
-      <c r="B1013" s="1">
+      <c r="B1013" s="3">
         <v>0.629</v>
       </c>
     </row>
